--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="104">
   <si>
     <t>Point0</t>
   </si>
@@ -157,6 +157,177 @@
   </si>
   <si>
     <t>Uh, what? Nevermind. Punks like you ain't worth it.</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
+    <t>This &amp;#*% is bananas!</t>
+  </si>
+  <si>
+    <t>(other input)</t>
+  </si>
+  <si>
+    <t>Aw yeah!</t>
+  </si>
+  <si>
+    <t>+50 Oxygen</t>
+  </si>
+  <si>
+    <t>Point5</t>
+  </si>
+  <si>
+    <t>Point6</t>
+  </si>
+  <si>
+    <t>Point7</t>
+  </si>
+  <si>
+    <t>Flirt</t>
+  </si>
+  <si>
+    <t>Going my way, baby?</t>
+  </si>
+  <si>
+    <t>I'm more of a lone space ranger.</t>
+  </si>
+  <si>
+    <t>To infinity and beyond.</t>
+  </si>
+  <si>
+    <t>I go wherever the action is.</t>
+  </si>
+  <si>
+    <t>Let me show you the stars.</t>
+  </si>
+  <si>
+    <t>I'll rock your universe.</t>
+  </si>
+  <si>
+    <t>It'll be out of this world.</t>
+  </si>
+  <si>
+    <t>I'm ready to blast off!</t>
+  </si>
+  <si>
+    <t>I'll show you some action.</t>
+  </si>
+  <si>
+    <t>Let's do it.</t>
+  </si>
+  <si>
+    <t>No thanks.</t>
+  </si>
+  <si>
+    <t>What? Why not?</t>
+  </si>
+  <si>
+    <t>It's not you, it's me.</t>
+  </si>
+  <si>
+    <t>I just need some space.</t>
+  </si>
+  <si>
+    <t>My zipper is stuck.</t>
+  </si>
+  <si>
+    <t>Rock me, rocket man!</t>
+  </si>
+  <si>
+    <t>+10 Oxygen</t>
+  </si>
+  <si>
+    <t>Hey, come back!</t>
+  </si>
+  <si>
+    <t>… That's the lamest thing I've ever heard.</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>What color is this shirt?</t>
+  </si>
+  <si>
+    <t>Red.</t>
+  </si>
+  <si>
+    <t>Green.</t>
+  </si>
+  <si>
+    <t>I'm colorblind.</t>
+  </si>
+  <si>
+    <t>Can't put anything past you!</t>
+  </si>
+  <si>
+    <t>You should pay more attention!</t>
+  </si>
+  <si>
+    <t>Nevermind.</t>
+  </si>
+  <si>
+    <t>Ziggy</t>
+  </si>
+  <si>
+    <t>Ground Control to Major Tom…</t>
+  </si>
+  <si>
+    <t>Commencing countdown, engines on…</t>
+  </si>
+  <si>
+    <t>Your circuit's dead, there's something wrong…</t>
+  </si>
+  <si>
+    <t>Tell my wife I love her…</t>
+  </si>
+  <si>
+    <t>You've really made the grade!</t>
+  </si>
+  <si>
+    <t>Can you hear me, Major Tom?</t>
+  </si>
+  <si>
+    <t>She knows…</t>
+  </si>
+  <si>
+    <t>Fenix</t>
+  </si>
+  <si>
+    <t>En Taro Adun!</t>
+  </si>
+  <si>
+    <t>My life for Aiur!</t>
+  </si>
+  <si>
+    <t>Clearly, Tassadar has failed us.</t>
+  </si>
+  <si>
+    <t>En Taro your face!</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Construct additional pylons.</t>
+  </si>
+  <si>
+    <t>There is no cow level.</t>
+  </si>
+  <si>
+    <t>What are your orders, Executor?</t>
+  </si>
+  <si>
+    <t>We require more vespene gas.</t>
+  </si>
+  <si>
+    <t>As you command.</t>
+  </si>
+  <si>
+    <t>I didn't come back for this…</t>
   </si>
 </sst>
 </file>
@@ -276,74 +447,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,7 +463,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D7D5DB"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -639,11 +742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1326,1799 @@
       <c r="E43" s="3"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B44&amp;"""&gt;"</f>
+        <v>&lt;npc name="Gwen"&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f>"&lt;sprite file="""&amp;B44&amp;".png""&gt;"</f>
+        <v>&lt;sprite file="Gwen.png"&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A47,1)&amp;""" text="""&amp;C47&amp;"""&gt;"</f>
+        <v>&lt;point="0" text="This &amp;#*% is bananas!"&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <f>"&lt;response="""&amp;B48&amp;""" text="""&amp;C48&amp;""" Trigger="""&amp;D48&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="B" Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f t="shared" ref="F49:F50" si="7">"&lt;response="""&amp;B49&amp;""" text="""&amp;C49&amp;""" Trigger="""&amp;D49&amp;"""&gt;"</f>
+        <v>&lt;response="(other input)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;response="(timeout)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A52,1)&amp;""" text="""&amp;C52&amp;"""&gt;"</f>
+        <v>&lt;point="1" text="This &amp;#*% is bananas!"&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4" t="str">
+        <f>"&lt;response="""&amp;B53&amp;""" text="""&amp;C53&amp;""" Trigger="""&amp;D53&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="A" Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f t="shared" ref="F54:F55" si="8">"&lt;response="""&amp;B54&amp;""" text="""&amp;C54&amp;""" Trigger="""&amp;D54&amp;"""&gt;"</f>
+        <v>&lt;response="(other input)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>&lt;response="(timeout)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A57,1)&amp;""" text="""&amp;C57&amp;"""&gt;"</f>
+        <v>&lt;point="2" text="This &amp;#*% is bananas!"&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f>"&lt;response="""&amp;B58&amp;""" text="""&amp;C58&amp;""" Trigger="""&amp;D58&amp;"""&gt;"</f>
+        <v>&lt;response="N" text="N" Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="4" t="str">
+        <f t="shared" ref="F59:F60" si="9">"&lt;response="""&amp;B59&amp;""" text="""&amp;C59&amp;""" Trigger="""&amp;D59&amp;"""&gt;"</f>
+        <v>&lt;response="(other input)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;response="(timeout)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A62,1)&amp;""" text="""&amp;C62&amp;"""&gt;"</f>
+        <v>&lt;point="3" text="This &amp;#*% is bananas!"&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="4" t="str">
+        <f>"&lt;response="""&amp;B63&amp;""" text="""&amp;C63&amp;""" Trigger="""&amp;D63&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="A" Trigger="Point4"&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <f t="shared" ref="F64:F65" si="10">"&lt;response="""&amp;B64&amp;""" text="""&amp;C64&amp;""" Trigger="""&amp;D64&amp;"""&gt;"</f>
+        <v>&lt;response="(other input)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;response="(timeout)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A67,1)&amp;""" text="""&amp;C67&amp;"""&gt;"</f>
+        <v>&lt;point="4" text="This &amp;#*% is bananas!"&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f>"&lt;response="""&amp;B68&amp;""" text="""&amp;C68&amp;""" Trigger="""&amp;D68&amp;"""&gt;"</f>
+        <v>&lt;response="N" text="N" Trigger="Point5"&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="4" t="str">
+        <f t="shared" ref="F69:F70" si="11">"&lt;response="""&amp;B69&amp;""" text="""&amp;C69&amp;""" Trigger="""&amp;D69&amp;"""&gt;"</f>
+        <v>&lt;response="(other input)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;response="(timeout)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A72,1)&amp;""" text="""&amp;C72&amp;"""&gt;"</f>
+        <v>&lt;point="5" text="This &amp;#*% is bananas!"&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="4" t="str">
+        <f>"&lt;response="""&amp;B73&amp;""" text="""&amp;C73&amp;""" Trigger="""&amp;D73&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="A" Trigger="Point6"&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <f t="shared" ref="F74:F75" si="12">"&lt;response="""&amp;B74&amp;""" text="""&amp;C74&amp;""" Trigger="""&amp;D74&amp;"""&gt;"</f>
+        <v>&lt;response="(other input)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;response="(timeout)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A77,1)&amp;""" text="""&amp;C77&amp;"""&gt;"</f>
+        <v>&lt;point="6" text="This &amp;#*% is bananas!"&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <f>"&lt;response="""&amp;B78&amp;""" text="""&amp;C78&amp;""" Trigger="""&amp;D78&amp;"""&gt;"</f>
+        <v>&lt;response="S" text="S" Trigger="Point7"&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="4" t="str">
+        <f t="shared" ref="F79:F80" si="13">"&lt;response="""&amp;B79&amp;""" text="""&amp;C79&amp;""" Trigger="""&amp;D79&amp;"""&gt;"</f>
+        <v>&lt;response="(other input)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;response="(timeout)" text="" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <f t="shared" ref="F82" si="14">"&lt;point="""&amp;RIGHT(A82,1)&amp;""" text="""&amp;C82&amp;""" Trigger="""&amp;D82&amp;IF(E82&lt;&gt;"",""" Trigger2="""&amp;E82&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="7" text="Aw yeah!" Trigger="+50 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B87&amp;"""&gt;"</f>
+        <v>&lt;npc name="Flirt"&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <f>"&lt;sprite file="""&amp;B87&amp;".png""&gt;"</f>
+        <v>&lt;sprite file="Flirt.png"&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A90,1)&amp;""" text="""&amp;C90&amp;"""&gt;"</f>
+        <v>&lt;point="0" text="Going my way, baby?"&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="str">
+        <f>"&lt;response="""&amp;B91&amp;""" text="""&amp;C91&amp;""" Trigger="""&amp;D91&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="Let me show you the stars." Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <f>"&lt;response="""&amp;B92&amp;""" text="""&amp;C92&amp;""" Trigger="""&amp;D92&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="I go wherever the action is." Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="4" t="str">
+        <f>"&lt;response="""&amp;B93&amp;""" text="""&amp;C93&amp;""" Trigger="""&amp;D93&amp;"""&gt;"</f>
+        <v>&lt;response="C" text="I'm more of a lone space ranger." Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="4" t="str">
+        <f t="shared" ref="F94" si="15">"&lt;response="""&amp;B94&amp;""" text="""&amp;C94&amp;""" Trigger="""&amp;D94&amp;"""&gt;"</f>
+        <v>&lt;response="(timeout)" text="" Trigger="Point6"&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="F96" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A96,1)&amp;""" text="""&amp;C96&amp;""" Trigger="""&amp;D96&amp;IF(E96&lt;&gt;"",""" Trigger2="""&amp;E96&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="1" text="I'm ready to blast off!" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="4" t="str">
+        <f>"&lt;response="""&amp;B97&amp;""" text="""&amp;C97&amp;""" Trigger="""&amp;D97&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="I'll rock your universe." Trigger="Point4"&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <f t="shared" ref="F98:F100" si="16">"&lt;response="""&amp;B98&amp;""" text="""&amp;C98&amp;""" Trigger="""&amp;D98&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="It'll be out of this world." Trigger="Point4"&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;response="C" text="To infinity and beyond." Trigger="Point5"&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;response="(timeout)" text="" Trigger="Point6"&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="F102" s="4" t="str">
+        <f t="shared" ref="F102" si="17">"&lt;point="""&amp;RIGHT(A102,1)&amp;""" text="""&amp;C102&amp;""" Trigger="""&amp;D102&amp;IF(E102&lt;&gt;"",""" Trigger2="""&amp;E102&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="2" text="I'll show you some action." Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="4" t="str">
+        <f>"&lt;response="""&amp;B103&amp;""" text="""&amp;C103&amp;""" Trigger="""&amp;D103&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="Let's do it." Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="4" t="str">
+        <f t="shared" ref="F104" si="18">"&lt;response="""&amp;B104&amp;""" text="""&amp;C104&amp;""" Trigger="""&amp;D104&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="No thanks." Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" s="4" t="str">
+        <f t="shared" ref="F105" si="19">"&lt;response="""&amp;B105&amp;""" text="""&amp;C105&amp;""" Trigger="""&amp;D105&amp;"""&gt;"</f>
+        <v>&lt;response="(timeout)" text="" Trigger="Point6"&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="4" t="str">
+        <f t="shared" ref="F107" si="20">"&lt;point="""&amp;RIGHT(A107,1)&amp;""" text="""&amp;C107&amp;""" Trigger="""&amp;D107&amp;IF(E107&lt;&gt;"",""" Trigger2="""&amp;E107&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="3" text="What? Why not?" Trigger="" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <f>"&lt;response="""&amp;B108&amp;""" text="""&amp;C108&amp;""" Trigger="""&amp;D108&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="It's not you, it's me." Trigger="Point5"&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" s="4" t="str">
+        <f t="shared" ref="F109:F111" si="21">"&lt;response="""&amp;B109&amp;""" text="""&amp;C109&amp;""" Trigger="""&amp;D109&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="I just need some space." Trigger="Point5"&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;response="C" text="My zipper is stuck." Trigger="Point5"&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" t="s">
+        <v>53</v>
+      </c>
+      <c r="F111" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;response="(timeout)" text="" Trigger="Point6"&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="4" t="str">
+        <f t="shared" ref="F113" si="22">"&lt;point="""&amp;RIGHT(A113,1)&amp;""" text="""&amp;C113&amp;""" Trigger="""&amp;D113&amp;IF(E113&lt;&gt;"",""" Trigger2="""&amp;E113&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="4" text="Rock me, rocket man!" Trigger="+10 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="4" t="str">
+        <f t="shared" ref="F115" si="23">"&lt;point="""&amp;RIGHT(A115,1)&amp;""" text="""&amp;C115&amp;""" Trigger="""&amp;D115&amp;IF(E115&lt;&gt;"",""" Trigger2="""&amp;E115&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="5" text="… That's the lamest thing I've ever heard." Trigger="-5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" t="s">
+        <v>73</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="4" t="str">
+        <f t="shared" ref="F117" si="24">"&lt;point="""&amp;RIGHT(A117,1)&amp;""" text="""&amp;C117&amp;""" Trigger="""&amp;D117&amp;IF(E117&lt;&gt;"",""" Trigger2="""&amp;E117&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="6" text="Hey, come back!" Trigger="-5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" t="s">
+        <v>75</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B122&amp;"""&gt;"</f>
+        <v>&lt;npc name="Troll"&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="4" t="str">
+        <f>"&lt;sprite file="""&amp;B122&amp;".png""&gt;"</f>
+        <v>&lt;sprite file="Troll.png"&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>76</v>
+      </c>
+      <c r="F125" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A125,1)&amp;""" text="""&amp;C125&amp;"""&gt;"</f>
+        <v>&lt;point="0" text="What color is this shirt?"&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>77</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <f>"&lt;response="""&amp;B126&amp;""" text="""&amp;C126&amp;""" Trigger="""&amp;D126&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="Red." Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" s="4" t="str">
+        <f t="shared" ref="F127:F129" si="25">"&lt;response="""&amp;B127&amp;""" text="""&amp;C127&amp;""" Trigger="""&amp;D127&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="Green." Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;response="C" text="I'm colorblind." Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;response="(timeout)" text="" Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>80</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A131,1)&amp;""" text="""&amp;C131&amp;""" Trigger="""&amp;D131&amp;IF(E131&lt;&gt;"",""" Trigger2="""&amp;E131&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="1" text="Can't put anything past you!" Trigger="+5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>32</v>
+      </c>
+      <c r="F132" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="4" t="str">
+        <f t="shared" ref="F133" si="26">"&lt;point="""&amp;RIGHT(A133,1)&amp;""" text="""&amp;C133&amp;""" Trigger="""&amp;D133&amp;IF(E133&lt;&gt;"",""" Trigger2="""&amp;E133&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="2" text="You should pay more attention!" Trigger="-5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>82</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="4" t="str">
+        <f t="shared" ref="F135" si="27">"&lt;point="""&amp;RIGHT(A135,1)&amp;""" text="""&amp;C135&amp;""" Trigger="""&amp;D135&amp;IF(E135&lt;&gt;"",""" Trigger2="""&amp;E135&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="3" text="Nevermind." Trigger="" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" t="s">
+        <v>83</v>
+      </c>
+      <c r="F140" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B140&amp;"""&gt;"</f>
+        <v>&lt;npc name="Ziggy"&gt;</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="4" t="str">
+        <f>"&lt;sprite file="""&amp;B140&amp;".png""&gt;"</f>
+        <v>&lt;sprite file="Ziggy.png"&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>84</v>
+      </c>
+      <c r="F143" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A143,1)&amp;""" text="""&amp;C143&amp;"""&gt;"</f>
+        <v>&lt;point="0" text="Ground Control to Major Tom…"&gt;</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>85</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="4" t="str">
+        <f>"&lt;response="""&amp;B144&amp;""" text="""&amp;C144&amp;""" Trigger="""&amp;D144&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="Commencing countdown, engines on…" Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>86</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" s="4" t="str">
+        <f>"&lt;response="""&amp;B145&amp;""" text="""&amp;C145&amp;""" Trigger="""&amp;D145&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="Your circuit's dead, there's something wrong…" Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>87</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="F146" s="4" t="str">
+        <f>"&lt;response="""&amp;B146&amp;""" text="""&amp;C146&amp;""" Trigger="""&amp;D146&amp;"""&gt;"</f>
+        <v>&lt;response="C" text="Tell my wife I love her…" Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" s="4" t="str">
+        <f t="shared" ref="F147" si="28">"&lt;response="""&amp;B147&amp;""" text="""&amp;C147&amp;""" Trigger="""&amp;D147&amp;"""&gt;"</f>
+        <v>&lt;response="(timeout)" text="" Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>88</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A149,1)&amp;""" text="""&amp;C149&amp;""" Trigger="""&amp;D149&amp;IF(E149&lt;&gt;"",""" Trigger2="""&amp;E149&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="1" text="You've really made the grade!" Trigger="+5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>89</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" s="4" t="str">
+        <f t="shared" ref="F151" si="29">"&lt;point="""&amp;RIGHT(A151,1)&amp;""" text="""&amp;C151&amp;""" Trigger="""&amp;D151&amp;IF(E151&lt;&gt;"",""" Trigger2="""&amp;E151&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="2" text="Can you hear me, Major Tom?" Trigger="-5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" s="4" t="str">
+        <f t="shared" ref="F153" si="30">"&lt;point="""&amp;RIGHT(A153,1)&amp;""" text="""&amp;C153&amp;""" Trigger="""&amp;D153&amp;IF(E153&lt;&gt;"",""" Trigger2="""&amp;E153&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="3" text="She knows…" Trigger="" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" t="s">
+        <v>91</v>
+      </c>
+      <c r="F158" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B158&amp;"""&gt;"</f>
+        <v>&lt;npc name="Fenix"&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="F159" s="4" t="str">
+        <f>"&lt;sprite file="""&amp;B158&amp;".png""&gt;"</f>
+        <v>&lt;sprite file="Fenix.png"&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>92</v>
+      </c>
+      <c r="F161" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A161,1)&amp;""" text="""&amp;C161&amp;"""&gt;"</f>
+        <v>&lt;point="0" text="En Taro Adun!"&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>93</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" s="4" t="str">
+        <f>"&lt;response="""&amp;B162&amp;""" text="""&amp;C162&amp;""" Trigger="""&amp;D162&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="My life for Aiur!" Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" s="4" t="str">
+        <f>"&lt;response="""&amp;B163&amp;""" text="""&amp;C163&amp;""" Trigger="""&amp;D163&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="En Taro your face!" Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" s="4" t="str">
+        <f>"&lt;response="""&amp;B164&amp;""" text="""&amp;C164&amp;""" Trigger="""&amp;D164&amp;"""&gt;"</f>
+        <v>&lt;response="C" text="Clearly, Tassadar has failed us." Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2</v>
+      </c>
+      <c r="F165" s="4" t="str">
+        <f t="shared" ref="F165" si="31">"&lt;response="""&amp;B165&amp;""" text="""&amp;C165&amp;""" Trigger="""&amp;D165&amp;"""&gt;"</f>
+        <v>&lt;response="(timeout)" text="" Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>32</v>
+      </c>
+      <c r="F166" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>100</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="F167" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A167,1)&amp;""" text="""&amp;C167&amp;""" Trigger="""&amp;D167&amp;IF(E167&lt;&gt;"",""" Trigger2="""&amp;E167&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="1" text="What are your orders, Executor?" Trigger=""&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>98</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+      <c r="F168" s="4" t="str">
+        <f>"&lt;response="""&amp;B168&amp;""" text="""&amp;C168&amp;""" Trigger="""&amp;D168&amp;"""&gt;"</f>
+        <v>&lt;response="A" text="Construct additional pylons." Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>101</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="F169" s="4" t="str">
+        <f>"&lt;response="""&amp;B169&amp;""" text="""&amp;C169&amp;""" Trigger="""&amp;D169&amp;"""&gt;"</f>
+        <v>&lt;response="B" text="We require more vespene gas." Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>99</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170" s="4" t="str">
+        <f>"&lt;response="""&amp;B170&amp;""" text="""&amp;C170&amp;""" Trigger="""&amp;D170&amp;"""&gt;"</f>
+        <v>&lt;response="C" text="There is no cow level." Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" s="4" t="str">
+        <f t="shared" ref="F171" si="32">"&lt;response="""&amp;B171&amp;""" text="""&amp;C171&amp;""" Trigger="""&amp;D171&amp;"""&gt;"</f>
+        <v>&lt;response="(timeout)" text="" Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>103</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" s="4" t="str">
+        <f t="shared" ref="F173" si="33">"&lt;point="""&amp;RIGHT(A173,1)&amp;""" text="""&amp;C173&amp;""" Trigger="""&amp;D173&amp;IF(E173&lt;&gt;"",""" Trigger2="""&amp;E173&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="2" text="I didn't come back for this…" Trigger="-5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>32</v>
+      </c>
+      <c r="F174" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>102</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" s="4" t="str">
+        <f t="shared" ref="F175" si="34">"&lt;point="""&amp;RIGHT(A175,1)&amp;""" text="""&amp;C175&amp;""" Trigger="""&amp;D175&amp;IF(E175&lt;&gt;"",""" Trigger2="""&amp;E175&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="3" text="As you command." Trigger="+5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>32</v>
+      </c>
+      <c r="F176" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>33</v>
+      </c>
+      <c r="F178" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="126">
   <si>
     <t>Point0</t>
   </si>
@@ -328,6 +328,72 @@
   </si>
   <si>
     <t>I didn't come back for this…</t>
+  </si>
+  <si>
+    <t>Do you need any help?</t>
+  </si>
+  <si>
+    <t>Helper</t>
+  </si>
+  <si>
+    <t>Nothing right now.</t>
+  </si>
+  <si>
+    <t>Just some oxygen, please.</t>
+  </si>
+  <si>
+    <t>Tell me a secret.</t>
+  </si>
+  <si>
+    <t>Have you tried clicking on the cats?</t>
+  </si>
+  <si>
+    <t>Here you go!</t>
+  </si>
+  <si>
+    <t>Okay then!</t>
+  </si>
+  <si>
+    <t>What is it?</t>
+  </si>
+  <si>
+    <t>Not right now.</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>(Guess what?)</t>
+  </si>
+  <si>
+    <t>(You're very rude.)</t>
+  </si>
+  <si>
+    <t>(You're already dead.)</t>
+  </si>
+  <si>
+    <t>Ghost</t>
   </si>
 </sst>
 </file>
@@ -742,11 +808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C126" t="s">
         <v>77</v>
@@ -2434,7 +2500,7 @@
       </c>
       <c r="F126" s="4" t="str">
         <f>"&lt;response="""&amp;B126&amp;""" text="""&amp;C126&amp;""" Trigger="""&amp;D126&amp;"""&gt;"</f>
-        <v>&lt;response="A" text="Red." Trigger="Point1"&gt;</v>
+        <v>&lt;response="G" text="Red." Trigger="Point1"&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2442,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="C127" t="s">
         <v>78</v>
@@ -2452,7 +2518,7 @@
       </c>
       <c r="F127" s="4" t="str">
         <f t="shared" ref="F127:F129" si="25">"&lt;response="""&amp;B127&amp;""" text="""&amp;C127&amp;""" Trigger="""&amp;D127&amp;"""&gt;"</f>
-        <v>&lt;response="B" text="Green." Trigger="Point2"&gt;</v>
+        <v>&lt;response="R" text="Green." Trigger="Point2"&gt;</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2460,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C128" t="s">
         <v>79</v>
@@ -2470,7 +2536,7 @@
       </c>
       <c r="F128" s="4" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;response="C" text="I'm colorblind." Trigger="Point3"&gt;</v>
+        <v>&lt;response="ESC" text="I'm colorblind." Trigger="Point3"&gt;</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C144" t="s">
         <v>85</v>
@@ -2659,7 +2725,7 @@
       </c>
       <c r="F144" s="4" t="str">
         <f>"&lt;response="""&amp;B144&amp;""" text="""&amp;C144&amp;""" Trigger="""&amp;D144&amp;"""&gt;"</f>
-        <v>&lt;response="A" text="Commencing countdown, engines on…" Trigger="Point1"&gt;</v>
+        <v>&lt;response="Q" text="Commencing countdown, engines on…" Trigger="Point1"&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C145" t="s">
         <v>86</v>
@@ -2677,7 +2743,7 @@
       </c>
       <c r="F145" s="4" t="str">
         <f>"&lt;response="""&amp;B145&amp;""" text="""&amp;C145&amp;""" Trigger="""&amp;D145&amp;"""&gt;"</f>
-        <v>&lt;response="B" text="Your circuit's dead, there's something wrong…" Trigger="Point2"&gt;</v>
+        <v>&lt;response="W" text="Your circuit's dead, there's something wrong…" Trigger="Point2"&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -2685,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C146" t="s">
         <v>87</v>
@@ -2695,7 +2761,7 @@
       </c>
       <c r="F146" s="4" t="str">
         <f>"&lt;response="""&amp;B146&amp;""" text="""&amp;C146&amp;""" Trigger="""&amp;D146&amp;"""&gt;"</f>
-        <v>&lt;response="C" text="Tell my wife I love her…" Trigger="Point3"&gt;</v>
+        <v>&lt;response="E" text="Tell my wife I love her…" Trigger="Point3"&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -2873,8 +2939,8 @@
       <c r="A162" t="s">
         <v>5</v>
       </c>
-      <c r="B162" t="s">
-        <v>11</v>
+      <c r="B162">
+        <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>93</v>
@@ -2884,15 +2950,15 @@
       </c>
       <c r="F162" s="4" t="str">
         <f>"&lt;response="""&amp;B162&amp;""" text="""&amp;C162&amp;""" Trigger="""&amp;D162&amp;"""&gt;"</f>
-        <v>&lt;response="A" text="My life for Aiur!" Trigger="Point1"&gt;</v>
+        <v>&lt;response="1" text="My life for Aiur!" Trigger="Point1"&gt;</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
-      <c r="B163" t="s">
-        <v>12</v>
+      <c r="B163">
+        <v>2</v>
       </c>
       <c r="C163" t="s">
         <v>95</v>
@@ -2902,15 +2968,15 @@
       </c>
       <c r="F163" s="4" t="str">
         <f>"&lt;response="""&amp;B163&amp;""" text="""&amp;C163&amp;""" Trigger="""&amp;D163&amp;"""&gt;"</f>
-        <v>&lt;response="B" text="En Taro your face!" Trigger="Point2"&gt;</v>
+        <v>&lt;response="2" text="En Taro your face!" Trigger="Point2"&gt;</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
-      <c r="B164" t="s">
-        <v>13</v>
+      <c r="B164">
+        <v>3</v>
       </c>
       <c r="C164" t="s">
         <v>94</v>
@@ -2920,7 +2986,7 @@
       </c>
       <c r="F164" s="4" t="str">
         <f>"&lt;response="""&amp;B164&amp;""" text="""&amp;C164&amp;""" Trigger="""&amp;D164&amp;"""&gt;"</f>
-        <v>&lt;response="C" text="Clearly, Tassadar has failed us." Trigger="Point2"&gt;</v>
+        <v>&lt;response="3" text="Clearly, Tassadar has failed us." Trigger="Point2"&gt;</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,8 +3030,8 @@
       <c r="A168" t="s">
         <v>5</v>
       </c>
-      <c r="B168" t="s">
-        <v>11</v>
+      <c r="B168">
+        <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>98</v>
@@ -2975,15 +3041,15 @@
       </c>
       <c r="F168" s="4" t="str">
         <f>"&lt;response="""&amp;B168&amp;""" text="""&amp;C168&amp;""" Trigger="""&amp;D168&amp;"""&gt;"</f>
-        <v>&lt;response="A" text="Construct additional pylons." Trigger="Point3"&gt;</v>
+        <v>&lt;response="1" text="Construct additional pylons." Trigger="Point3"&gt;</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
-      <c r="B169" t="s">
-        <v>12</v>
+      <c r="B169">
+        <v>2</v>
       </c>
       <c r="C169" t="s">
         <v>101</v>
@@ -2993,15 +3059,15 @@
       </c>
       <c r="F169" s="4" t="str">
         <f>"&lt;response="""&amp;B169&amp;""" text="""&amp;C169&amp;""" Trigger="""&amp;D169&amp;"""&gt;"</f>
-        <v>&lt;response="B" text="We require more vespene gas." Trigger="Point3"&gt;</v>
+        <v>&lt;response="2" text="We require more vespene gas." Trigger="Point3"&gt;</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
-      <c r="B170" t="s">
-        <v>13</v>
+      <c r="B170">
+        <v>3</v>
       </c>
       <c r="C170" t="s">
         <v>99</v>
@@ -3011,7 +3077,7 @@
       </c>
       <c r="F170" s="4" t="str">
         <f>"&lt;response="""&amp;B170&amp;""" text="""&amp;C170&amp;""" Trigger="""&amp;D170&amp;"""&gt;"</f>
-        <v>&lt;response="C" text="There is no cow level." Trigger="Point2"&gt;</v>
+        <v>&lt;response="3" text="There is no cow level." Trigger="Point2"&gt;</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,7 +3184,412 @@
       <c r="E179" s="3"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" t="s">
+        <v>105</v>
+      </c>
+      <c r="F180" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B180&amp;"""&gt;"</f>
+        <v>&lt;npc name="Helper"&gt;</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>30</v>
+      </c>
+      <c r="F181" s="4" t="str">
+        <f>"&lt;sprite file="""&amp;B180&amp;".png""&gt;"</f>
+        <v>&lt;sprite file="Helper.png"&gt;</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>104</v>
+      </c>
+      <c r="F183" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A183,1)&amp;""" text="""&amp;C183&amp;"""&gt;"</f>
+        <v>&lt;point="0" text="Do you need any help?"&gt;</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>106</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="4" t="str">
+        <f>"&lt;response="""&amp;B184&amp;""" text="""&amp;C184&amp;""" Trigger="""&amp;D184&amp;"""&gt;"</f>
+        <v>&lt;response="1" text="Nothing right now." Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" t="s">
+        <v>107</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185" s="4" t="str">
+        <f>"&lt;response="""&amp;B185&amp;""" text="""&amp;C185&amp;""" Trigger="""&amp;D185&amp;"""&gt;"</f>
+        <v>&lt;response="2" text="Just some oxygen, please." Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>108</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="F186" s="4" t="str">
+        <f>"&lt;response="""&amp;B186&amp;""" text="""&amp;C186&amp;""" Trigger="""&amp;D186&amp;"""&gt;"</f>
+        <v>&lt;response="3" text="Tell me a secret." Trigger="Point3"&gt;</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1</v>
+      </c>
+      <c r="F187" s="4" t="str">
+        <f t="shared" ref="F187" si="35">"&lt;response="""&amp;B187&amp;""" text="""&amp;C187&amp;""" Trigger="""&amp;D187&amp;"""&gt;"</f>
+        <v>&lt;response="(timeout)" text="" Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>32</v>
+      </c>
+      <c r="F188" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>111</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A189,1)&amp;""" text="""&amp;C189&amp;""" Trigger="""&amp;D189&amp;IF(E189&lt;&gt;"",""" Trigger2="""&amp;E189&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="1" text="Okay then!" Trigger="" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>32</v>
+      </c>
+      <c r="F190" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>110</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" s="4" t="str">
+        <f t="shared" ref="F191" si="36">"&lt;point="""&amp;RIGHT(A191,1)&amp;""" text="""&amp;C191&amp;""" Trigger="""&amp;D191&amp;IF(E191&lt;&gt;"",""" Trigger2="""&amp;E191&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="2" text="Here you go!" Trigger="+5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>32</v>
+      </c>
+      <c r="F192" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>109</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193" s="4" t="str">
+        <f t="shared" ref="F193" si="37">"&lt;point="""&amp;RIGHT(A193,1)&amp;""" text="""&amp;C193&amp;""" Trigger="""&amp;D193&amp;IF(E193&lt;&gt;"",""" Trigger2="""&amp;E193&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="3" text="Have you tried clicking on the cats?" Trigger="" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>32</v>
+      </c>
+      <c r="F194" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>33</v>
+      </c>
+      <c r="F196" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>34</v>
+      </c>
+      <c r="B198" t="s">
+        <v>125</v>
+      </c>
+      <c r="F198" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B198&amp;"""&gt;"</f>
+        <v>&lt;npc name="Ghost"&gt;</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>30</v>
+      </c>
+      <c r="F199" s="4" t="str">
+        <f>"&lt;sprite file="""&amp;B198&amp;".png""&gt;"</f>
+        <v>&lt;sprite file="Ghost.png"&gt;</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>31</v>
+      </c>
+      <c r="F200" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>122</v>
+      </c>
+      <c r="F201" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A201,1)&amp;""" text="""&amp;C201&amp;"""&gt;"</f>
+        <v>&lt;point="0" text="(Guess what?)"&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>121</v>
+      </c>
+      <c r="C202" t="s">
+        <v>112</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2</v>
+      </c>
+      <c r="F202" s="4" t="str">
+        <f>"&lt;response="""&amp;B202&amp;""" text="""&amp;C202&amp;""" Trigger="""&amp;D202&amp;"""&gt;"</f>
+        <v>&lt;response="~" text="What is it?" Trigger="Point2"&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>120</v>
+      </c>
+      <c r="C203" t="s">
+        <v>113</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1</v>
+      </c>
+      <c r="F203" s="4" t="str">
+        <f>"&lt;response="""&amp;B203&amp;""" text="""&amp;C203&amp;""" Trigger="""&amp;D203&amp;"""&gt;"</f>
+        <v>&lt;response="*" text="Not right now." Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>21</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1</v>
+      </c>
+      <c r="F204" s="4" t="str">
+        <f t="shared" ref="F204" si="38">"&lt;response="""&amp;B204&amp;""" text="""&amp;C204&amp;""" Trigger="""&amp;D204&amp;"""&gt;"</f>
+        <v>&lt;response="(timeout)" text="" Trigger="Point1"&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>32</v>
+      </c>
+      <c r="F205" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>123</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E206" t="s">
+        <v>28</v>
+      </c>
+      <c r="F206" s="4" t="str">
+        <f>"&lt;point="""&amp;RIGHT(A206,1)&amp;""" text="""&amp;C206&amp;""" Trigger="""&amp;D206&amp;IF(E206&lt;&gt;"",""" Trigger2="""&amp;E206&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="1" text="(You're very rude.)" Trigger="-5 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>32</v>
+      </c>
+      <c r="F207" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>124</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E208" t="s">
+        <v>28</v>
+      </c>
+      <c r="F208" s="4" t="str">
+        <f t="shared" ref="F208" si="39">"&lt;point="""&amp;RIGHT(A208,1)&amp;""" text="""&amp;C208&amp;""" Trigger="""&amp;D208&amp;IF(E208&lt;&gt;"",""" Trigger2="""&amp;E208&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point="2" text="(You're already dead.)" Trigger="-10 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>32</v>
+      </c>
+      <c r="F209" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>28</v>
+      </c>
+      <c r="F210" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>33</v>
+      </c>
+      <c r="F211" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="5"/>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -811,7 +811,7 @@
   <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="220">
   <si>
     <t>Point0</t>
   </si>
@@ -487,6 +487,195 @@
   </si>
   <si>
     <t>-0.1 Oxygen</t>
+  </si>
+  <si>
+    <t>I'm not your bro, pal.</t>
+  </si>
+  <si>
+    <t>What's up, Bro.</t>
+  </si>
+  <si>
+    <t>Not much, Broski.</t>
+  </si>
+  <si>
+    <t>Broseph.</t>
+  </si>
+  <si>
+    <t>Broseidon.</t>
+  </si>
+  <si>
+    <t>Brometheus.</t>
+  </si>
+  <si>
+    <t>Bromo sapiens.</t>
+  </si>
+  <si>
+    <t>Bro magnon.</t>
+  </si>
+  <si>
+    <t>Bro bono.</t>
+  </si>
+  <si>
+    <t>Brotato.</t>
+  </si>
+  <si>
+    <t>Brobama.</t>
+  </si>
+  <si>
+    <t>Brogaine.</t>
+  </si>
+  <si>
+    <t>Brotis Redding.</t>
+  </si>
+  <si>
+    <t>Bronus Wagner.</t>
+  </si>
+  <si>
+    <t>Broly Ghost.</t>
+  </si>
+  <si>
+    <t>Brodin Allfather.</t>
+  </si>
+  <si>
+    <t>Bro Chang.</t>
+  </si>
+  <si>
+    <t>Marcus Brody.</t>
+  </si>
+  <si>
+    <t>Take it easy.</t>
+  </si>
+  <si>
+    <t>Point8</t>
+  </si>
+  <si>
+    <t>I'm not your pal, friend.</t>
+  </si>
+  <si>
+    <t>I'm not your friend, man.</t>
+  </si>
+  <si>
+    <t>I'm not your friend, guy.</t>
+  </si>
+  <si>
+    <t>Point9</t>
+  </si>
+  <si>
+    <t>Point10</t>
+  </si>
+  <si>
+    <t>Point11</t>
+  </si>
+  <si>
+    <t>I'm not your guy, chief.</t>
+  </si>
+  <si>
+    <t>Point12</t>
+  </si>
+  <si>
+    <t>I'm not your chief, dude.</t>
+  </si>
+  <si>
+    <t>I'm not your chief, lady.</t>
+  </si>
+  <si>
+    <t>I'm not your man, buddy.</t>
+  </si>
+  <si>
+    <t>I'm not your buddy, guy.</t>
+  </si>
+  <si>
+    <t>I'm not your buddy, dude.</t>
+  </si>
+  <si>
+    <t>I'm not your dude, chum.</t>
+  </si>
+  <si>
+    <t>I'm not your chum, lady.</t>
+  </si>
+  <si>
+    <t>I'm not your chum, comrade.</t>
+  </si>
+  <si>
+    <t>Point13</t>
+  </si>
+  <si>
+    <t>Didn't we do this already?</t>
+  </si>
+  <si>
+    <t>Bro shizzle.</t>
+  </si>
+  <si>
+    <t>Yeah, bro!</t>
+  </si>
+  <si>
+    <t>Uh, okay.</t>
+  </si>
+  <si>
+    <t>Comrade? Really?</t>
+  </si>
+  <si>
+    <t>ChadBro</t>
+  </si>
+  <si>
+    <t>+0.3 Oxygen</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Point14</t>
+  </si>
+  <si>
+    <t>I'm not your lady, partner.</t>
+  </si>
+  <si>
+    <t>I'm not your partner, cousin.</t>
+  </si>
+  <si>
+    <t>I'm not your partner, comrade.</t>
+  </si>
+  <si>
+    <t>I'm not your cousin, bro.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -901,11 +1090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,12 +1483,9 @@
       <c r="D29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
       <c r="F29" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A29,1)&amp;""" text="""&amp;C29&amp;""" trigger="""&amp;D29&amp;IF(E29&lt;&gt;"",""" Trigger2="""&amp;E29&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="So you think you're clever?" trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <v>&lt;point id="1" text="So you think you're clever?" trigger="+0.1 Oxygen"&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,8 +1745,8 @@
         <v>25</v>
       </c>
       <c r="F49" s="4" t="str">
-        <f>"&lt;response key="""&amp;B49&amp;""" text="""&amp;C49&amp;""" trigger="""&amp;D49&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen"&gt;</v>
+        <f>"&lt;response key="""&amp;B49&amp;""" text="""&amp;C49&amp;""" trigger="""&amp;D49&amp;""" trigger2="""&amp;E49&amp;"""&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,8 +1802,8 @@
         <v>25</v>
       </c>
       <c r="F53" s="4" t="str">
-        <f>"&lt;response key="""&amp;B53&amp;""" text="""&amp;C53&amp;""" trigger="""&amp;D53&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen"&gt;</v>
+        <f>"&lt;response key="""&amp;B53&amp;""" text="""&amp;C53&amp;""" trigger="""&amp;D53&amp;""" trigger2="""&amp;E53&amp;"""&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,8 +1859,8 @@
         <v>25</v>
       </c>
       <c r="F57" s="4" t="str">
-        <f>"&lt;response key="""&amp;B57&amp;""" text="""&amp;C57&amp;""" trigger="""&amp;D57&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen"&gt;</v>
+        <f>"&lt;response key="""&amp;B57&amp;""" text="""&amp;C57&amp;""" trigger="""&amp;D57&amp;""" trigger2="""&amp;E57&amp;"""&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,8 +1916,8 @@
         <v>25</v>
       </c>
       <c r="F61" s="4" t="str">
-        <f>"&lt;response key="""&amp;B61&amp;""" text="""&amp;C61&amp;""" trigger="""&amp;D61&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen"&gt;</v>
+        <f>"&lt;response key="""&amp;B61&amp;""" text="""&amp;C61&amp;""" trigger="""&amp;D61&amp;""" trigger2="""&amp;E61&amp;"""&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,8 +1973,8 @@
         <v>25</v>
       </c>
       <c r="F65" s="4" t="str">
-        <f>"&lt;response key="""&amp;B65&amp;""" text="""&amp;C65&amp;""" trigger="""&amp;D65&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen"&gt;</v>
+        <f>"&lt;response key="""&amp;B65&amp;""" text="""&amp;C65&amp;""" trigger="""&amp;D65&amp;""" trigger2="""&amp;E65&amp;"""&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,8 +2030,8 @@
         <v>25</v>
       </c>
       <c r="F69" s="4" t="str">
-        <f>"&lt;response key="""&amp;B69&amp;""" text="""&amp;C69&amp;""" trigger="""&amp;D69&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen"&gt;</v>
+        <f>"&lt;response key="""&amp;B69&amp;""" text="""&amp;C69&amp;""" trigger="""&amp;D69&amp;""" trigger2="""&amp;E69&amp;"""&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,8 +2087,8 @@
         <v>25</v>
       </c>
       <c r="F73" s="4" t="str">
-        <f>"&lt;response key="""&amp;B73&amp;""" text="""&amp;C73&amp;""" trigger="""&amp;D73&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen"&gt;</v>
+        <f>"&lt;response key="""&amp;B73&amp;""" text="""&amp;C73&amp;""" trigger="""&amp;D73&amp;""" trigger2="""&amp;E73&amp;"""&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2023,8 +2209,8 @@
         <v>1</v>
       </c>
       <c r="F84" s="4" t="str">
-        <f>"&lt;response key="""&amp;B84&amp;""" text="""&amp;C84&amp;""" trigger="""&amp;D84&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Let me show you the stars." trigger="Point1"&gt;</v>
+        <f>"&lt;response key="""&amp;B84&amp;""" text="""&amp;C84&amp;""" trigger="""&amp;D84&amp;""" trigger2="""&amp;E84&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="Let me show you the stars." trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,8 +2227,8 @@
         <v>2</v>
       </c>
       <c r="F85" s="4" t="str">
-        <f>"&lt;response key="""&amp;B85&amp;""" text="""&amp;C85&amp;""" trigger="""&amp;D85&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="I go wherever the action is." trigger="Point2"&gt;</v>
+        <f>"&lt;response key="""&amp;B85&amp;""" text="""&amp;C85&amp;""" trigger="""&amp;D85&amp;""" trigger2="""&amp;E85&amp;"""&gt;"</f>
+        <v>&lt;response key="B" text="I go wherever the action is." trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,8 +2245,8 @@
         <v>3</v>
       </c>
       <c r="F86" s="4" t="str">
-        <f>"&lt;response key="""&amp;B86&amp;""" text="""&amp;C86&amp;""" trigger="""&amp;D86&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="I'm more of a lone space ranger." trigger="Point3"&gt;</v>
+        <f>"&lt;response key="""&amp;B86&amp;""" text="""&amp;C86&amp;""" trigger="""&amp;D86&amp;""" trigger2="""&amp;E86&amp;"""&gt;"</f>
+        <v>&lt;response key="C" text="I'm more of a lone space ranger." trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,8 +2260,8 @@
         <v>48</v>
       </c>
       <c r="F87" s="4" t="str">
-        <f>"&lt;response key="""&amp;B87&amp;""" text="""&amp;C87&amp;""" trigger="""&amp;D87&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6"&gt;</v>
+        <f>"&lt;response key="""&amp;B87&amp;""" text="""&amp;C87&amp;""" trigger="""&amp;D87&amp;""" trigger2="""&amp;E87&amp;"""&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,8 +2300,8 @@
         <v>4</v>
       </c>
       <c r="F90" s="4" t="str">
-        <f>"&lt;response key="""&amp;B90&amp;""" text="""&amp;C90&amp;""" trigger="""&amp;D90&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="I'll rock your universe." trigger="Point4"&gt;</v>
+        <f>"&lt;response key="""&amp;B90&amp;""" text="""&amp;C90&amp;""" trigger="""&amp;D90&amp;""" trigger2="""&amp;E90&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="I'll rock your universe." trigger="Point4" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,8 +2318,8 @@
         <v>4</v>
       </c>
       <c r="F91" s="4" t="str">
-        <f>"&lt;response key="""&amp;B91&amp;""" text="""&amp;C91&amp;""" trigger="""&amp;D91&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="It'll be out of this world." trigger="Point4"&gt;</v>
+        <f>"&lt;response key="""&amp;B91&amp;""" text="""&amp;C91&amp;""" trigger="""&amp;D91&amp;""" trigger2="""&amp;E91&amp;"""&gt;"</f>
+        <v>&lt;response key="B" text="It'll be out of this world." trigger="Point4" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,8 +2336,8 @@
         <v>47</v>
       </c>
       <c r="F92" s="4" t="str">
-        <f>"&lt;response key="""&amp;B92&amp;""" text="""&amp;C92&amp;""" trigger="""&amp;D92&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="To infinity and beyond." trigger="Point5"&gt;</v>
+        <f>"&lt;response key="""&amp;B92&amp;""" text="""&amp;C92&amp;""" trigger="""&amp;D92&amp;""" trigger2="""&amp;E92&amp;"""&gt;"</f>
+        <v>&lt;response key="C" text="To infinity and beyond." trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2205,8 +2391,8 @@
         <v>1</v>
       </c>
       <c r="F96" s="4" t="str">
-        <f>"&lt;response key="""&amp;B96&amp;""" text="""&amp;C96&amp;""" trigger="""&amp;D96&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Let's do it." trigger="Point1"&gt;</v>
+        <f t="shared" ref="F96:F98" si="0">"&lt;response key="""&amp;B96&amp;""" text="""&amp;C96&amp;""" trigger="""&amp;D96&amp;""" trigger2="""&amp;E96&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="Let's do it." trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2223,8 +2409,8 @@
         <v>3</v>
       </c>
       <c r="F97" s="4" t="str">
-        <f>"&lt;response key="""&amp;B97&amp;""" text="""&amp;C97&amp;""" trigger="""&amp;D97&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="No thanks." trigger="Point3"&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;response key="B" text="No thanks." trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2238,8 +2424,8 @@
         <v>48</v>
       </c>
       <c r="F98" s="4" t="str">
-        <f>"&lt;response key="""&amp;B98&amp;""" text="""&amp;C98&amp;""" trigger="""&amp;D98&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6"&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,8 +2467,8 @@
         <v>47</v>
       </c>
       <c r="F101" s="4" t="str">
-        <f>"&lt;response key="""&amp;B101&amp;""" text="""&amp;C101&amp;""" trigger="""&amp;D101&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="It's not you, it's me." trigger="Point5"&gt;</v>
+        <f t="shared" ref="F101:F104" si="1">"&lt;response key="""&amp;B101&amp;""" text="""&amp;C101&amp;""" trigger="""&amp;D101&amp;""" trigger2="""&amp;E101&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="It's not you, it's me." trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,8 +2485,8 @@
         <v>47</v>
       </c>
       <c r="F102" s="4" t="str">
-        <f>"&lt;response key="""&amp;B102&amp;""" text="""&amp;C102&amp;""" trigger="""&amp;D102&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="I just need some space." trigger="Point5"&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;response key="B" text="I just need some space." trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,8 +2503,8 @@
         <v>47</v>
       </c>
       <c r="F103" s="4" t="str">
-        <f>"&lt;response key="""&amp;B103&amp;""" text="""&amp;C103&amp;""" trigger="""&amp;D103&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="My zipper is stuck." trigger="Point5"&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;response key="C" text="My zipper is stuck." trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2332,8 +2518,8 @@
         <v>48</v>
       </c>
       <c r="F104" s="4" t="str">
-        <f>"&lt;response key="""&amp;B104&amp;""" text="""&amp;C104&amp;""" trigger="""&amp;D104&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6"&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2508,8 +2694,8 @@
         <v>1</v>
       </c>
       <c r="F119" s="4" t="str">
-        <f>"&lt;response key="""&amp;B119&amp;""" text="""&amp;C119&amp;""" trigger="""&amp;D119&amp;"""&gt;"</f>
-        <v>&lt;response key="G" text="Red." trigger="Point1"&gt;</v>
+        <f t="shared" ref="F119:F122" si="2">"&lt;response key="""&amp;B119&amp;""" text="""&amp;C119&amp;""" trigger="""&amp;D119&amp;""" trigger2="""&amp;E119&amp;"""&gt;"</f>
+        <v>&lt;response key="G" text="Red." trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,8 +2712,8 @@
         <v>2</v>
       </c>
       <c r="F120" s="4" t="str">
-        <f>"&lt;response key="""&amp;B120&amp;""" text="""&amp;C120&amp;""" trigger="""&amp;D120&amp;"""&gt;"</f>
-        <v>&lt;response key="R" text="Green." trigger="Point2"&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;response key="R" text="Green." trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,8 +2730,8 @@
         <v>3</v>
       </c>
       <c r="F121" s="4" t="str">
-        <f>"&lt;response key="""&amp;B121&amp;""" text="""&amp;C121&amp;""" trigger="""&amp;D121&amp;"""&gt;"</f>
-        <v>&lt;response key="ESC" text="I'm colorblind." trigger="Point3"&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;response key="ESC" text="I'm colorblind." trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,8 +2745,8 @@
         <v>3</v>
       </c>
       <c r="F122" s="4" t="str">
-        <f>"&lt;response key="""&amp;B122&amp;""" text="""&amp;C122&amp;""" trigger="""&amp;D122&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point3"&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,8 +2919,8 @@
         <v>1</v>
       </c>
       <c r="F137" s="4" t="str">
-        <f>"&lt;response key="""&amp;B137&amp;""" text="""&amp;C137&amp;""" trigger="""&amp;D137&amp;"""&gt;"</f>
-        <v>&lt;response key="Q" text="Commencing countdown, engines on…" trigger="Point1"&gt;</v>
+        <f t="shared" ref="F137:F140" si="3">"&lt;response key="""&amp;B137&amp;""" text="""&amp;C137&amp;""" trigger="""&amp;D137&amp;""" trigger2="""&amp;E137&amp;"""&gt;"</f>
+        <v>&lt;response key="Q" text="Commencing countdown, engines on…" trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,8 +2937,8 @@
         <v>2</v>
       </c>
       <c r="F138" s="4" t="str">
-        <f>"&lt;response key="""&amp;B138&amp;""" text="""&amp;C138&amp;""" trigger="""&amp;D138&amp;"""&gt;"</f>
-        <v>&lt;response key="W" text="Your circuit's dead, there's something wrong…" trigger="Point2"&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;response key="W" text="Your circuit's dead, there's something wrong…" trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,8 +2955,8 @@
         <v>3</v>
       </c>
       <c r="F139" s="4" t="str">
-        <f>"&lt;response key="""&amp;B139&amp;""" text="""&amp;C139&amp;""" trigger="""&amp;D139&amp;"""&gt;"</f>
-        <v>&lt;response key="E" text="Tell my wife I love her…" trigger="Point3"&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;response key="E" text="Tell my wife I love her…" trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,8 +2970,8 @@
         <v>2</v>
       </c>
       <c r="F140" s="4" t="str">
-        <f>"&lt;response key="""&amp;B140&amp;""" text="""&amp;C140&amp;""" trigger="""&amp;D140&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2"&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -2958,8 +3144,8 @@
         <v>1</v>
       </c>
       <c r="F155" s="4" t="str">
-        <f>"&lt;response key="""&amp;B155&amp;""" text="""&amp;C155&amp;""" trigger="""&amp;D155&amp;"""&gt;"</f>
-        <v>&lt;response key="1" text="My life for Aiur!" trigger="Point1"&gt;</v>
+        <f t="shared" ref="F155:F158" si="4">"&lt;response key="""&amp;B155&amp;""" text="""&amp;C155&amp;""" trigger="""&amp;D155&amp;""" trigger2="""&amp;E155&amp;"""&gt;"</f>
+        <v>&lt;response key="1" text="My life for Aiur!" trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,8 +3162,8 @@
         <v>2</v>
       </c>
       <c r="F156" s="4" t="str">
-        <f>"&lt;response key="""&amp;B156&amp;""" text="""&amp;C156&amp;""" trigger="""&amp;D156&amp;"""&gt;"</f>
-        <v>&lt;response key="2" text="En Taro your face!" trigger="Point2"&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;response key="2" text="En Taro your face!" trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -2994,8 +3180,8 @@
         <v>2</v>
       </c>
       <c r="F157" s="4" t="str">
-        <f>"&lt;response key="""&amp;B157&amp;""" text="""&amp;C157&amp;""" trigger="""&amp;D157&amp;"""&gt;"</f>
-        <v>&lt;response key="3" text="Clearly, Tassadar has failed us." trigger="Point2"&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;response key="3" text="Clearly, Tassadar has failed us." trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3009,8 +3195,8 @@
         <v>2</v>
       </c>
       <c r="F158" s="4" t="str">
-        <f>"&lt;response key="""&amp;B158&amp;""" text="""&amp;C158&amp;""" trigger="""&amp;D158&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2"&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3049,8 +3235,8 @@
         <v>3</v>
       </c>
       <c r="F161" s="4" t="str">
-        <f>"&lt;response key="""&amp;B161&amp;""" text="""&amp;C161&amp;""" trigger="""&amp;D161&amp;"""&gt;"</f>
-        <v>&lt;response key="1" text="Construct additional pylons." trigger="Point3"&gt;</v>
+        <f t="shared" ref="F161:F164" si="5">"&lt;response key="""&amp;B161&amp;""" text="""&amp;C161&amp;""" trigger="""&amp;D161&amp;""" trigger2="""&amp;E161&amp;"""&gt;"</f>
+        <v>&lt;response key="1" text="Construct additional pylons." trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,8 +3253,8 @@
         <v>3</v>
       </c>
       <c r="F162" s="4" t="str">
-        <f>"&lt;response key="""&amp;B162&amp;""" text="""&amp;C162&amp;""" trigger="""&amp;D162&amp;"""&gt;"</f>
-        <v>&lt;response key="2" text="We require more vespene gas." trigger="Point3"&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;response key="2" text="We require more vespene gas." trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,8 +3271,8 @@
         <v>2</v>
       </c>
       <c r="F163" s="4" t="str">
-        <f>"&lt;response key="""&amp;B163&amp;""" text="""&amp;C163&amp;""" trigger="""&amp;D163&amp;"""&gt;"</f>
-        <v>&lt;response key="3" text="There is no cow level." trigger="Point2"&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;response key="3" text="There is no cow level." trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,8 +3286,8 @@
         <v>2</v>
       </c>
       <c r="F164" s="4" t="str">
-        <f>"&lt;response key="""&amp;B164&amp;""" text="""&amp;C164&amp;""" trigger="""&amp;D164&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2"&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3249,8 +3435,8 @@
         <v>1</v>
       </c>
       <c r="F177" s="4" t="str">
-        <f>"&lt;response key="""&amp;B177&amp;""" text="""&amp;C177&amp;""" trigger="""&amp;D177&amp;"""&gt;"</f>
-        <v>&lt;response key="1" text="Nothing right now." trigger="Point1"&gt;</v>
+        <f t="shared" ref="F177:F180" si="6">"&lt;response key="""&amp;B177&amp;""" text="""&amp;C177&amp;""" trigger="""&amp;D177&amp;""" trigger2="""&amp;E177&amp;"""&gt;"</f>
+        <v>&lt;response key="1" text="Nothing right now." trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -3267,8 +3453,8 @@
         <v>2</v>
       </c>
       <c r="F178" s="4" t="str">
-        <f>"&lt;response key="""&amp;B178&amp;""" text="""&amp;C178&amp;""" trigger="""&amp;D178&amp;"""&gt;"</f>
-        <v>&lt;response key="2" text="Just some oxygen, please." trigger="Point2"&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;response key="2" text="Just some oxygen, please." trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,8 +3471,8 @@
         <v>3</v>
       </c>
       <c r="F179" s="4" t="str">
-        <f>"&lt;response key="""&amp;B179&amp;""" text="""&amp;C179&amp;""" trigger="""&amp;D179&amp;"""&gt;"</f>
-        <v>&lt;response key="3" text="Tell me a secret." trigger="Point3"&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;response key="3" text="Tell me a secret." trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,8 +3486,8 @@
         <v>1</v>
       </c>
       <c r="F180" s="4" t="str">
-        <f>"&lt;response key="""&amp;B180&amp;""" text="""&amp;C180&amp;""" trigger="""&amp;D180&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point1"&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -3472,8 +3658,8 @@
         <v>2</v>
       </c>
       <c r="F195" s="4" t="str">
-        <f>"&lt;response key="""&amp;B195&amp;""" text="""&amp;C195&amp;""" trigger="""&amp;D195&amp;"""&gt;"</f>
-        <v>&lt;response key="~" text="What is it?" trigger="Point2"&gt;</v>
+        <f t="shared" ref="F195:F197" si="7">"&lt;response key="""&amp;B195&amp;""" text="""&amp;C195&amp;""" trigger="""&amp;D195&amp;""" trigger2="""&amp;E195&amp;"""&gt;"</f>
+        <v>&lt;response key="~" text="What is it?" trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -3490,8 +3676,8 @@
         <v>1</v>
       </c>
       <c r="F196" s="4" t="str">
-        <f>"&lt;response key="""&amp;B196&amp;""" text="""&amp;C196&amp;""" trigger="""&amp;D196&amp;"""&gt;"</f>
-        <v>&lt;response key="*" text="Not right now." trigger="Point1"&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;response key="*" text="Not right now." trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,8 +3691,8 @@
         <v>1</v>
       </c>
       <c r="F197" s="4" t="str">
-        <f>"&lt;response key="""&amp;B197&amp;""" text="""&amp;C197&amp;""" trigger="""&amp;D197&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point1"&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -3654,8 +3840,8 @@
         <v>1</v>
       </c>
       <c r="F210" s="4" t="str">
-        <f>"&lt;response key="""&amp;B210&amp;""" text="""&amp;C210&amp;""" trigger="""&amp;D210&amp;"""&gt;"</f>
-        <v>&lt;response key="O" text="White and Gold." trigger="Point1"&gt;</v>
+        <f t="shared" ref="F210:F213" si="8">"&lt;response key="""&amp;B210&amp;""" text="""&amp;C210&amp;""" trigger="""&amp;D210&amp;""" trigger2="""&amp;E210&amp;"""&gt;"</f>
+        <v>&lt;response key="O" text="White and Gold." trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -3672,8 +3858,8 @@
         <v>1</v>
       </c>
       <c r="F211" s="4" t="str">
-        <f>"&lt;response key="""&amp;B211&amp;""" text="""&amp;C211&amp;""" trigger="""&amp;D211&amp;"""&gt;"</f>
-        <v>&lt;response key="M" text="Blue and Black." trigger="Point1"&gt;</v>
+        <f t="shared" si="8"/>
+        <v>&lt;response key="M" text="Blue and Black." trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -3690,8 +3876,8 @@
         <v>2</v>
       </c>
       <c r="F212" s="4" t="str">
-        <f>"&lt;response key="""&amp;B212&amp;""" text="""&amp;C212&amp;""" trigger="""&amp;D212&amp;"""&gt;"</f>
-        <v>&lt;response key="G" text="I hate this meme." trigger="Point2"&gt;</v>
+        <f t="shared" si="8"/>
+        <v>&lt;response key="G" text="I hate this meme." trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,8 +3891,8 @@
         <v>2</v>
       </c>
       <c r="F213" s="4" t="str">
-        <f>"&lt;response key="""&amp;B213&amp;""" text="""&amp;C213&amp;""" trigger="""&amp;D213&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2"&gt;</v>
+        <f t="shared" si="8"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -3854,8 +4040,8 @@
         <v>1</v>
       </c>
       <c r="F226" s="4" t="str">
-        <f>"&lt;response key="""&amp;B226&amp;""" text="""&amp;C226&amp;""" trigger="""&amp;D226&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Flip-turned" trigger="Point1"&gt;</v>
+        <f t="shared" ref="F226:F229" si="9">"&lt;response key="""&amp;B226&amp;""" text="""&amp;C226&amp;""" trigger="""&amp;D226&amp;""" trigger2="""&amp;E226&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="Flip-turned" trigger="Point1" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -3872,8 +4058,8 @@
         <v>47</v>
       </c>
       <c r="F227" s="4" t="str">
-        <f>"&lt;response key="""&amp;B227&amp;""" text="""&amp;C227&amp;""" trigger="""&amp;D227&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="Back-traced" trigger="Point5"&gt;</v>
+        <f t="shared" si="9"/>
+        <v>&lt;response key="B" text="Back-traced" trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -3890,8 +4076,8 @@
         <v>47</v>
       </c>
       <c r="F228" s="4" t="str">
-        <f>"&lt;response key="""&amp;B228&amp;""" text="""&amp;C228&amp;""" trigger="""&amp;D228&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="Stir-fried" trigger="Point5"&gt;</v>
+        <f t="shared" si="9"/>
+        <v>&lt;response key="C" text="Stir-fried" trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,8 +4091,8 @@
         <v>48</v>
       </c>
       <c r="F229" s="4" t="str">
-        <f>"&lt;response key="""&amp;B229&amp;""" text="""&amp;C229&amp;""" trigger="""&amp;D229&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6"&gt;</v>
+        <f t="shared" si="9"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,8 +4130,8 @@
         <v>2</v>
       </c>
       <c r="F232" s="4" t="str">
-        <f>"&lt;response key="""&amp;B232&amp;""" text="""&amp;C232&amp;""" trigger="""&amp;D232&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="The playground" trigger="Point2"&gt;</v>
+        <f t="shared" ref="F232:F235" si="10">"&lt;response key="""&amp;B232&amp;""" text="""&amp;C232&amp;""" trigger="""&amp;D232&amp;""" trigger2="""&amp;E232&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="The playground" trigger="Point2" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -3962,8 +4148,8 @@
         <v>47</v>
       </c>
       <c r="F233" s="4" t="str">
-        <f>"&lt;response key="""&amp;B233&amp;""" text="""&amp;C233&amp;""" trigger="""&amp;D233&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="YouTube" trigger="Point5"&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;response key="B" text="YouTube" trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -3980,8 +4166,8 @@
         <v>47</v>
       </c>
       <c r="F234" s="4" t="str">
-        <f>"&lt;response key="""&amp;B234&amp;""" text="""&amp;C234&amp;""" trigger="""&amp;D234&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="4chan" trigger="Point5"&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;response key="C" text="4chan" trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,8 +4181,8 @@
         <v>48</v>
       </c>
       <c r="F235" s="4" t="str">
-        <f>"&lt;response key="""&amp;B235&amp;""" text="""&amp;C235&amp;""" trigger="""&amp;D235&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6"&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -4034,8 +4220,8 @@
         <v>3</v>
       </c>
       <c r="F238" s="4" t="str">
-        <f>"&lt;response key="""&amp;B238&amp;""" text="""&amp;C238&amp;""" trigger="""&amp;D238&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Trouble" trigger="Point3"&gt;</v>
+        <f t="shared" ref="F238:F241" si="11">"&lt;response key="""&amp;B238&amp;""" text="""&amp;C238&amp;""" trigger="""&amp;D238&amp;""" trigger2="""&amp;E238&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="Trouble" trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -4052,8 +4238,8 @@
         <v>47</v>
       </c>
       <c r="F239" s="4" t="str">
-        <f>"&lt;response key="""&amp;B239&amp;""" text="""&amp;C239&amp;""" trigger="""&amp;D239&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="Money" trigger="Point5"&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;response key="B" text="Money" trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -4070,8 +4256,8 @@
         <v>47</v>
       </c>
       <c r="F240" s="4" t="str">
-        <f>"&lt;response key="""&amp;B240&amp;""" text="""&amp;C240&amp;""" trigger="""&amp;D240&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="Meth" trigger="Point5"&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;response key="C" text="Meth" trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,8 +4271,8 @@
         <v>48</v>
       </c>
       <c r="F241" s="4" t="str">
-        <f>"&lt;response key="""&amp;B241&amp;""" text="""&amp;C241&amp;""" trigger="""&amp;D241&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6"&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,8 +4310,8 @@
         <v>4</v>
       </c>
       <c r="F244" s="4" t="str">
-        <f>"&lt;response key="""&amp;B244&amp;""" text="""&amp;C244&amp;""" trigger="""&amp;D244&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Your auntie and uncle" trigger="Point4"&gt;</v>
+        <f t="shared" ref="F244:F247" si="12">"&lt;response key="""&amp;B244&amp;""" text="""&amp;C244&amp;""" trigger="""&amp;D244&amp;""" trigger2="""&amp;E244&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="Your auntie and uncle" trigger="Point4" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -4142,8 +4328,8 @@
         <v>47</v>
       </c>
       <c r="F245" s="4" t="str">
-        <f>"&lt;response key="""&amp;B245&amp;""" text="""&amp;C245&amp;""" trigger="""&amp;D245&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="President Nixon" trigger="Point5"&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;response key="B" text="President Nixon" trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -4160,8 +4346,8 @@
         <v>47</v>
       </c>
       <c r="F246" s="4" t="str">
-        <f>"&lt;response key="""&amp;B246&amp;""" text="""&amp;C246&amp;""" trigger="""&amp;D246&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="Smaug the Tremendous, Chiefest and Greatest of Calamities" trigger="Point5"&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;response key="C" text="Smaug the Tremendous, Chiefest and Greatest of Calamities" trigger="Point5" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -4175,8 +4361,8 @@
         <v>48</v>
       </c>
       <c r="F247" s="4" t="str">
-        <f>"&lt;response key="""&amp;B247&amp;""" text="""&amp;C247&amp;""" trigger="""&amp;D247&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6"&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,8 +4388,8 @@
         <v>25</v>
       </c>
       <c r="F249" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A249,1)&amp;""" text="""&amp;C249&amp;"""&gt;"</f>
-        <v>&lt;point id="4" text="Wicked fresh!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A249,1)&amp;""" text="""&amp;C249&amp;""" trigger="""&amp;D249&amp;IF(E249&lt;&gt;"",""" Trigger2="""&amp;E249&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Wicked fresh!" trigger="+0.2 Oxygen" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -4229,8 +4415,8 @@
         <v>25</v>
       </c>
       <c r="F251" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A251,1)&amp;""" text="""&amp;C251&amp;"""&gt;"</f>
-        <v>&lt;point id="5" text="Hey! That's not how it goes!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A251,1)&amp;""" text="""&amp;C251&amp;""" trigger="""&amp;D251&amp;IF(E251&lt;&gt;"",""" Trigger2="""&amp;E251&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="5" text="Hey! That's not how it goes!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -4256,8 +4442,8 @@
         <v>25</v>
       </c>
       <c r="F253" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A253,1)&amp;""" text="""&amp;C253&amp;"""&gt;"</f>
-        <v>&lt;point id="6" text="Smell ya later!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A253,1)&amp;""" text="""&amp;C253&amp;""" trigger="""&amp;D253&amp;IF(E253&lt;&gt;"",""" Trigger2="""&amp;E253&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="6" text="Smell ya later!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,7 +4481,1057 @@
       <c r="E257" s="3"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>31</v>
+      </c>
+      <c r="B258" t="s">
+        <v>199</v>
+      </c>
+      <c r="F258" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B258&amp;"""&gt;"</f>
+        <v>&lt;npc name="ChadBro"&gt;</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>27</v>
+      </c>
+      <c r="F259" s="4" t="str">
+        <f>"&lt;spriteset file="""&amp;B258&amp;".png""&gt;"</f>
+        <v>&lt;spriteset file="ChadBro.png"&gt;</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>28</v>
+      </c>
+      <c r="F260" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>158</v>
+      </c>
+      <c r="F261" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A261,1)&amp;""" text="""&amp;C261&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="What's up, Bro."&gt;</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>159</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1</v>
+      </c>
+      <c r="F262" s="4" t="str">
+        <f t="shared" ref="F262:F264" si="13">"&lt;response key="""&amp;B262&amp;""" text="""&amp;C262&amp;""" trigger="""&amp;D262&amp;""" trigger2="""&amp;E262&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="Not much, Broski." trigger="Point1" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>157</v>
+      </c>
+      <c r="D263" t="s">
+        <v>176</v>
+      </c>
+      <c r="F263" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;response key="B" text="I'm not your bro, pal." trigger="Point8" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" t="s">
+        <v>49</v>
+      </c>
+      <c r="F264" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>29</v>
+      </c>
+      <c r="F265" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>160</v>
+      </c>
+      <c r="D266" s="1"/>
+      <c r="F266" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A266,1)&amp;""" text="""&amp;C266&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="Broseph."&gt;</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>161</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2</v>
+      </c>
+      <c r="F267" s="4" t="str">
+        <f t="shared" ref="F267:F269" si="14">"&lt;response key="""&amp;B267&amp;""" text="""&amp;C267&amp;""" trigger="""&amp;D267&amp;""" trigger2="""&amp;E267&amp;"""&gt;"</f>
+        <v>&lt;response key="C" text="Broseidon." trigger="Point2" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B268" t="s">
+        <v>201</v>
+      </c>
+      <c r="C268" t="s">
+        <v>162</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2</v>
+      </c>
+      <c r="F268" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;response key="D" text="Brometheus." trigger="Point2" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" t="s">
+        <v>49</v>
+      </c>
+      <c r="F269" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>29</v>
+      </c>
+      <c r="F270" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>2</v>
+      </c>
+      <c r="C271" t="s">
+        <v>163</v>
+      </c>
+      <c r="D271" s="1"/>
+      <c r="F271" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A271,1)&amp;""" text="""&amp;C271&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="Bromo sapiens."&gt;</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>111</v>
+      </c>
+      <c r="C272" t="s">
+        <v>164</v>
+      </c>
+      <c r="D272" t="s">
+        <v>3</v>
+      </c>
+      <c r="F272" s="4" t="str">
+        <f t="shared" ref="F272:F274" si="15">"&lt;response key="""&amp;B272&amp;""" text="""&amp;C272&amp;""" trigger="""&amp;D272&amp;""" trigger2="""&amp;E272&amp;"""&gt;"</f>
+        <v>&lt;response key="E" text="Bro magnon." trigger="Point3" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" t="s">
+        <v>202</v>
+      </c>
+      <c r="C273" t="s">
+        <v>165</v>
+      </c>
+      <c r="D273" t="s">
+        <v>3</v>
+      </c>
+      <c r="F273" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>&lt;response key="F" text="Bro bono." trigger="Point3" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" t="s">
+        <v>49</v>
+      </c>
+      <c r="F274" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>29</v>
+      </c>
+      <c r="F275" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
+        <v>166</v>
+      </c>
+      <c r="D276" s="1"/>
+      <c r="F276" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A276,1)&amp;""" text="""&amp;C276&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="Brotato."&gt;</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>106</v>
+      </c>
+      <c r="C277" t="s">
+        <v>167</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4</v>
+      </c>
+      <c r="F277" s="4" t="str">
+        <f t="shared" ref="F277:F279" si="16">"&lt;response key="""&amp;B277&amp;""" text="""&amp;C277&amp;""" trigger="""&amp;D277&amp;""" trigger2="""&amp;E277&amp;"""&gt;"</f>
+        <v>&lt;response key="G" text="Brobama." trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" t="s">
+        <v>203</v>
+      </c>
+      <c r="C278" t="s">
+        <v>168</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4</v>
+      </c>
+      <c r="F278" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;response key="H" text="Brogaine." trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" t="s">
+        <v>49</v>
+      </c>
+      <c r="F279" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>29</v>
+      </c>
+      <c r="F280" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>169</v>
+      </c>
+      <c r="D281" s="1"/>
+      <c r="F281" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A281,1)&amp;""" text="""&amp;C281&amp;"""&gt;"</f>
+        <v>&lt;point id="4" text="Brotis Redding."&gt;</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>204</v>
+      </c>
+      <c r="C282" t="s">
+        <v>170</v>
+      </c>
+      <c r="D282" t="s">
+        <v>47</v>
+      </c>
+      <c r="F282" s="4" t="str">
+        <f t="shared" ref="F282:F284" si="17">"&lt;response key="""&amp;B282&amp;""" text="""&amp;C282&amp;""" trigger="""&amp;D282&amp;""" trigger2="""&amp;E282&amp;"""&gt;"</f>
+        <v>&lt;response key="I" text="Bronus Wagner." trigger="Point5" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" t="s">
+        <v>205</v>
+      </c>
+      <c r="C283" t="s">
+        <v>171</v>
+      </c>
+      <c r="D283" t="s">
+        <v>47</v>
+      </c>
+      <c r="F283" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;response key="J" text="Broly Ghost." trigger="Point5" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" t="s">
+        <v>49</v>
+      </c>
+      <c r="F284" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>29</v>
+      </c>
+      <c r="F285" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>47</v>
+      </c>
+      <c r="C286" t="s">
+        <v>172</v>
+      </c>
+      <c r="D286" s="1"/>
+      <c r="F286" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A286,1)&amp;""" text="""&amp;C286&amp;"""&gt;"</f>
+        <v>&lt;point id="5" text="Brodin Allfather."&gt;</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>206</v>
+      </c>
+      <c r="C287" t="s">
+        <v>173</v>
+      </c>
+      <c r="D287" t="s">
+        <v>48</v>
+      </c>
+      <c r="F287" s="4" t="str">
+        <f t="shared" ref="F287:F289" si="18">"&lt;response key="""&amp;B287&amp;""" text="""&amp;C287&amp;""" trigger="""&amp;D287&amp;""" trigger2="""&amp;E287&amp;"""&gt;"</f>
+        <v>&lt;response key="K" text="Bro Chang." trigger="Point6" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" t="s">
+        <v>207</v>
+      </c>
+      <c r="C288" t="s">
+        <v>174</v>
+      </c>
+      <c r="D288" t="s">
+        <v>48</v>
+      </c>
+      <c r="F288" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;response key="L" text="Marcus Brody." trigger="Point6" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289" t="s">
+        <v>21</v>
+      </c>
+      <c r="D289" t="s">
+        <v>49</v>
+      </c>
+      <c r="F289" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>29</v>
+      </c>
+      <c r="F290" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>48</v>
+      </c>
+      <c r="C291" t="s">
+        <v>196</v>
+      </c>
+      <c r="D291" s="1"/>
+      <c r="F291" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A291,1)&amp;""" text="""&amp;C291&amp;"""&gt;"</f>
+        <v>&lt;point id="6" text="Yeah, bro!"&gt;</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s">
+        <v>130</v>
+      </c>
+      <c r="C292" t="s">
+        <v>197</v>
+      </c>
+      <c r="D292" t="s">
+        <v>49</v>
+      </c>
+      <c r="F292" s="4" t="str">
+        <f t="shared" ref="F292:F294" si="19">"&lt;response key="""&amp;B292&amp;""" text="""&amp;C292&amp;""" trigger="""&amp;D292&amp;""" trigger2="""&amp;E292&amp;"""&gt;"</f>
+        <v>&lt;response key="M" text="Uh, okay." trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" t="s">
+        <v>88</v>
+      </c>
+      <c r="C293" t="s">
+        <v>157</v>
+      </c>
+      <c r="D293" t="s">
+        <v>176</v>
+      </c>
+      <c r="F293" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;response key="N" text="I'm not your bro, pal." trigger="Point8" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294" t="s">
+        <v>49</v>
+      </c>
+      <c r="F294" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>29</v>
+      </c>
+      <c r="F295" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>49</v>
+      </c>
+      <c r="C296" t="s">
+        <v>175</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E296" t="s">
+        <v>25</v>
+      </c>
+      <c r="F296" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A296,1)&amp;""" text="""&amp;C296&amp;""" trigger="""&amp;D296&amp;IF(E296&lt;&gt;"",""" Trigger2="""&amp;E296&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="7" text="Take it easy." trigger="+0.3 Oxygen" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>29</v>
+      </c>
+      <c r="F297" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>176</v>
+      </c>
+      <c r="C298" t="s">
+        <v>177</v>
+      </c>
+      <c r="F298" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A298,1)&amp;""" text="""&amp;C298&amp;"""&gt;"</f>
+        <v>&lt;point id="8" text="I'm not your pal, friend."&gt;</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" t="s">
+        <v>129</v>
+      </c>
+      <c r="C299" t="s">
+        <v>178</v>
+      </c>
+      <c r="D299" t="s">
+        <v>180</v>
+      </c>
+      <c r="F299" s="4" t="str">
+        <f t="shared" ref="F299:F301" si="20">"&lt;response key="""&amp;B299&amp;""" text="""&amp;C299&amp;""" trigger="""&amp;D299&amp;""" trigger2="""&amp;E299&amp;"""&gt;"</f>
+        <v>&lt;response key="O" text="I'm not your friend, man." trigger="Point9" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" t="s">
+        <v>208</v>
+      </c>
+      <c r="C300" t="s">
+        <v>179</v>
+      </c>
+      <c r="D300" t="s">
+        <v>181</v>
+      </c>
+      <c r="F300" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;response key="P" text="I'm not your friend, guy." trigger="Point10" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" t="s">
+        <v>49</v>
+      </c>
+      <c r="F301" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>29</v>
+      </c>
+      <c r="F302" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>180</v>
+      </c>
+      <c r="C303" t="s">
+        <v>187</v>
+      </c>
+      <c r="F303" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A303,1)&amp;""" text="""&amp;C303&amp;"""&gt;"</f>
+        <v>&lt;point id="9" text="I'm not your man, buddy."&gt;</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" t="s">
+        <v>109</v>
+      </c>
+      <c r="C304" t="s">
+        <v>188</v>
+      </c>
+      <c r="D304" t="s">
+        <v>181</v>
+      </c>
+      <c r="F304" s="4" t="str">
+        <f t="shared" ref="F304:F306" si="21">"&lt;response key="""&amp;B304&amp;""" text="""&amp;C304&amp;""" trigger="""&amp;D304&amp;""" trigger2="""&amp;E304&amp;"""&gt;"</f>
+        <v>&lt;response key="Q" text="I'm not your buddy, guy." trigger="Point10" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" t="s">
+        <v>107</v>
+      </c>
+      <c r="C305" t="s">
+        <v>189</v>
+      </c>
+      <c r="D305" t="s">
+        <v>182</v>
+      </c>
+      <c r="F305" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;response key="R" text="I'm not your buddy, dude." trigger="Point11" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" t="s">
+        <v>49</v>
+      </c>
+      <c r="F306" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>29</v>
+      </c>
+      <c r="F307" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>181</v>
+      </c>
+      <c r="C308" t="s">
+        <v>183</v>
+      </c>
+      <c r="F308" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A308,1)&amp;""" text="""&amp;C308&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="I'm not your guy, chief."&gt;</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" t="s">
+        <v>89</v>
+      </c>
+      <c r="C309" t="s">
+        <v>185</v>
+      </c>
+      <c r="D309" t="s">
+        <v>182</v>
+      </c>
+      <c r="F309" s="4" t="str">
+        <f t="shared" ref="F309:F311" si="22">"&lt;response key="""&amp;B309&amp;""" text="""&amp;C309&amp;""" trigger="""&amp;D309&amp;""" trigger2="""&amp;E309&amp;"""&gt;"</f>
+        <v>&lt;response key="S" text="I'm not your chief, dude." trigger="Point11" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" t="s">
+        <v>209</v>
+      </c>
+      <c r="C310" t="s">
+        <v>186</v>
+      </c>
+      <c r="D310" t="s">
+        <v>184</v>
+      </c>
+      <c r="F310" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>&lt;response key="T" text="I'm not your chief, lady." trigger="Point12" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311" t="s">
+        <v>21</v>
+      </c>
+      <c r="D311" t="s">
+        <v>49</v>
+      </c>
+      <c r="F311" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>29</v>
+      </c>
+      <c r="F312" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>182</v>
+      </c>
+      <c r="C313" t="s">
+        <v>190</v>
+      </c>
+      <c r="F313" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A313,1)&amp;""" text="""&amp;C313&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="I'm not your dude, chum."&gt;</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" t="s">
+        <v>210</v>
+      </c>
+      <c r="C314" t="s">
+        <v>191</v>
+      </c>
+      <c r="D314" t="s">
+        <v>184</v>
+      </c>
+      <c r="F314" s="4" t="str">
+        <f t="shared" ref="F314:F316" si="23">"&lt;response key="""&amp;B314&amp;""" text="""&amp;C314&amp;""" trigger="""&amp;D314&amp;""" trigger2="""&amp;E314&amp;"""&gt;"</f>
+        <v>&lt;response key="U" text="I'm not your chum, lady." trigger="Point12" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>6</v>
+      </c>
+      <c r="B315" t="s">
+        <v>211</v>
+      </c>
+      <c r="C315" t="s">
+        <v>192</v>
+      </c>
+      <c r="D315" t="s">
+        <v>193</v>
+      </c>
+      <c r="F315" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;response key="V" text="I'm not your chum, comrade." trigger="Point13" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" t="s">
+        <v>21</v>
+      </c>
+      <c r="D316" t="s">
+        <v>49</v>
+      </c>
+      <c r="F316" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>29</v>
+      </c>
+      <c r="F317" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>184</v>
+      </c>
+      <c r="C318" t="s">
+        <v>214</v>
+      </c>
+      <c r="F318" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A318,1)&amp;""" text="""&amp;C318&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="I'm not your lady, partner."&gt;</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" t="s">
+        <v>110</v>
+      </c>
+      <c r="C319" t="s">
+        <v>215</v>
+      </c>
+      <c r="D319" t="s">
+        <v>193</v>
+      </c>
+      <c r="F319" s="4" t="str">
+        <f t="shared" ref="F319:F321" si="24">"&lt;response key="""&amp;B319&amp;""" text="""&amp;C319&amp;""" trigger="""&amp;D319&amp;""" trigger2="""&amp;E319&amp;"""&gt;"</f>
+        <v>&lt;response key="W" text="I'm not your partner, cousin." trigger="Point13" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" t="s">
+        <v>212</v>
+      </c>
+      <c r="C320" t="s">
+        <v>216</v>
+      </c>
+      <c r="D320" t="s">
+        <v>213</v>
+      </c>
+      <c r="F320" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;response key="X" text="I'm not your partner, comrade." trigger="Point14" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" t="s">
+        <v>49</v>
+      </c>
+      <c r="F321" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>29</v>
+      </c>
+      <c r="F322" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>193</v>
+      </c>
+      <c r="C323" t="s">
+        <v>217</v>
+      </c>
+      <c r="F323" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A323,1)&amp;""" text="""&amp;C323&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="I'm not your cousin, bro."&gt;</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" t="s">
+        <v>218</v>
+      </c>
+      <c r="C324" t="s">
+        <v>194</v>
+      </c>
+      <c r="D324" t="s">
+        <v>48</v>
+      </c>
+      <c r="F324" s="4" t="str">
+        <f t="shared" ref="F324:F326" si="25">"&lt;response key="""&amp;B324&amp;""" text="""&amp;C324&amp;""" trigger="""&amp;D324&amp;""" trigger2="""&amp;E324&amp;"""&gt;"</f>
+        <v>&lt;response key="Y" text="Didn't we do this already?" trigger="Point6" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>6</v>
+      </c>
+      <c r="B325" t="s">
+        <v>219</v>
+      </c>
+      <c r="C325" t="s">
+        <v>195</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1</v>
+      </c>
+      <c r="F325" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;response key="Z" text="Bro shizzle." trigger="Point1" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326" t="s">
+        <v>49</v>
+      </c>
+      <c r="F326" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>29</v>
+      </c>
+      <c r="F327" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>213</v>
+      </c>
+      <c r="C328" t="s">
+        <v>198</v>
+      </c>
+      <c r="D328" s="1"/>
+      <c r="E328" t="s">
+        <v>25</v>
+      </c>
+      <c r="F328" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A328,1)&amp;""" text="""&amp;C328&amp;""" trigger="""&amp;D328&amp;IF(E328&lt;&gt;"",""" Trigger2="""&amp;E328&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Comrade? Really?" trigger="" Trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>29</v>
+      </c>
+      <c r="F329" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>25</v>
+      </c>
+      <c r="F330" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>30</v>
+      </c>
+      <c r="F331" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+      <c r="E332" s="3"/>
+      <c r="F332" s="5"/>
+    </row>
+    <row r="333" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="256">
   <si>
     <t>Point0</t>
   </si>
@@ -676,6 +676,114 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Cheerleader</t>
+  </si>
+  <si>
+    <t>Give me a 'J'!</t>
+  </si>
+  <si>
+    <t>Give me a 'T'!</t>
+  </si>
+  <si>
+    <t>+5 Oxygen</t>
+  </si>
+  <si>
+    <t>Give me a 'Spaceman'!</t>
+  </si>
+  <si>
+    <t>Spaceman</t>
+  </si>
+  <si>
+    <t>It's pronounced 'Spacemin'</t>
+  </si>
+  <si>
+    <t>Yay! Jaunty Spaceman!</t>
+  </si>
+  <si>
+    <t>Aww, so sad!</t>
+  </si>
+  <si>
+    <t>-5 Oxygen</t>
+  </si>
+  <si>
+    <t>The old man from Scene 24</t>
+  </si>
+  <si>
+    <t>Stop! Who would jaunt the space of death must answer me these questions three, ere the other side he see.</t>
+  </si>
+  <si>
+    <t>Ask me the questions, space-keeper. I'm not afraid.</t>
+  </si>
+  <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>Jaunty Spacemin</t>
+  </si>
+  <si>
+    <t>John T. Spacemin</t>
+  </si>
+  <si>
+    <t>Jogn T. Spaceman</t>
+  </si>
+  <si>
+    <t>What is your quest?</t>
+  </si>
+  <si>
+    <t>To jaunt through space.</t>
+  </si>
+  <si>
+    <t>To seek the Holy Grail.</t>
+  </si>
+  <si>
+    <t>To breathe another breath.</t>
+  </si>
+  <si>
+    <t>What is the air-speed velocity of an unladen swallow?</t>
+  </si>
+  <si>
+    <t>One.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>What do you mean? An African or European swallow?</t>
+  </si>
+  <si>
+    <t>Don't you mean 'space-speed'?</t>
+  </si>
+  <si>
+    <t>What? I don't know that! Auuuuuuuugh!</t>
+  </si>
+  <si>
+    <t>+ 10 Oxygen</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>Hello, good sir.</t>
+  </si>
+  <si>
+    <t>I'm here to rescue you!</t>
+  </si>
+  <si>
+    <t>How about that local sports team?</t>
+  </si>
+  <si>
+    <t>Good day, fair lady.</t>
+  </si>
+  <si>
+    <t>Mayhap this will aid you on your journey.</t>
+  </si>
+  <si>
+    <t>Ugh. I don't need to be rescued, especially not by a hallucinating spaceman.</t>
+  </si>
+  <si>
+    <t>They are... quite sporting. Uh, goodbye, strange awkward man.</t>
   </si>
 </sst>
 </file>
@@ -777,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -788,6 +896,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -795,6 +909,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -811,7 +993,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D7D5DB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1090,11 +1272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B324" sqref="B324"/>
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F408" sqref="F408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5531,7 +5713,1040 @@
       <c r="E332" s="3"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="333" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>31</v>
+      </c>
+      <c r="B333" t="s">
+        <v>220</v>
+      </c>
+      <c r="F333" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B333&amp;"""&gt;"</f>
+        <v>&lt;npc name="Cheerleader"&gt;</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+      <c r="F334" s="4" t="str">
+        <f>"&lt;spriteset file="""&amp;B333&amp;".png""&gt;"</f>
+        <v>&lt;spriteset file="Cheerleader.png"&gt;</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+      <c r="F335" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F336" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A336,1)&amp;""" text="""&amp;C336&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="Give me a 'J'!"&gt;</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" t="s">
+        <v>205</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+      <c r="F337" s="4" t="str">
+        <f t="shared" ref="F337:F340" si="26">"&lt;response key="""&amp;B337&amp;""" text="""&amp;C337&amp;""" trigger="""&amp;D337&amp;""" trigger2="""&amp;E337&amp;"""&gt;"</f>
+        <v>&lt;response key="J" text="Y" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" t="s">
+        <v>210</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1</v>
+      </c>
+      <c r="F338" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;response key="U" text="J" trigger="Point1" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" t="s">
+        <v>219</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+      <c r="F339" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;response key="Z" text="C" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>8</v>
+      </c>
+      <c r="B340" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+      <c r="F340" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>29</v>
+      </c>
+      <c r="F341" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F342" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A342,1)&amp;""" text="""&amp;C342&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="Give me a 'T'!"&gt;</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" t="s">
+        <v>209</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+      <c r="F343" s="4" t="str">
+        <f t="shared" ref="F343:F346" si="27">"&lt;response key="""&amp;B343&amp;""" text="""&amp;C343&amp;""" trigger="""&amp;D343&amp;""" trigger2="""&amp;E343&amp;"""&gt;"</f>
+        <v>&lt;response key="T" text="H" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D344" t="s">
+        <v>2</v>
+      </c>
+      <c r="F344" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;response key="B" text="T" trigger="Point2" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" t="s">
+        <v>203</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
+      </c>
+      <c r="F345" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;response key="H" text="B" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>8</v>
+      </c>
+      <c r="B346" t="s">
+        <v>21</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
+      </c>
+      <c r="F346" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>29</v>
+      </c>
+      <c r="F347" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>2</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F348" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A348,1)&amp;""" text="""&amp;C348&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="Give me a 'Spaceman'!"&gt;</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D349" t="s">
+        <v>3</v>
+      </c>
+      <c r="F349" s="4" t="str">
+        <f t="shared" ref="F349:F352" si="28">"&lt;response key="""&amp;B349&amp;""" text="""&amp;C349&amp;""" trigger="""&amp;D349&amp;""" trigger2="""&amp;E349&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="Spaceman" trigger="Point3" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>6</v>
+      </c>
+      <c r="B350" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
+      </c>
+      <c r="F350" s="4" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;response key="B" text="It's pronounced 'Spacemin'" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
+      </c>
+      <c r="F351" s="4" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>29</v>
+      </c>
+      <c r="F352" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E353" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A353,1)&amp;""" text="""&amp;C353&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="Yay! Jaunty Spaceman!"&gt;</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>29</v>
+      </c>
+      <c r="F354" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E355" t="s">
+        <v>25</v>
+      </c>
+      <c r="F355" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A355,1)&amp;""" text="""&amp;C355&amp;"""&gt;"</f>
+        <v>&lt;point id="4" text="Aww, so sad!"&gt;</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>29</v>
+      </c>
+      <c r="F356" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>25</v>
+      </c>
+      <c r="F357" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>30</v>
+      </c>
+      <c r="F358" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="3"/>
+      <c r="F359" s="5"/>
+    </row>
+    <row r="360" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>31</v>
+      </c>
+      <c r="B360" t="s">
+        <v>230</v>
+      </c>
+      <c r="F360" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B360&amp;"""&gt;"</f>
+        <v>&lt;npc name="The old man from Scene 24"&gt;</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>27</v>
+      </c>
+      <c r="F361" s="4" t="str">
+        <f>"&lt;spriteset file="""&amp;B360&amp;".png""&gt;"</f>
+        <v>&lt;spriteset file="The old man from Scene 24.png"&gt;</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>28</v>
+      </c>
+      <c r="F362" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F363" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A363,1)&amp;""" text="""&amp;C363&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="Stop! Who would jaunt the space of death must answer me these questions three, ere the other side he see."&gt;</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1</v>
+      </c>
+      <c r="F364" s="4" t="str">
+        <f t="shared" ref="F364:F371" si="29">"&lt;response key="""&amp;B364&amp;""" text="""&amp;C364&amp;""" trigger="""&amp;D364&amp;""" trigger2="""&amp;E364&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="Ask me the questions, space-keeper. I'm not afraid." trigger="Point1" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" t="s">
+        <v>21</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E365" t="s">
+        <v>25</v>
+      </c>
+      <c r="F365" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>29</v>
+      </c>
+      <c r="F366" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" t="s">
+        <v>233</v>
+      </c>
+      <c r="D367" s="1"/>
+      <c r="F367" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A367,1)&amp;""" text="""&amp;C367&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="What is your name?"&gt;</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" t="s">
+        <v>205</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E368" t="s">
+        <v>25</v>
+      </c>
+      <c r="F368" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>6</v>
+      </c>
+      <c r="B369" t="s">
+        <v>209</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D369" t="s">
+        <v>2</v>
+      </c>
+      <c r="F369" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;response key="T" text="John T. Spacemin" trigger="Point2" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370" t="s">
+        <v>89</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D370" t="s">
+        <v>2</v>
+      </c>
+      <c r="F370" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;response key="S" text="Jogn T. Spaceman" trigger="Point2" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>8</v>
+      </c>
+      <c r="B371" t="s">
+        <v>21</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E371" t="s">
+        <v>25</v>
+      </c>
+      <c r="F371" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>29</v>
+      </c>
+      <c r="F372" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>2</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D373" s="1"/>
+      <c r="F373" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A373,1)&amp;""" text="""&amp;C373&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="What is your quest?"&gt;</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>129</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E374" t="s">
+        <v>25</v>
+      </c>
+      <c r="F374" s="4" t="str">
+        <f t="shared" ref="F374:F378" si="30">"&lt;response key="""&amp;B374&amp;""" text="""&amp;C374&amp;""" trigger="""&amp;D374&amp;""" trigger2="""&amp;E374&amp;"""&gt;"</f>
+        <v>&lt;response key="O" text="To jaunt through space." trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" t="s">
+        <v>212</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E375" t="s">
+        <v>25</v>
+      </c>
+      <c r="F375" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376" t="s">
+        <v>218</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D376" t="s">
+        <v>3</v>
+      </c>
+      <c r="F376" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;response key="Y" text="To breathe another breath." trigger="Point3" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>8</v>
+      </c>
+      <c r="B377" t="s">
+        <v>21</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E377" t="s">
+        <v>25</v>
+      </c>
+      <c r="F377" s="4" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>29</v>
+      </c>
+      <c r="F378" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>3</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D379" s="1"/>
+      <c r="F379" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A379,1)&amp;""" text="""&amp;C379&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="What is the air-speed velocity of an unladen swallow?"&gt;</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E380" t="s">
+        <v>25</v>
+      </c>
+      <c r="F380" s="4" t="str">
+        <f t="shared" ref="F380:F384" si="31">"&lt;response key="""&amp;B380&amp;""" text="""&amp;C380&amp;""" trigger="""&amp;D380&amp;""" trigger2="""&amp;E380&amp;"""&gt;"</f>
+        <v>&lt;response key="1" text="One." trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" t="s">
+        <v>243</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D381" t="s">
+        <v>4</v>
+      </c>
+      <c r="F381" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;response key="?" text="What do you mean? An African or European swallow?" trigger="Point4" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382" t="s">
+        <v>89</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E382" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>8</v>
+      </c>
+      <c r="B383" t="s">
+        <v>21</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E383" t="s">
+        <v>25</v>
+      </c>
+      <c r="F383" s="4" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>29</v>
+      </c>
+      <c r="F384" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E385" t="s">
+        <v>25</v>
+      </c>
+      <c r="F385" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A385,1)&amp;""" text="""&amp;C385&amp;"""&gt;"</f>
+        <v>&lt;point id="4" text="What? I don't know that! Auuuuuuuugh!"&gt;</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>29</v>
+      </c>
+      <c r="F386" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>25</v>
+      </c>
+      <c r="F387" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>30</v>
+      </c>
+      <c r="F388" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
+      <c r="C389" s="7"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="5"/>
+    </row>
+    <row r="390" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>31</v>
+      </c>
+      <c r="B390" t="s">
+        <v>248</v>
+      </c>
+      <c r="F390" s="4" t="str">
+        <f>"&lt;npc name="""&amp;B390&amp;"""&gt;"</f>
+        <v>&lt;npc name="Princess"&gt;</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>27</v>
+      </c>
+      <c r="F391" s="4" t="str">
+        <f>"&lt;spriteset file="""&amp;B390&amp;".png""&gt;"</f>
+        <v>&lt;spriteset file="Princess.png"&gt;</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>28</v>
+      </c>
+      <c r="F392" s="4" t="str">
+        <f>"&lt;dialog&gt;"</f>
+        <v>&lt;dialog&gt;</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F393" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A393,1)&amp;""" text="""&amp;C393&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="Hello, good sir."&gt;</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D394" t="s">
+        <v>3</v>
+      </c>
+      <c r="F394" s="4" t="str">
+        <f t="shared" ref="F394:F397" si="32">"&lt;response key="""&amp;B394&amp;""" text="""&amp;C394&amp;""" trigger="""&amp;D394&amp;""" trigger2="""&amp;E394&amp;"""&gt;"</f>
+        <v>&lt;response key="A" text="I'm here to rescue you!" trigger="Point3" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1</v>
+      </c>
+      <c r="F395" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>&lt;response key="B" text="How about that local sports team?" trigger="Point1" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>7</v>
+      </c>
+      <c r="B396" t="s">
+        <v>13</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D396" t="s">
+        <v>2</v>
+      </c>
+      <c r="F396" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>&lt;response key="C" text="Good day, fair lady." trigger="Point2" trigger2=""&gt;</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>8</v>
+      </c>
+      <c r="B397" t="s">
+        <v>21</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E397" t="s">
+        <v>25</v>
+      </c>
+      <c r="F397" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>29</v>
+      </c>
+      <c r="F398" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" t="s">
+        <v>255</v>
+      </c>
+      <c r="D399" s="1"/>
+      <c r="E399" t="s">
+        <v>25</v>
+      </c>
+      <c r="F399" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A399,1)&amp;""" text="""&amp;C399&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="They are... quite sporting. Uh, goodbye, strange awkward man."&gt;</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>29</v>
+      </c>
+      <c r="F400" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>2</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E401" t="s">
+        <v>25</v>
+      </c>
+      <c r="F401" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A401,1)&amp;""" text="""&amp;C401&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="Mayhap this will aid you on your journey."&gt;</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+      <c r="F402" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E403" t="s">
+        <v>25</v>
+      </c>
+      <c r="F403" s="4" t="str">
+        <f>"&lt;point id="""&amp;RIGHT(A403,1)&amp;""" text="""&amp;C403&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="Ugh. I don't need to be rescued, especially not by a hallucinating spaceman."&gt;</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>29</v>
+      </c>
+      <c r="F404" s="4" t="str">
+        <f>"&lt;/point&gt;"</f>
+        <v>&lt;/point&gt;</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405" s="4" t="str">
+        <f>"&lt;/dialog&gt;"</f>
+        <v>&lt;/dialog&gt;</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>30</v>
+      </c>
+      <c r="F406" s="4" t="str">
+        <f>"&lt;/npc&gt;"</f>
+        <v>&lt;/npc&gt;</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="5"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+    </row>
+    <row r="408" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="253">
   <si>
     <t>Point0</t>
   </si>
@@ -687,9 +687,6 @@
     <t>Give me a 'T'!</t>
   </si>
   <si>
-    <t>+5 Oxygen</t>
-  </si>
-  <si>
     <t>Give me a 'Spaceman'!</t>
   </si>
   <si>
@@ -705,9 +702,6 @@
     <t>Aww, so sad!</t>
   </si>
   <si>
-    <t>-5 Oxygen</t>
-  </si>
-  <si>
     <t>The old man from Scene 24</t>
   </si>
   <si>
@@ -757,9 +751,6 @@
   </si>
   <si>
     <t>What? I don't know that! Auuuuuuuugh!</t>
-  </si>
-  <si>
-    <t>+ 10 Oxygen</t>
   </si>
   <si>
     <t>Princess</t>
@@ -909,74 +900,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -993,7 +916,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D7D5DB"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1275,8 +1198,8 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F408" sqref="F408"/>
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F403" sqref="F403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,7 +5764,7 @@
         <v>222</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="F342" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A342,1)&amp;""" text="""&amp;C342&amp;"""&gt;"</f>
@@ -5931,10 +5854,10 @@
         <v>2</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="F348" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A348,1)&amp;""" text="""&amp;C348&amp;"""&gt;"</f>
@@ -5949,13 +5872,13 @@
         <v>11</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
       </c>
       <c r="F349" s="4" t="str">
-        <f t="shared" ref="F349:F352" si="28">"&lt;response key="""&amp;B349&amp;""" text="""&amp;C349&amp;""" trigger="""&amp;D349&amp;""" trigger2="""&amp;E349&amp;"""&gt;"</f>
+        <f t="shared" ref="F349:F351" si="28">"&lt;response key="""&amp;B349&amp;""" text="""&amp;C349&amp;""" trigger="""&amp;D349&amp;""" trigger2="""&amp;E349&amp;"""&gt;"</f>
         <v>&lt;response key="A" text="Spaceman" trigger="Point3" trigger2=""&gt;</v>
       </c>
     </row>
@@ -5967,7 +5890,7 @@
         <v>12</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D350" t="s">
         <v>4</v>
@@ -6006,17 +5929,17 @@
         <v>3</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="E353" t="s">
         <v>25</v>
       </c>
       <c r="F353" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A353,1)&amp;""" text="""&amp;C353&amp;"""&gt;"</f>
-        <v>&lt;point id="3" text="Yay! Jaunty Spaceman!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A353,1)&amp;""" text="""&amp;C353&amp;""" trigger="""&amp;D353&amp;IF(E353&lt;&gt;"",""" Trigger2="""&amp;E353&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Yay! Jaunty Spaceman!" trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -6033,17 +5956,17 @@
         <v>4</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E355" t="s">
         <v>25</v>
       </c>
       <c r="F355" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A355,1)&amp;""" text="""&amp;C355&amp;"""&gt;"</f>
-        <v>&lt;point id="4" text="Aww, so sad!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A355,1)&amp;""" text="""&amp;C355&amp;""" trigger="""&amp;D355&amp;IF(E355&lt;&gt;"",""" Trigger2="""&amp;E355&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Aww, so sad!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -6086,7 +6009,7 @@
         <v>31</v>
       </c>
       <c r="B360" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F360" s="4" t="str">
         <f>"&lt;npc name="""&amp;B360&amp;"""&gt;"</f>
@@ -6116,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F363" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A363,1)&amp;""" text="""&amp;C363&amp;"""&gt;"</f>
@@ -6131,7 +6054,7 @@
         <v>11</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D364" t="s">
         <v>1</v>
@@ -6149,14 +6072,14 @@
         <v>21</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E365" t="s">
         <v>25</v>
       </c>
       <c r="F365" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -6173,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D367" s="1"/>
       <c r="F367" s="4" t="str">
@@ -6189,17 +6112,17 @@
         <v>205</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E368" t="s">
         <v>25</v>
       </c>
       <c r="F368" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -6210,7 +6133,7 @@
         <v>209</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -6228,7 +6151,7 @@
         <v>89</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -6246,14 +6169,14 @@
         <v>21</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E371" t="s">
         <v>25</v>
       </c>
       <c r="F371" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -6270,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D373" s="1"/>
       <c r="F373" s="4" t="str">
@@ -6286,17 +6209,17 @@
         <v>129</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
       </c>
       <c r="F374" s="4" t="str">
-        <f t="shared" ref="F374:F378" si="30">"&lt;response key="""&amp;B374&amp;""" text="""&amp;C374&amp;""" trigger="""&amp;D374&amp;""" trigger2="""&amp;E374&amp;"""&gt;"</f>
-        <v>&lt;response key="O" text="To jaunt through space." trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f t="shared" ref="F374:F377" si="30">"&lt;response key="""&amp;B374&amp;""" text="""&amp;C374&amp;""" trigger="""&amp;D374&amp;""" trigger2="""&amp;E374&amp;"""&gt;"</f>
+        <v>&lt;response key="O" text="To jaunt through space." trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -6307,17 +6230,17 @@
         <v>212</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
       </c>
       <c r="F375" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -6328,7 +6251,7 @@
         <v>218</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -6346,14 +6269,14 @@
         <v>21</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E377" t="s">
         <v>25</v>
       </c>
       <c r="F377" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -6370,7 +6293,7 @@
         <v>3</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D379" s="1"/>
       <c r="F379" s="4" t="str">
@@ -6386,17 +6309,17 @@
         <v>1</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
       </c>
       <c r="F380" s="4" t="str">
-        <f t="shared" ref="F380:F384" si="31">"&lt;response key="""&amp;B380&amp;""" text="""&amp;C380&amp;""" trigger="""&amp;D380&amp;""" trigger2="""&amp;E380&amp;"""&gt;"</f>
-        <v>&lt;response key="1" text="One." trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f t="shared" ref="F380:F383" si="31">"&lt;response key="""&amp;B380&amp;""" text="""&amp;C380&amp;""" trigger="""&amp;D380&amp;""" trigger2="""&amp;E380&amp;"""&gt;"</f>
+        <v>&lt;response key="1" text="One." trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -6404,10 +6327,10 @@
         <v>6</v>
       </c>
       <c r="B381" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D381" t="s">
         <v>4</v>
@@ -6425,17 +6348,17 @@
         <v>89</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
       </c>
       <c r="F382" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,14 +6369,14 @@
         <v>21</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E383" t="s">
         <v>25</v>
       </c>
       <c r="F383" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -6470,17 +6393,17 @@
         <v>4</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
       </c>
       <c r="F385" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A385,1)&amp;""" text="""&amp;C385&amp;"""&gt;"</f>
-        <v>&lt;point id="4" text="What? I don't know that! Auuuuuuuugh!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A385,1)&amp;""" text="""&amp;C385&amp;""" trigger="""&amp;D385&amp;IF(E385&lt;&gt;"",""" Trigger2="""&amp;E385&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="What? I don't know that! Auuuuuuuugh!" trigger="+0.2 Oxygen" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -6523,7 +6446,7 @@
         <v>31</v>
       </c>
       <c r="B390" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F390" s="4" t="str">
         <f>"&lt;npc name="""&amp;B390&amp;"""&gt;"</f>
@@ -6553,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F393" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A393,1)&amp;""" text="""&amp;C393&amp;"""&gt;"</f>
@@ -6568,7 +6491,7 @@
         <v>11</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -6586,7 +6509,7 @@
         <v>12</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D395" t="s">
         <v>1</v>
@@ -6604,7 +6527,7 @@
         <v>13</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -6622,14 +6545,14 @@
         <v>21</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
       </c>
       <c r="F397" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-5 Oxygen" trigger2="EndDialog"&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -6646,15 +6569,15 @@
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" t="s">
         <v>25</v>
       </c>
       <c r="F399" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A399,1)&amp;""" text="""&amp;C399&amp;"""&gt;"</f>
-        <v>&lt;point id="1" text="They are... quite sporting. Uh, goodbye, strange awkward man."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A399,1)&amp;""" text="""&amp;C399&amp;""" trigger="""&amp;D399&amp;IF(E399&lt;&gt;"",""" Trigger2="""&amp;E399&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="They are... quite sporting. Uh, goodbye, strange awkward man." trigger="" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,17 +6594,17 @@
         <v>2</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
       </c>
       <c r="F401" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A401,1)&amp;""" text="""&amp;C401&amp;"""&gt;"</f>
-        <v>&lt;point id="2" text="Mayhap this will aid you on your journey."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A401,1)&amp;""" text="""&amp;C401&amp;""" trigger="""&amp;D401&amp;IF(E401&lt;&gt;"",""" Trigger2="""&amp;E401&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="Mayhap this will aid you on your journey." trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -6698,17 +6621,17 @@
         <v>3</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>
       </c>
       <c r="F403" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A403,1)&amp;""" text="""&amp;C403&amp;"""&gt;"</f>
-        <v>&lt;point id="3" text="Ugh. I don't need to be rescued, especially not by a hallucinating spaceman."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A403,1)&amp;""" text="""&amp;C403&amp;""" trigger="""&amp;D403&amp;IF(E403&lt;&gt;"",""" Trigger2="""&amp;E403&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Ugh. I don't need to be rescued, especially not by a hallucinating spaceman." trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$408</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="270">
   <si>
     <t>Point0</t>
   </si>
@@ -474,21 +477,6 @@
     <t>Stir-fried</t>
   </si>
   <si>
-    <t>+0.1 Oxygen</t>
-  </si>
-  <si>
-    <t>+0.10 Oxygen</t>
-  </si>
-  <si>
-    <t>+0.2 Oxygen</t>
-  </si>
-  <si>
-    <t>-0.2 Oxygen</t>
-  </si>
-  <si>
-    <t>-0.1 Oxygen</t>
-  </si>
-  <si>
     <t>I'm not your bro, pal.</t>
   </si>
   <si>
@@ -618,9 +606,6 @@
     <t>ChadBro</t>
   </si>
   <si>
-    <t>+0.3 Oxygen</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -775,6 +760,75 @@
   </si>
   <si>
     <t>They are... quite sporting. Uh, goodbye, strange awkward man.</t>
+  </si>
+  <si>
+    <t>Go To 1</t>
+  </si>
+  <si>
+    <t>Go To 2</t>
+  </si>
+  <si>
+    <t>Go To 3</t>
+  </si>
+  <si>
+    <t>Go To 4</t>
+  </si>
+  <si>
+    <t>Go To 5</t>
+  </si>
+  <si>
+    <t>Go To 6</t>
+  </si>
+  <si>
+    <t>Go To 7</t>
+  </si>
+  <si>
+    <t>Go To 8</t>
+  </si>
+  <si>
+    <t>Go To 9</t>
+  </si>
+  <si>
+    <t>Go To 10</t>
+  </si>
+  <si>
+    <t>Go To 11</t>
+  </si>
+  <si>
+    <t>Go To 12</t>
+  </si>
+  <si>
+    <t>Go To 13</t>
+  </si>
+  <si>
+    <t>Go To 14</t>
+  </si>
+  <si>
+    <t>Give 0.1 O2</t>
+  </si>
+  <si>
+    <t>Give 0.10 O2</t>
+  </si>
+  <si>
+    <t>Give 0.2 O2</t>
+  </si>
+  <si>
+    <t>Give 0.3 O2</t>
+  </si>
+  <si>
+    <t>Give 5 O2</t>
+  </si>
+  <si>
+    <t>Give  10 O2</t>
+  </si>
+  <si>
+    <t>Take 0.1 O2</t>
+  </si>
+  <si>
+    <t>Take 0.2 O2</t>
+  </si>
+  <si>
+    <t>Take 5 O2</t>
   </si>
 </sst>
 </file>
@@ -900,6 +954,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -916,7 +1038,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D7D5DB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1198,8 +1320,8 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F403" sqref="F403"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1284,11 +1406,11 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>"&lt;response key="""&amp;B6&amp;""" text="""&amp;C6&amp;""" trigger="""&amp;D6&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Huh? No, I’m doing just fine, thanks." trigger="Point1"&gt;</v>
+        <f>"&lt;response key="""&amp;B6&amp;""" text="""&amp;C6&amp;""" trigger="""&amp;D6&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Huh? No, I’m doing just fine, thanks." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,11 +1424,11 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>"&lt;response key="""&amp;B7&amp;""" text="""&amp;C7&amp;""" trigger="""&amp;D7&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="Oh? Know anyone that fits that bill?" trigger="Point2"&gt;</v>
+        <f t="shared" ref="F7:F9" si="0">"&lt;response key="""&amp;B7&amp;""" text="""&amp;C7&amp;""" trigger="""&amp;D7&amp;"""/&gt;"</f>
+        <v>&lt;response key="B" text="Oh? Know anyone that fits that bill?" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,11 +1442,11 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>"&lt;response key="""&amp;B8&amp;""" text="""&amp;C8&amp;""" trigger="""&amp;D8&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="Hey, baby. Wanna hook up?" trigger="Point3"&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;response key="C" text="Hey, baby. Wanna hook up?" trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,11 +1457,11 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>"&lt;response key="""&amp;B9&amp;""" text="""&amp;C9&amp;""" trigger="""&amp;D9&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2"&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,14 +1481,14 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A11,1)&amp;""" text="""&amp;C11&amp;""" trigger="""&amp;D11&amp;IF(E11&lt;&gt;"",""" Trigger2="""&amp;E11&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="If you insist…" trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A11,1)&amp;""" text="""&amp;C11&amp;""" trigger="""&amp;D11&amp;IF(E11&lt;&gt;"",", "&amp;E11&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="If you insist…" trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,14 +1508,14 @@
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A13,1)&amp;""" text="""&amp;C13&amp;""" trigger="""&amp;D13&amp;IF(E13&lt;&gt;"",""" Trigger2="""&amp;E13&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="I can help, but first you’ll need to die." trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A13,1)&amp;""" text="""&amp;C13&amp;""" trigger="""&amp;D13&amp;IF(E13&lt;&gt;"",", "&amp;E13&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="I can help, but first you’ll need to die." trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,14 +1535,14 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A15,1)&amp;""" text="""&amp;C15&amp;""" trigger="""&amp;D15&amp;IF(E15&lt;&gt;"",""" Trigger2="""&amp;E15&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="No." trigger="-0.2 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A15,1)&amp;""" text="""&amp;C15&amp;""" trigger="""&amp;D15&amp;IF(E15&lt;&gt;"",", "&amp;E15&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="No." trigger="Take 0.2 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,11 +1633,11 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F24" s="4" t="str">
-        <f>"&lt;response key="""&amp;B24&amp;""" text="""&amp;C24&amp;""" trigger="""&amp;D24&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="It's pronounced 'spacemin'" trigger="Point1"&gt;</v>
+        <f t="shared" ref="F24:F27" si="1">"&lt;response key="""&amp;B24&amp;""" text="""&amp;C24&amp;""" trigger="""&amp;D24&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="It's pronounced 'spacemin'" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,11 +1651,11 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F25" s="4" t="str">
-        <f>"&lt;response key="""&amp;B25&amp;""" text="""&amp;C25&amp;""" trigger="""&amp;D25&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="Nope, no problem here." trigger="Point2"&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;response key="B" text="Nope, no problem here." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,11 +1669,11 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F26" s="4" t="str">
-        <f>"&lt;response key="""&amp;B26&amp;""" text="""&amp;C26&amp;""" trigger="""&amp;D26&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="Banana." trigger="Point3"&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;response key="C" text="Banana." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,11 +1684,11 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F27" s="4" t="str">
-        <f>"&lt;response key="""&amp;B27&amp;""" text="""&amp;C27&amp;""" trigger="""&amp;D27&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point4"&gt;</v>
+        <f t="shared" si="1"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,11 +1708,11 @@
         <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="F29" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A29,1)&amp;""" text="""&amp;C29&amp;""" trigger="""&amp;D29&amp;IF(E29&lt;&gt;"",""" Trigger2="""&amp;E29&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="So you think you're clever?" trigger="+0.1 Oxygen"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A29,1)&amp;""" text="""&amp;C29&amp;""" trigger="""&amp;D29&amp;IF(E29&lt;&gt;"",", "&amp;E29&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="So you think you're clever?" trigger="Give 0.1 O2"&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,11 +1726,11 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F30" s="4" t="str">
-        <f>"&lt;response key="""&amp;B30&amp;""" text="""&amp;C30&amp;""" trigger="""&amp;D30&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Clever like a cleaver." trigger="Point4"&gt;</v>
+        <f t="shared" ref="F30:F33" si="2">"&lt;response key="""&amp;B30&amp;""" text="""&amp;C30&amp;""" trigger="""&amp;D30&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Clever like a cleaver." trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1622,11 +1744,11 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F31" s="4" t="str">
-        <f>"&lt;response key="""&amp;B31&amp;""" text="""&amp;C31&amp;""" trigger="""&amp;D31&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="Sharp like an axe." trigger="Point4"&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;response key="B" text="Sharp like an axe." trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1640,11 +1762,11 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F32" s="4" t="str">
-        <f>"&lt;response key="""&amp;B32&amp;""" text="""&amp;C32&amp;""" trigger="""&amp;D32&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="Banana." trigger="Point3"&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;response key="C" text="Banana." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1655,11 +1777,11 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F33" s="4" t="str">
-        <f>"&lt;response key="""&amp;B33&amp;""" text="""&amp;C33&amp;""" trigger="""&amp;D33&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point4"&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,14 +1801,14 @@
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A35,1)&amp;""" text="""&amp;C35&amp;""" trigger="""&amp;D35&amp;IF(E35&lt;&gt;"",""" Trigger2="""&amp;E35&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="That's right. Know your place." trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A35,1)&amp;""" text="""&amp;C35&amp;""" trigger="""&amp;D35&amp;IF(E35&lt;&gt;"",", "&amp;E35&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="That's right. Know your place." trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,13 +1827,12 @@
       <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" t="s">
+      <c r="D37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A37,1)&amp;""" text="""&amp;C37&amp;""" trigger="""&amp;D37&amp;IF(E37&lt;&gt;"",""" Trigger2="""&amp;E37&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Uh, what? Nevermind. Punks like you ain't worth it." trigger="" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A37,1)&amp;""" text="""&amp;C37&amp;""" trigger="""&amp;D37&amp;IF(E37&lt;&gt;"",", "&amp;E37&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Uh, what? Nevermind. Punks like you ain't worth it." trigger="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,14 +1852,14 @@
         <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A39,1)&amp;""" text="""&amp;C39&amp;""" trigger="""&amp;D39&amp;IF(E39&lt;&gt;"",""" Trigger2="""&amp;E39&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="Screw you!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A39,1)&amp;""" text="""&amp;C39&amp;""" trigger="""&amp;D39&amp;IF(E39&lt;&gt;"",", "&amp;E39&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Screw you!" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1829,11 +1950,11 @@
         <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F48" s="4" t="str">
-        <f>"&lt;response key="""&amp;B48&amp;""" text="""&amp;C48&amp;""" trigger="""&amp;D48&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="B!" trigger="Point1"&gt;</v>
+        <f>"&lt;response key="""&amp;B48&amp;""" text="""&amp;C48&amp;""" trigger="""&amp;D48&amp;"""/&gt;"</f>
+        <v>&lt;response key="B" text="B!" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,14 +1965,14 @@
         <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="4" t="str">
-        <f>"&lt;response key="""&amp;B49&amp;""" text="""&amp;C49&amp;""" trigger="""&amp;D49&amp;""" trigger2="""&amp;E49&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B49&amp;""" text="""&amp;C49&amp;""" trigger="""&amp;D49&amp;""" trigger2="""&amp;E49&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,11 +2007,11 @@
         <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F52" s="4" t="str">
-        <f>"&lt;response key="""&amp;B52&amp;""" text="""&amp;C52&amp;""" trigger="""&amp;D52&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="A!" trigger="Point2"&gt;</v>
+        <f>"&lt;response key="""&amp;B52&amp;""" text="""&amp;C52&amp;""" trigger="""&amp;D52&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="A!" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,14 +2022,14 @@
         <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="4" t="str">
-        <f>"&lt;response key="""&amp;B53&amp;""" text="""&amp;C53&amp;""" trigger="""&amp;D53&amp;""" trigger2="""&amp;E53&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B53&amp;""" text="""&amp;C53&amp;""" trigger="""&amp;D53&amp;""" trigger2="""&amp;E53&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,11 +2064,11 @@
         <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F56" s="4" t="str">
-        <f>"&lt;response key="""&amp;B56&amp;""" text="""&amp;C56&amp;""" trigger="""&amp;D56&amp;"""&gt;"</f>
-        <v>&lt;response key="N" text="N!" trigger="Point3"&gt;</v>
+        <f>"&lt;response key="""&amp;B56&amp;""" text="""&amp;C56&amp;""" trigger="""&amp;D56&amp;"""/&gt;"</f>
+        <v>&lt;response key="N" text="N!" trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,14 +2079,14 @@
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="4" t="str">
-        <f>"&lt;response key="""&amp;B57&amp;""" text="""&amp;C57&amp;""" trigger="""&amp;D57&amp;""" trigger2="""&amp;E57&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B57&amp;""" text="""&amp;C57&amp;""" trigger="""&amp;D57&amp;""" trigger2="""&amp;E57&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2000,11 +2121,11 @@
         <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F60" s="4" t="str">
-        <f>"&lt;response key="""&amp;B60&amp;""" text="""&amp;C60&amp;""" trigger="""&amp;D60&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="A!" trigger="Point4"&gt;</v>
+        <f>"&lt;response key="""&amp;B60&amp;""" text="""&amp;C60&amp;""" trigger="""&amp;D60&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="A!" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,14 +2136,14 @@
         <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="4" t="str">
-        <f>"&lt;response key="""&amp;B61&amp;""" text="""&amp;C61&amp;""" trigger="""&amp;D61&amp;""" trigger2="""&amp;E61&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B61&amp;""" text="""&amp;C61&amp;""" trigger="""&amp;D61&amp;""" trigger2="""&amp;E61&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,11 +2178,11 @@
         <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F64" s="4" t="str">
-        <f>"&lt;response key="""&amp;B64&amp;""" text="""&amp;C64&amp;""" trigger="""&amp;D64&amp;"""&gt;"</f>
-        <v>&lt;response key="N" text="N!" trigger="Point5"&gt;</v>
+        <f>"&lt;response key="""&amp;B64&amp;""" text="""&amp;C64&amp;""" trigger="""&amp;D64&amp;"""/&gt;"</f>
+        <v>&lt;response key="N" text="N!" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,14 +2193,14 @@
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E65" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="4" t="str">
-        <f>"&lt;response key="""&amp;B65&amp;""" text="""&amp;C65&amp;""" trigger="""&amp;D65&amp;""" trigger2="""&amp;E65&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B65&amp;""" text="""&amp;C65&amp;""" trigger="""&amp;D65&amp;""" trigger2="""&amp;E65&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,11 +2235,11 @@
         <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F68" s="4" t="str">
-        <f>"&lt;response key="""&amp;B68&amp;""" text="""&amp;C68&amp;""" trigger="""&amp;D68&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="A!" trigger="Point6"&gt;</v>
+        <f>"&lt;response key="""&amp;B68&amp;""" text="""&amp;C68&amp;""" trigger="""&amp;D68&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="A!" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,14 +2250,14 @@
         <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
       </c>
       <c r="F69" s="4" t="str">
-        <f>"&lt;response key="""&amp;B69&amp;""" text="""&amp;C69&amp;""" trigger="""&amp;D69&amp;""" trigger2="""&amp;E69&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B69&amp;""" text="""&amp;C69&amp;""" trigger="""&amp;D69&amp;""" trigger2="""&amp;E69&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,11 +2292,11 @@
         <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F72" s="4" t="str">
-        <f>"&lt;response key="""&amp;B72&amp;""" text="""&amp;C72&amp;""" trigger="""&amp;D72&amp;"""&gt;"</f>
-        <v>&lt;response key="S" text="S!" trigger="Point7"&gt;</v>
+        <f>"&lt;response key="""&amp;B72&amp;""" text="""&amp;C72&amp;""" trigger="""&amp;D72&amp;"""/&gt;"</f>
+        <v>&lt;response key="S" text="S!" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,14 +2307,14 @@
         <v>21</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
       </c>
       <c r="F73" s="4" t="str">
-        <f>"&lt;response key="""&amp;B73&amp;""" text="""&amp;C73&amp;""" trigger="""&amp;D73&amp;""" trigger2="""&amp;E73&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B73&amp;""" text="""&amp;C73&amp;""" trigger="""&amp;D73&amp;""" trigger2="""&amp;E73&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,14 +2334,14 @@
         <v>46</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
       </c>
       <c r="F75" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A75,1)&amp;""" text="""&amp;C75&amp;""" trigger="""&amp;D75&amp;IF(E75&lt;&gt;"",""" Trigger2="""&amp;E75&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="7" text="Aw yeah!" trigger="+0.10 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A75,1)&amp;""" text="""&amp;C75&amp;""" trigger="""&amp;D75&amp;IF(E75&lt;&gt;"",", "&amp;E75&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="7" text="Aw yeah!" trigger="Give 0.10 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,11 +2432,11 @@
         <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F84" s="4" t="str">
-        <f>"&lt;response key="""&amp;B84&amp;""" text="""&amp;C84&amp;""" trigger="""&amp;D84&amp;""" trigger2="""&amp;E84&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Let me show you the stars." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F84:F87" si="3">"&lt;response key="""&amp;B84&amp;""" text="""&amp;C84&amp;""" trigger="""&amp;D84&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Let me show you the stars." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2329,11 +2450,11 @@
         <v>54</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F85" s="4" t="str">
-        <f>"&lt;response key="""&amp;B85&amp;""" text="""&amp;C85&amp;""" trigger="""&amp;D85&amp;""" trigger2="""&amp;E85&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="I go wherever the action is." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;response key="B" text="I go wherever the action is." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,11 +2468,11 @@
         <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F86" s="4" t="str">
-        <f>"&lt;response key="""&amp;B86&amp;""" text="""&amp;C86&amp;""" trigger="""&amp;D86&amp;""" trigger2="""&amp;E86&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="I'm more of a lone space ranger." trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;response key="C" text="I'm more of a lone space ranger." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2362,11 +2483,11 @@
         <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F87" s="4" t="str">
-        <f>"&lt;response key="""&amp;B87&amp;""" text="""&amp;C87&amp;""" trigger="""&amp;D87&amp;""" trigger2="""&amp;E87&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,11 +2523,11 @@
         <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F90" s="4" t="str">
-        <f>"&lt;response key="""&amp;B90&amp;""" text="""&amp;C90&amp;""" trigger="""&amp;D90&amp;""" trigger2="""&amp;E90&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="I'll rock your universe." trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" ref="F90:F93" si="4">"&lt;response key="""&amp;B90&amp;""" text="""&amp;C90&amp;""" trigger="""&amp;D90&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="I'll rock your universe." trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2420,11 +2541,11 @@
         <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F91" s="4" t="str">
-        <f>"&lt;response key="""&amp;B91&amp;""" text="""&amp;C91&amp;""" trigger="""&amp;D91&amp;""" trigger2="""&amp;E91&amp;"""&gt;"</f>
-        <v>&lt;response key="B" text="It'll be out of this world." trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;response key="B" text="It'll be out of this world." trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,11 +2559,11 @@
         <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F92" s="4" t="str">
-        <f>"&lt;response key="""&amp;B92&amp;""" text="""&amp;C92&amp;""" trigger="""&amp;D92&amp;""" trigger2="""&amp;E92&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="To infinity and beyond." trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;response key="C" text="To infinity and beyond." trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2453,11 +2574,11 @@
         <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F93" s="4" t="str">
-        <f>"&lt;response key="""&amp;B93&amp;""" text="""&amp;C93&amp;""" trigger="""&amp;D93&amp;"""&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6"&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2493,11 +2614,11 @@
         <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F96" s="4" t="str">
-        <f t="shared" ref="F96:F98" si="0">"&lt;response key="""&amp;B96&amp;""" text="""&amp;C96&amp;""" trigger="""&amp;D96&amp;""" trigger2="""&amp;E96&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Let's do it." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F96:F98" si="5">"&lt;response key="""&amp;B96&amp;""" text="""&amp;C96&amp;""" trigger="""&amp;D96&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Let's do it." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2511,11 +2632,11 @@
         <v>61</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F97" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;response key="B" text="No thanks." trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;response key="B" text="No thanks." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,11 +2647,11 @@
         <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F98" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2549,13 +2670,12 @@
       <c r="C100" t="s">
         <v>122</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" t="s">
+      <c r="D100" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A100,1)&amp;""" text="""&amp;C100&amp;""" trigger="""&amp;D100&amp;IF(E100&lt;&gt;"",""" Trigger2="""&amp;E100&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Don't you want me?" trigger="" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A100,1)&amp;""" text="""&amp;C100&amp;""" trigger="""&amp;D100&amp;IF(E100&lt;&gt;"",", "&amp;E100&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Don't you want me?" trigger="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,11 +2689,11 @@
         <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F101" s="4" t="str">
-        <f t="shared" ref="F101:F104" si="1">"&lt;response key="""&amp;B101&amp;""" text="""&amp;C101&amp;""" trigger="""&amp;D101&amp;""" trigger2="""&amp;E101&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="It's not you, it's me." trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" ref="F101:F104" si="6">"&lt;response key="""&amp;B101&amp;""" text="""&amp;C101&amp;""" trigger="""&amp;D101&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="It's not you, it's me." trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2587,11 +2707,11 @@
         <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F102" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;response key="B" text="I just need some space." trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;response key="B" text="I just need some space." trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2605,11 +2725,11 @@
         <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F103" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;response key="C" text="My zipper is stuck." trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;response key="C" text="My zipper is stuck." trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2620,11 +2740,11 @@
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F104" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,14 +2764,14 @@
         <v>65</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A106,1)&amp;""" text="""&amp;C106&amp;""" trigger="""&amp;D106&amp;IF(E106&lt;&gt;"",""" Trigger2="""&amp;E106&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="Rock me, rocket man!" trigger="+0.2 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A106,1)&amp;""" text="""&amp;C106&amp;""" trigger="""&amp;D106&amp;IF(E106&lt;&gt;"",", "&amp;E106&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Rock me, rocket man!" trigger="Give 0.2 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2671,14 +2791,14 @@
         <v>67</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A108,1)&amp;""" text="""&amp;C108&amp;""" trigger="""&amp;D108&amp;IF(E108&lt;&gt;"",""" Trigger2="""&amp;E108&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="5" text="… That's the lamest thing I've ever heard." trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A108,1)&amp;""" text="""&amp;C108&amp;""" trigger="""&amp;D108&amp;IF(E108&lt;&gt;"",", "&amp;E108&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="5" text="… That's the lamest thing I've ever heard." trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2698,14 +2818,14 @@
         <v>66</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E110" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A110,1)&amp;""" text="""&amp;C110&amp;""" trigger="""&amp;D110&amp;IF(E110&lt;&gt;"",""" Trigger2="""&amp;E110&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="6" text="Hey, come back!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A110,1)&amp;""" text="""&amp;C110&amp;""" trigger="""&amp;D110&amp;IF(E110&lt;&gt;"",", "&amp;E110&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="6" text="Hey, come back!" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,11 +2916,11 @@
         <v>69</v>
       </c>
       <c r="D119" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F119" s="4" t="str">
-        <f t="shared" ref="F119:F122" si="2">"&lt;response key="""&amp;B119&amp;""" text="""&amp;C119&amp;""" trigger="""&amp;D119&amp;""" trigger2="""&amp;E119&amp;"""&gt;"</f>
-        <v>&lt;response key="G" text="Red." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F119:F122" si="7">"&lt;response key="""&amp;B119&amp;""" text="""&amp;C119&amp;""" trigger="""&amp;D119&amp;"""/&gt;"</f>
+        <v>&lt;response key="G" text="Red." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,11 +2934,11 @@
         <v>70</v>
       </c>
       <c r="D120" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F120" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;response key="R" text="Green." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;response key="R" text="Green." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,11 +2952,11 @@
         <v>71</v>
       </c>
       <c r="D121" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F121" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;response key="ESC" text="I'm colorblind." trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;response key="ESC" text="I'm colorblind." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,11 +2967,11 @@
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F122" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,14 +2991,14 @@
         <v>72</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E124" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A124,1)&amp;""" text="""&amp;C124&amp;""" trigger="""&amp;D124&amp;IF(E124&lt;&gt;"",""" Trigger2="""&amp;E124&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="Can't put anything past you!" trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A124,1)&amp;""" text="""&amp;C124&amp;""" trigger="""&amp;D124&amp;IF(E124&lt;&gt;"",", "&amp;E124&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="Can't put anything past you!" trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,14 +3018,14 @@
         <v>73</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E126" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A126,1)&amp;""" text="""&amp;C126&amp;""" trigger="""&amp;D126&amp;IF(E126&lt;&gt;"",""" Trigger2="""&amp;E126&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="You should pay more attention!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A126,1)&amp;""" text="""&amp;C126&amp;""" trigger="""&amp;D126&amp;IF(E126&lt;&gt;"",", "&amp;E126&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="You should pay more attention!" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2924,13 +3044,12 @@
       <c r="C128" t="s">
         <v>74</v>
       </c>
-      <c r="D128" s="1"/>
-      <c r="E128" t="s">
+      <c r="D128" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F128" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A128,1)&amp;""" text="""&amp;C128&amp;""" trigger="""&amp;D128&amp;IF(E128&lt;&gt;"",""" Trigger2="""&amp;E128&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Nevermind." trigger="" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A128,1)&amp;""" text="""&amp;C128&amp;""" trigger="""&amp;D128&amp;IF(E128&lt;&gt;"",", "&amp;E128&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Nevermind." trigger="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,11 +3140,11 @@
         <v>77</v>
       </c>
       <c r="D137" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F137" s="4" t="str">
-        <f t="shared" ref="F137:F140" si="3">"&lt;response key="""&amp;B137&amp;""" text="""&amp;C137&amp;""" trigger="""&amp;D137&amp;""" trigger2="""&amp;E137&amp;"""&gt;"</f>
-        <v>&lt;response key="Q" text="Commencing countdown, engines on…" trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F137:F140" si="8">"&lt;response key="""&amp;B137&amp;""" text="""&amp;C137&amp;""" trigger="""&amp;D137&amp;"""/&gt;"</f>
+        <v>&lt;response key="Q" text="Commencing countdown, engines on…" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,11 +3158,11 @@
         <v>78</v>
       </c>
       <c r="D138" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F138" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;response key="W" text="Your circuit's dead, there's something wrong…" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="8"/>
+        <v>&lt;response key="W" text="Your circuit's dead, there's something wrong…" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3057,11 +3176,11 @@
         <v>79</v>
       </c>
       <c r="D139" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F139" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;response key="E" text="Tell my wife I love her…" trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" si="8"/>
+        <v>&lt;response key="E" text="Tell my wife I love her…" trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,11 +3191,11 @@
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F140" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="8"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3096,14 +3215,14 @@
         <v>80</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E142" t="s">
         <v>25</v>
       </c>
       <c r="F142" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A142,1)&amp;""" text="""&amp;C142&amp;""" trigger="""&amp;D142&amp;IF(E142&lt;&gt;"",""" Trigger2="""&amp;E142&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="You've really made the grade!" trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A142,1)&amp;""" text="""&amp;C142&amp;""" trigger="""&amp;D142&amp;IF(E142&lt;&gt;"",", "&amp;E142&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="You've really made the grade!" trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3123,14 +3242,14 @@
         <v>81</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E144" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A144,1)&amp;""" text="""&amp;C144&amp;""" trigger="""&amp;D144&amp;IF(E144&lt;&gt;"",""" Trigger2="""&amp;E144&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="Can you hear me, Major Tom?" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A144,1)&amp;""" text="""&amp;C144&amp;""" trigger="""&amp;D144&amp;IF(E144&lt;&gt;"",", "&amp;E144&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="Can you hear me, Major Tom?" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3149,13 +3268,12 @@
       <c r="C146" t="s">
         <v>82</v>
       </c>
-      <c r="D146" s="1"/>
-      <c r="E146" t="s">
+      <c r="D146" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A146,1)&amp;""" text="""&amp;C146&amp;""" trigger="""&amp;D146&amp;IF(E146&lt;&gt;"",""" Trigger2="""&amp;E146&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="She knows…" trigger="" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A146,1)&amp;""" text="""&amp;C146&amp;""" trigger="""&amp;D146&amp;IF(E146&lt;&gt;"",", "&amp;E146&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="She knows…" trigger="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,11 +3364,11 @@
         <v>85</v>
       </c>
       <c r="D155" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F155" s="4" t="str">
-        <f t="shared" ref="F155:F158" si="4">"&lt;response key="""&amp;B155&amp;""" text="""&amp;C155&amp;""" trigger="""&amp;D155&amp;""" trigger2="""&amp;E155&amp;"""&gt;"</f>
-        <v>&lt;response key="1" text="My life for Aiur!" trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F155:F158" si="9">"&lt;response key="""&amp;B155&amp;""" text="""&amp;C155&amp;""" trigger="""&amp;D155&amp;"""/&gt;"</f>
+        <v>&lt;response key="1" text="My life for Aiur!" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,11 +3382,11 @@
         <v>87</v>
       </c>
       <c r="D156" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F156" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;response key="2" text="En Taro your face!" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="9"/>
+        <v>&lt;response key="2" text="En Taro your face!" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3282,11 +3400,11 @@
         <v>86</v>
       </c>
       <c r="D157" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F157" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;response key="3" text="Clearly, Tassadar has failed us." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="9"/>
+        <v>&lt;response key="3" text="Clearly, Tassadar has failed us." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3297,11 +3415,11 @@
         <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F158" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="9"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3322,7 +3440,7 @@
       </c>
       <c r="D160" s="1"/>
       <c r="F160" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A160,1)&amp;""" text="""&amp;C160&amp;""" trigger="""&amp;D160&amp;IF(E160&lt;&gt;"",""" Trigger2="""&amp;E160&amp;"""&gt;","""&gt;")</f>
+        <f>"&lt;point id="""&amp;RIGHT(A160,1)&amp;""" text="""&amp;C160&amp;""" trigger="""&amp;D160&amp;IF(E160&lt;&gt;"",", "&amp;E160&amp;"""&gt;","""&gt;")</f>
         <v>&lt;point id="1" text="What are your orders, Executor?" trigger=""&gt;</v>
       </c>
     </row>
@@ -3337,11 +3455,11 @@
         <v>90</v>
       </c>
       <c r="D161" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F161" s="4" t="str">
-        <f t="shared" ref="F161:F164" si="5">"&lt;response key="""&amp;B161&amp;""" text="""&amp;C161&amp;""" trigger="""&amp;D161&amp;""" trigger2="""&amp;E161&amp;"""&gt;"</f>
-        <v>&lt;response key="1" text="Construct additional pylons." trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" ref="F161:F164" si="10">"&lt;response key="""&amp;B161&amp;""" text="""&amp;C161&amp;""" trigger="""&amp;D161&amp;"""/&gt;"</f>
+        <v>&lt;response key="1" text="Construct additional pylons." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,11 +3473,11 @@
         <v>93</v>
       </c>
       <c r="D162" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F162" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;response key="2" text="We require more vespene gas." trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;response key="2" text="We require more vespene gas." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3373,11 +3491,11 @@
         <v>91</v>
       </c>
       <c r="D163" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F163" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;response key="3" text="There is no cow level." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;response key="3" text="There is no cow level." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,11 +3506,11 @@
         <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F164" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="10"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,14 +3530,14 @@
         <v>95</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E166" t="s">
         <v>25</v>
       </c>
       <c r="F166" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A166,1)&amp;""" text="""&amp;C166&amp;""" trigger="""&amp;D166&amp;IF(E166&lt;&gt;"",""" Trigger2="""&amp;E166&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="I didn't come back for this…" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A166,1)&amp;""" text="""&amp;C166&amp;""" trigger="""&amp;D166&amp;IF(E166&lt;&gt;"",", "&amp;E166&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="I didn't come back for this…" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3439,14 +3557,14 @@
         <v>94</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E168" t="s">
         <v>25</v>
       </c>
       <c r="F168" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A168,1)&amp;""" text="""&amp;C168&amp;""" trigger="""&amp;D168&amp;IF(E168&lt;&gt;"",""" Trigger2="""&amp;E168&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="As you command." trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A168,1)&amp;""" text="""&amp;C168&amp;""" trigger="""&amp;D168&amp;IF(E168&lt;&gt;"",", "&amp;E168&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="As you command." trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3522,8 +3640,8 @@
         <v>96</v>
       </c>
       <c r="F176" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A176,1)&amp;""" text="""&amp;C176&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="Do you need any help?"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A176,1)&amp;""" text="""&amp;C176&amp;""" trigger="""&amp;D176&amp;IF(E176&lt;&gt;"",", "&amp;E176&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="Do you need any help?" trigger=""&gt;</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,11 +3655,11 @@
         <v>98</v>
       </c>
       <c r="D177" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F177" s="4" t="str">
-        <f t="shared" ref="F177:F180" si="6">"&lt;response key="""&amp;B177&amp;""" text="""&amp;C177&amp;""" trigger="""&amp;D177&amp;""" trigger2="""&amp;E177&amp;"""&gt;"</f>
-        <v>&lt;response key="1" text="Nothing right now." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F177:F180" si="11">"&lt;response key="""&amp;B177&amp;""" text="""&amp;C177&amp;""" trigger="""&amp;D177&amp;"""/&gt;"</f>
+        <v>&lt;response key="1" text="Nothing right now." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,11 +3673,11 @@
         <v>99</v>
       </c>
       <c r="D178" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F178" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;response key="2" text="Just some oxygen, please." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;response key="2" text="Just some oxygen, please." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,11 +3691,11 @@
         <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F179" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;response key="3" text="Tell me a secret." trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;response key="3" text="Tell me a secret." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -3588,11 +3706,11 @@
         <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F180" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" si="11"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -3611,13 +3729,12 @@
       <c r="C182" t="s">
         <v>103</v>
       </c>
-      <c r="D182" s="1"/>
-      <c r="E182" t="s">
+      <c r="D182" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F182" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A182,1)&amp;""" text="""&amp;C182&amp;""" trigger="""&amp;D182&amp;IF(E182&lt;&gt;"",""" Trigger2="""&amp;E182&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="Okay then!" trigger="" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A182,1)&amp;""" text="""&amp;C182&amp;""" trigger="""&amp;D182&amp;IF(E182&lt;&gt;"",", "&amp;E182&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="Okay then!" trigger="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,14 +3754,14 @@
         <v>102</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E184" t="s">
         <v>25</v>
       </c>
       <c r="F184" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A184,1)&amp;""" text="""&amp;C184&amp;""" trigger="""&amp;D184&amp;IF(E184&lt;&gt;"",""" Trigger2="""&amp;E184&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="Here you go!" trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A184,1)&amp;""" text="""&amp;C184&amp;""" trigger="""&amp;D184&amp;IF(E184&lt;&gt;"",", "&amp;E184&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="Here you go!" trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -3663,13 +3780,12 @@
       <c r="C186" t="s">
         <v>101</v>
       </c>
-      <c r="D186" s="1"/>
-      <c r="E186" t="s">
+      <c r="D186" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F186" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A186,1)&amp;""" text="""&amp;C186&amp;""" trigger="""&amp;D186&amp;IF(E186&lt;&gt;"",""" Trigger2="""&amp;E186&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Have you tried clicking on the cats?" trigger="" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A186,1)&amp;""" text="""&amp;C186&amp;""" trigger="""&amp;D186&amp;IF(E186&lt;&gt;"",", "&amp;E186&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Have you tried clicking on the cats?" trigger="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,8 +3861,8 @@
         <v>114</v>
       </c>
       <c r="F194" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A194,1)&amp;""" text="""&amp;C194&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="(Guess what?)"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A194,1)&amp;""" text="""&amp;C194&amp;""" trigger="""&amp;D194&amp;IF(E194&lt;&gt;"",", "&amp;E194&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="(Guess what?)" trigger=""&gt;</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -3760,11 +3876,11 @@
         <v>104</v>
       </c>
       <c r="D195" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F195" s="4" t="str">
-        <f t="shared" ref="F195:F197" si="7">"&lt;response key="""&amp;B195&amp;""" text="""&amp;C195&amp;""" trigger="""&amp;D195&amp;""" trigger2="""&amp;E195&amp;"""&gt;"</f>
-        <v>&lt;response key="~" text="What is it?" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" ref="F195:F197" si="12">"&lt;response key="""&amp;B195&amp;""" text="""&amp;C195&amp;""" trigger="""&amp;D195&amp;"""/&gt;"</f>
+        <v>&lt;response key="~" text="What is it?" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -3778,11 +3894,11 @@
         <v>105</v>
       </c>
       <c r="D196" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F196" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;response key="*" text="Not right now." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;response key="*" text="Not right now." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -3793,11 +3909,11 @@
         <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F197" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,14 +3933,14 @@
         <v>115</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E199" t="s">
         <v>25</v>
       </c>
       <c r="F199" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A199,1)&amp;""" text="""&amp;C199&amp;""" trigger="""&amp;D199&amp;IF(E199&lt;&gt;"",""" Trigger2="""&amp;E199&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="(You're very rude.)" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A199,1)&amp;""" text="""&amp;C199&amp;""" trigger="""&amp;D199&amp;IF(E199&lt;&gt;"",", "&amp;E199&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="(You're very rude.)" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -3844,14 +3960,14 @@
         <v>116</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="E201" t="s">
         <v>25</v>
       </c>
       <c r="F201" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A201,1)&amp;""" text="""&amp;C201&amp;""" trigger="""&amp;D201&amp;IF(E201&lt;&gt;"",""" Trigger2="""&amp;E201&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="(You're already dead.)" trigger="-0.2 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A201,1)&amp;""" text="""&amp;C201&amp;""" trigger="""&amp;D201&amp;IF(E201&lt;&gt;"",", "&amp;E201&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="(You're already dead.)" trigger="Take 0.2 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -3927,8 +4043,8 @@
         <v>125</v>
       </c>
       <c r="F209" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A209,1)&amp;""" text="""&amp;C209&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="What color is this dress?"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A209,1)&amp;""" text="""&amp;C209&amp;""" trigger="""&amp;D209&amp;IF(E209&lt;&gt;"",", "&amp;E209&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="What color is this dress?" trigger=""&gt;</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -3942,11 +4058,11 @@
         <v>126</v>
       </c>
       <c r="D210" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F210" s="4" t="str">
-        <f t="shared" ref="F210:F213" si="8">"&lt;response key="""&amp;B210&amp;""" text="""&amp;C210&amp;""" trigger="""&amp;D210&amp;""" trigger2="""&amp;E210&amp;"""&gt;"</f>
-        <v>&lt;response key="O" text="White and Gold." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F210:F213" si="13">"&lt;response key="""&amp;B210&amp;""" text="""&amp;C210&amp;""" trigger="""&amp;D210&amp;"""/&gt;"</f>
+        <v>&lt;response key="O" text="White and Gold." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -3960,11 +4076,11 @@
         <v>127</v>
       </c>
       <c r="D211" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F211" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;response key="M" text="Blue and Black." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" si="13"/>
+        <v>&lt;response key="M" text="Blue and Black." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -3978,11 +4094,11 @@
         <v>128</v>
       </c>
       <c r="D212" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F212" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;response key="G" text="I hate this meme." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="13"/>
+        <v>&lt;response key="G" text="I hate this meme." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -3993,11 +4109,11 @@
         <v>21</v>
       </c>
       <c r="D213" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F213" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="13"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4017,14 +4133,14 @@
         <v>131</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E215" t="s">
         <v>25</v>
       </c>
       <c r="F215" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A215,1)&amp;""" text="""&amp;C215&amp;""" trigger="""&amp;D215&amp;IF(E215&lt;&gt;"",""" Trigger2="""&amp;E215&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="I thought so!" trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A215,1)&amp;""" text="""&amp;C215&amp;""" trigger="""&amp;D215&amp;IF(E215&lt;&gt;"",", "&amp;E215&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="I thought so!" trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,14 +4160,14 @@
         <v>74</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E217" t="s">
         <v>25</v>
       </c>
       <c r="F217" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A217,1)&amp;""" text="""&amp;C217&amp;""" trigger="""&amp;D217&amp;IF(E217&lt;&gt;"",""" Trigger2="""&amp;E217&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="Nevermind." trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A217,1)&amp;""" text="""&amp;C217&amp;""" trigger="""&amp;D217&amp;IF(E217&lt;&gt;"",", "&amp;E217&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="Nevermind." trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,8 +4243,8 @@
         <v>133</v>
       </c>
       <c r="F225" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A225,1)&amp;""" text="""&amp;C225&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="This is a story all about how my life got _____ upside down"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A225,1)&amp;""" text="""&amp;C225&amp;""" trigger="""&amp;D225&amp;IF(E225&lt;&gt;"",", "&amp;E225&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="This is a story all about how my life got _____ upside down" trigger=""&gt;</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -4142,11 +4258,11 @@
         <v>134</v>
       </c>
       <c r="D226" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F226" s="4" t="str">
-        <f t="shared" ref="F226:F229" si="9">"&lt;response key="""&amp;B226&amp;""" text="""&amp;C226&amp;""" trigger="""&amp;D226&amp;""" trigger2="""&amp;E226&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Flip-turned" trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F226:F229" si="14">"&lt;response key="""&amp;B226&amp;""" text="""&amp;C226&amp;""" trigger="""&amp;D226&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Flip-turned" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -4160,11 +4276,11 @@
         <v>150</v>
       </c>
       <c r="D227" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F227" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;response key="B" text="Back-traced" trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;response key="B" text="Back-traced" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -4178,11 +4294,11 @@
         <v>151</v>
       </c>
       <c r="D228" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F228" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;response key="C" text="Stir-fried" trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;response key="C" text="Stir-fried" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -4193,11 +4309,11 @@
         <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F229" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -4217,8 +4333,8 @@
         <v>135</v>
       </c>
       <c r="F231" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A231,1)&amp;""" text="""&amp;C231&amp;"""&gt;"</f>
-        <v>&lt;point id="1" text="In West Philadelphia born and raised, on ____ is where I spent most of my days"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A231,1)&amp;""" text="""&amp;C231&amp;""" trigger="""&amp;D231&amp;IF(E231&lt;&gt;"",", "&amp;E231&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="In West Philadelphia born and raised, on ____ is where I spent most of my days" trigger=""&gt;</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -4232,11 +4348,11 @@
         <v>138</v>
       </c>
       <c r="D232" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F232" s="4" t="str">
-        <f t="shared" ref="F232:F235" si="10">"&lt;response key="""&amp;B232&amp;""" text="""&amp;C232&amp;""" trigger="""&amp;D232&amp;""" trigger2="""&amp;E232&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="The playground" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" ref="F232:F235" si="15">"&lt;response key="""&amp;B232&amp;""" text="""&amp;C232&amp;""" trigger="""&amp;D232&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="The playground" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,11 +4366,11 @@
         <v>136</v>
       </c>
       <c r="D233" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F233" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;response key="B" text="YouTube" trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="15"/>
+        <v>&lt;response key="B" text="YouTube" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,11 +4384,11 @@
         <v>137</v>
       </c>
       <c r="D234" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F234" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;response key="C" text="4chan" trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="15"/>
+        <v>&lt;response key="C" text="4chan" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -4283,11 +4399,11 @@
         <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F235" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" si="15"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,7 +4415,7 @@
         <v>&lt;/point&gt;</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2</v>
       </c>
@@ -4307,8 +4423,8 @@
         <v>139</v>
       </c>
       <c r="F237" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A237,1)&amp;""" text="""&amp;C237&amp;"""&gt;"</f>
-        <v>&lt;point id="2" text="A couple of guys who were up to no good started making _____ in my neighborhood"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A237,1)&amp;""" text="""&amp;C237&amp;""" trigger="""&amp;D237&amp;IF(E237&lt;&gt;"",", "&amp;E237&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="A couple of guys who were up to no good started making _____ in my neighborhood" trigger=""&gt;</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -4322,11 +4438,11 @@
         <v>140</v>
       </c>
       <c r="D238" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F238" s="4" t="str">
-        <f t="shared" ref="F238:F241" si="11">"&lt;response key="""&amp;B238&amp;""" text="""&amp;C238&amp;""" trigger="""&amp;D238&amp;""" trigger2="""&amp;E238&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Trouble" trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" ref="F238:F241" si="16">"&lt;response key="""&amp;B238&amp;""" text="""&amp;C238&amp;""" trigger="""&amp;D238&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Trouble" trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -4340,11 +4456,11 @@
         <v>141</v>
       </c>
       <c r="D239" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F239" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;response key="B" text="Money" trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="16"/>
+        <v>&lt;response key="B" text="Money" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -4358,11 +4474,11 @@
         <v>142</v>
       </c>
       <c r="D240" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F240" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;response key="C" text="Meth" trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="16"/>
+        <v>&lt;response key="C" text="Meth" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -4373,11 +4489,11 @@
         <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F241" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" si="16"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -4397,8 +4513,8 @@
         <v>143</v>
       </c>
       <c r="F243" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A243,1)&amp;""" text="""&amp;C243&amp;"""&gt;"</f>
-        <v>&lt;point id="3" text="I got in one little fight and my mom got scared, she said "You're moving with _______ in Bel Air""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A243,1)&amp;""" text="""&amp;C243&amp;""" trigger="""&amp;D243&amp;IF(E243&lt;&gt;"",", "&amp;E243&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="I got in one little fight and my mom got scared, she said "You're moving with _______ in Bel Air"" trigger=""&gt;</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -4412,11 +4528,11 @@
         <v>144</v>
       </c>
       <c r="D244" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F244" s="4" t="str">
-        <f t="shared" ref="F244:F247" si="12">"&lt;response key="""&amp;B244&amp;""" text="""&amp;C244&amp;""" trigger="""&amp;D244&amp;""" trigger2="""&amp;E244&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Your auntie and uncle" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" ref="F244:F247" si="17">"&lt;response key="""&amp;B244&amp;""" text="""&amp;C244&amp;""" trigger="""&amp;D244&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Your auntie and uncle" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,11 +4546,11 @@
         <v>145</v>
       </c>
       <c r="D245" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F245" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;response key="B" text="President Nixon" trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="17"/>
+        <v>&lt;response key="B" text="President Nixon" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -4448,11 +4564,11 @@
         <v>146</v>
       </c>
       <c r="D246" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F246" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;response key="C" text="Smaug the Tremendous, Chiefest and Greatest of Calamities" trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="17"/>
+        <v>&lt;response key="C" text="Smaug the Tremendous, Chiefest and Greatest of Calamities" trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -4463,11 +4579,11 @@
         <v>21</v>
       </c>
       <c r="D247" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F247" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" si="17"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,14 +4603,14 @@
         <v>147</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="E249" t="s">
         <v>25</v>
       </c>
       <c r="F249" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A249,1)&amp;""" text="""&amp;C249&amp;""" trigger="""&amp;D249&amp;IF(E249&lt;&gt;"",""" Trigger2="""&amp;E249&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="Wicked fresh!" trigger="+0.2 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A249,1)&amp;""" text="""&amp;C249&amp;""" trigger="""&amp;D249&amp;IF(E249&lt;&gt;"",", "&amp;E249&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Wicked fresh!" trigger="Give 0.2 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -4514,14 +4630,14 @@
         <v>148</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E251" t="s">
         <v>25</v>
       </c>
       <c r="F251" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A251,1)&amp;""" text="""&amp;C251&amp;""" trigger="""&amp;D251&amp;IF(E251&lt;&gt;"",""" Trigger2="""&amp;E251&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="5" text="Hey! That's not how it goes!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A251,1)&amp;""" text="""&amp;C251&amp;""" trigger="""&amp;D251&amp;IF(E251&lt;&gt;"",", "&amp;E251&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="5" text="Hey! That's not how it goes!" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -4541,14 +4657,14 @@
         <v>149</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="E253" t="s">
         <v>25</v>
       </c>
       <c r="F253" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A253,1)&amp;""" text="""&amp;C253&amp;""" trigger="""&amp;D253&amp;IF(E253&lt;&gt;"",""" Trigger2="""&amp;E253&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="6" text="Smell ya later!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A253,1)&amp;""" text="""&amp;C253&amp;""" trigger="""&amp;D253&amp;IF(E253&lt;&gt;"",", "&amp;E253&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="6" text="Smell ya later!" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -4591,7 +4707,7 @@
         <v>31</v>
       </c>
       <c r="B258" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F258" s="4" t="str">
         <f>"&lt;npc name="""&amp;B258&amp;"""&gt;"</f>
@@ -4621,11 +4737,11 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F261" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A261,1)&amp;""" text="""&amp;C261&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="What's up, Bro."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A261,1)&amp;""" text="""&amp;C261&amp;""" trigger="""&amp;D261&amp;IF(E261&lt;&gt;"",", "&amp;E261&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="What's up, Bro." trigger=""&gt;</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,14 +4752,14 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D262" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F262" s="4" t="str">
-        <f t="shared" ref="F262:F264" si="13">"&lt;response key="""&amp;B262&amp;""" text="""&amp;C262&amp;""" trigger="""&amp;D262&amp;""" trigger2="""&amp;E262&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Not much, Broski." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" ref="F262:F264" si="18">"&lt;response key="""&amp;B262&amp;""" text="""&amp;C262&amp;""" trigger="""&amp;D262&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Not much, Broski." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -4654,14 +4770,14 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D263" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="F263" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;response key="B" text="I'm not your bro, pal." trigger="Point8" trigger2=""&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;response key="B" text="I'm not your bro, pal." trigger="Go To 8"/&gt;</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,11 +4788,11 @@
         <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F264" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -4693,12 +4809,12 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D266" s="1"/>
       <c r="F266" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A266,1)&amp;""" text="""&amp;C266&amp;"""&gt;"</f>
-        <v>&lt;point id="1" text="Broseph."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A266,1)&amp;""" text="""&amp;C266&amp;""" trigger="""&amp;D266&amp;IF(E266&lt;&gt;"",", "&amp;E266&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="Broseph." trigger=""&gt;</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -4709,14 +4825,14 @@
         <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D267" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F267" s="4" t="str">
-        <f t="shared" ref="F267:F269" si="14">"&lt;response key="""&amp;B267&amp;""" text="""&amp;C267&amp;""" trigger="""&amp;D267&amp;""" trigger2="""&amp;E267&amp;"""&gt;"</f>
-        <v>&lt;response key="C" text="Broseidon." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" ref="F267:F269" si="19">"&lt;response key="""&amp;B267&amp;""" text="""&amp;C267&amp;""" trigger="""&amp;D267&amp;"""/&gt;"</f>
+        <v>&lt;response key="C" text="Broseidon." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -4724,17 +4840,17 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C268" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D268" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F268" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;response key="D" text="Brometheus." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="19"/>
+        <v>&lt;response key="D" text="Brometheus." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,11 +4861,11 @@
         <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F269" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="19"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -4766,12 +4882,12 @@
         <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D271" s="1"/>
       <c r="F271" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A271,1)&amp;""" text="""&amp;C271&amp;"""&gt;"</f>
-        <v>&lt;point id="2" text="Bromo sapiens."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A271,1)&amp;""" text="""&amp;C271&amp;""" trigger="""&amp;D271&amp;IF(E271&lt;&gt;"",", "&amp;E271&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="Bromo sapiens." trigger=""&gt;</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -4782,14 +4898,14 @@
         <v>111</v>
       </c>
       <c r="C272" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D272" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F272" s="4" t="str">
-        <f t="shared" ref="F272:F274" si="15">"&lt;response key="""&amp;B272&amp;""" text="""&amp;C272&amp;""" trigger="""&amp;D272&amp;""" trigger2="""&amp;E272&amp;"""&gt;"</f>
-        <v>&lt;response key="E" text="Bro magnon." trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" ref="F272:F274" si="20">"&lt;response key="""&amp;B272&amp;""" text="""&amp;C272&amp;""" trigger="""&amp;D272&amp;"""/&gt;"</f>
+        <v>&lt;response key="E" text="Bro magnon." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -4797,17 +4913,17 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C273" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D273" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F273" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;response key="F" text="Bro bono." trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;response key="F" text="Bro bono." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -4818,11 +4934,11 @@
         <v>21</v>
       </c>
       <c r="D274" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F274" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -4839,12 +4955,12 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D276" s="1"/>
       <c r="F276" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A276,1)&amp;""" text="""&amp;C276&amp;"""&gt;"</f>
-        <v>&lt;point id="3" text="Brotato."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A276,1)&amp;""" text="""&amp;C276&amp;""" trigger="""&amp;D276&amp;IF(E276&lt;&gt;"",", "&amp;E276&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Brotato." trigger=""&gt;</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,14 +4971,14 @@
         <v>106</v>
       </c>
       <c r="C277" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D277" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F277" s="4" t="str">
-        <f t="shared" ref="F277:F279" si="16">"&lt;response key="""&amp;B277&amp;""" text="""&amp;C277&amp;""" trigger="""&amp;D277&amp;""" trigger2="""&amp;E277&amp;"""&gt;"</f>
-        <v>&lt;response key="G" text="Brobama." trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" ref="F277:F279" si="21">"&lt;response key="""&amp;B277&amp;""" text="""&amp;C277&amp;""" trigger="""&amp;D277&amp;"""/&gt;"</f>
+        <v>&lt;response key="G" text="Brobama." trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -4870,17 +4986,17 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C278" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D278" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F278" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;response key="H" text="Brogaine." trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;response key="H" text="Brogaine." trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -4891,11 +5007,11 @@
         <v>21</v>
       </c>
       <c r="D279" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F279" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,12 +5028,12 @@
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D281" s="1"/>
       <c r="F281" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A281,1)&amp;""" text="""&amp;C281&amp;"""&gt;"</f>
-        <v>&lt;point id="4" text="Brotis Redding."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A281,1)&amp;""" text="""&amp;C281&amp;""" trigger="""&amp;D281&amp;IF(E281&lt;&gt;"",", "&amp;E281&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Brotis Redding." trigger=""&gt;</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,17 +5041,17 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C282" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D282" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F282" s="4" t="str">
-        <f t="shared" ref="F282:F284" si="17">"&lt;response key="""&amp;B282&amp;""" text="""&amp;C282&amp;""" trigger="""&amp;D282&amp;""" trigger2="""&amp;E282&amp;"""&gt;"</f>
-        <v>&lt;response key="I" text="Bronus Wagner." trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" ref="F282:F284" si="22">"&lt;response key="""&amp;B282&amp;""" text="""&amp;C282&amp;""" trigger="""&amp;D282&amp;"""/&gt;"</f>
+        <v>&lt;response key="I" text="Bronus Wagner." trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -4943,17 +5059,17 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C283" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D283" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="F283" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;response key="J" text="Broly Ghost." trigger="Point5" trigger2=""&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;response key="J" text="Broly Ghost." trigger="Go To 5"/&gt;</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,11 +5080,11 @@
         <v>21</v>
       </c>
       <c r="D284" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F284" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -4985,12 +5101,12 @@
         <v>47</v>
       </c>
       <c r="C286" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D286" s="1"/>
       <c r="F286" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A286,1)&amp;""" text="""&amp;C286&amp;"""&gt;"</f>
-        <v>&lt;point id="5" text="Brodin Allfather."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A286,1)&amp;""" text="""&amp;C286&amp;""" trigger="""&amp;D286&amp;IF(E286&lt;&gt;"",", "&amp;E286&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="5" text="Brodin Allfather." trigger=""&gt;</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -4998,17 +5114,17 @@
         <v>5</v>
       </c>
       <c r="B287" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C287" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D287" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F287" s="4" t="str">
-        <f t="shared" ref="F287:F289" si="18">"&lt;response key="""&amp;B287&amp;""" text="""&amp;C287&amp;""" trigger="""&amp;D287&amp;""" trigger2="""&amp;E287&amp;"""&gt;"</f>
-        <v>&lt;response key="K" text="Bro Chang." trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" ref="F287:F289" si="23">"&lt;response key="""&amp;B287&amp;""" text="""&amp;C287&amp;""" trigger="""&amp;D287&amp;"""/&gt;"</f>
+        <v>&lt;response key="K" text="Bro Chang." trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -5016,17 +5132,17 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C288" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D288" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F288" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>&lt;response key="L" text="Marcus Brody." trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;response key="L" text="Marcus Brody." trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -5037,11 +5153,11 @@
         <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F289" s="4" t="str">
-        <f t="shared" si="18"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -5058,12 +5174,12 @@
         <v>48</v>
       </c>
       <c r="C291" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D291" s="1"/>
       <c r="F291" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A291,1)&amp;""" text="""&amp;C291&amp;"""&gt;"</f>
-        <v>&lt;point id="6" text="Yeah, bro!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A291,1)&amp;""" text="""&amp;C291&amp;""" trigger="""&amp;D291&amp;IF(E291&lt;&gt;"",", "&amp;E291&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="6" text="Yeah, bro!" trigger=""&gt;</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -5074,14 +5190,14 @@
         <v>130</v>
       </c>
       <c r="C292" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D292" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F292" s="4" t="str">
-        <f t="shared" ref="F292:F294" si="19">"&lt;response key="""&amp;B292&amp;""" text="""&amp;C292&amp;""" trigger="""&amp;D292&amp;""" trigger2="""&amp;E292&amp;"""&gt;"</f>
-        <v>&lt;response key="M" text="Uh, okay." trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" ref="F292:F294" si="24">"&lt;response key="""&amp;B292&amp;""" text="""&amp;C292&amp;""" trigger="""&amp;D292&amp;"""/&gt;"</f>
+        <v>&lt;response key="M" text="Uh, okay." trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -5092,14 +5208,14 @@
         <v>88</v>
       </c>
       <c r="C293" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D293" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="F293" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>&lt;response key="N" text="I'm not your bro, pal." trigger="Point8" trigger2=""&gt;</v>
+        <f t="shared" si="24"/>
+        <v>&lt;response key="N" text="I'm not your bro, pal." trigger="Go To 8"/&gt;</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,11 +5226,11 @@
         <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F294" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="24"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -5131,17 +5247,17 @@
         <v>49</v>
       </c>
       <c r="C296" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="E296" t="s">
         <v>25</v>
       </c>
       <c r="F296" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A296,1)&amp;""" text="""&amp;C296&amp;""" trigger="""&amp;D296&amp;IF(E296&lt;&gt;"",""" Trigger2="""&amp;E296&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="7" text="Take it easy." trigger="+0.3 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A296,1)&amp;""" text="""&amp;C296&amp;""" trigger="""&amp;D296&amp;IF(E296&lt;&gt;"",", "&amp;E296&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="7" text="Take it easy." trigger="Give 0.3 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -5155,14 +5271,14 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C298" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F298" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A298,1)&amp;""" text="""&amp;C298&amp;"""&gt;"</f>
-        <v>&lt;point id="8" text="I'm not your pal, friend."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A298,1)&amp;""" text="""&amp;C298&amp;""" trigger="""&amp;D298&amp;IF(E298&lt;&gt;"",", "&amp;E298&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="8" text="I'm not your pal, friend." trigger=""&gt;</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -5173,14 +5289,14 @@
         <v>129</v>
       </c>
       <c r="C299" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D299" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="F299" s="4" t="str">
-        <f t="shared" ref="F299:F301" si="20">"&lt;response key="""&amp;B299&amp;""" text="""&amp;C299&amp;""" trigger="""&amp;D299&amp;""" trigger2="""&amp;E299&amp;"""&gt;"</f>
-        <v>&lt;response key="O" text="I'm not your friend, man." trigger="Point9" trigger2=""&gt;</v>
+        <f t="shared" ref="F299:F301" si="25">"&lt;response key="""&amp;B299&amp;""" text="""&amp;C299&amp;""" trigger="""&amp;D299&amp;"""/&gt;"</f>
+        <v>&lt;response key="O" text="I'm not your friend, man." trigger="Go To 9"/&gt;</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -5188,17 +5304,17 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C300" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D300" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="F300" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>&lt;response key="P" text="I'm not your friend, guy." trigger="Point10" trigger2=""&gt;</v>
+        <f t="shared" si="25"/>
+        <v>&lt;response key="P" text="I'm not your friend, guy." trigger="Go To 10"/&gt;</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -5209,11 +5325,11 @@
         <v>21</v>
       </c>
       <c r="D301" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F301" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="25"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -5227,14 +5343,14 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C303" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F303" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A303,1)&amp;""" text="""&amp;C303&amp;"""&gt;"</f>
-        <v>&lt;point id="9" text="I'm not your man, buddy."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A303,1)&amp;""" text="""&amp;C303&amp;""" trigger="""&amp;D303&amp;IF(E303&lt;&gt;"",", "&amp;E303&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="9" text="I'm not your man, buddy." trigger=""&gt;</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,14 +5361,14 @@
         <v>109</v>
       </c>
       <c r="C304" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D304" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="F304" s="4" t="str">
-        <f t="shared" ref="F304:F306" si="21">"&lt;response key="""&amp;B304&amp;""" text="""&amp;C304&amp;""" trigger="""&amp;D304&amp;""" trigger2="""&amp;E304&amp;"""&gt;"</f>
-        <v>&lt;response key="Q" text="I'm not your buddy, guy." trigger="Point10" trigger2=""&gt;</v>
+        <f t="shared" ref="F304:F306" si="26">"&lt;response key="""&amp;B304&amp;""" text="""&amp;C304&amp;""" trigger="""&amp;D304&amp;"""/&gt;"</f>
+        <v>&lt;response key="Q" text="I'm not your buddy, guy." trigger="Go To 10"/&gt;</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -5263,14 +5379,14 @@
         <v>107</v>
       </c>
       <c r="C305" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D305" t="s">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c r="F305" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;response key="R" text="I'm not your buddy, dude." trigger="Point11" trigger2=""&gt;</v>
+        <f t="shared" si="26"/>
+        <v>&lt;response key="R" text="I'm not your buddy, dude." trigger="Go To 11"/&gt;</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -5281,11 +5397,11 @@
         <v>21</v>
       </c>
       <c r="D306" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F306" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="26"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -5299,14 +5415,14 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C308" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F308" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A308,1)&amp;""" text="""&amp;C308&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="I'm not your guy, chief."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A308,1)&amp;""" text="""&amp;C308&amp;""" trigger="""&amp;D308&amp;IF(E308&lt;&gt;"",", "&amp;E308&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="I'm not your guy, chief." trigger=""&gt;</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -5317,14 +5433,14 @@
         <v>89</v>
       </c>
       <c r="C309" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D309" t="s">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c r="F309" s="4" t="str">
-        <f t="shared" ref="F309:F311" si="22">"&lt;response key="""&amp;B309&amp;""" text="""&amp;C309&amp;""" trigger="""&amp;D309&amp;""" trigger2="""&amp;E309&amp;"""&gt;"</f>
-        <v>&lt;response key="S" text="I'm not your chief, dude." trigger="Point11" trigger2=""&gt;</v>
+        <f t="shared" ref="F309:F311" si="27">"&lt;response key="""&amp;B309&amp;""" text="""&amp;C309&amp;""" trigger="""&amp;D309&amp;"""/&gt;"</f>
+        <v>&lt;response key="S" text="I'm not your chief, dude." trigger="Go To 11"/&gt;</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,17 +5448,17 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C310" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D310" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="F310" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>&lt;response key="T" text="I'm not your chief, lady." trigger="Point12" trigger2=""&gt;</v>
+        <f t="shared" si="27"/>
+        <v>&lt;response key="T" text="I'm not your chief, lady." trigger="Go To 12"/&gt;</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -5353,11 +5469,11 @@
         <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F311" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="27"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -5371,14 +5487,14 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C313" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F313" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A313,1)&amp;""" text="""&amp;C313&amp;"""&gt;"</f>
-        <v>&lt;point id="1" text="I'm not your dude, chum."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A313,1)&amp;""" text="""&amp;C313&amp;""" trigger="""&amp;D313&amp;IF(E313&lt;&gt;"",", "&amp;E313&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="I'm not your dude, chum." trigger=""&gt;</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -5386,17 +5502,17 @@
         <v>5</v>
       </c>
       <c r="B314" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C314" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D314" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="F314" s="4" t="str">
-        <f t="shared" ref="F314:F316" si="23">"&lt;response key="""&amp;B314&amp;""" text="""&amp;C314&amp;""" trigger="""&amp;D314&amp;""" trigger2="""&amp;E314&amp;"""&gt;"</f>
-        <v>&lt;response key="U" text="I'm not your chum, lady." trigger="Point12" trigger2=""&gt;</v>
+        <f t="shared" ref="F314:F316" si="28">"&lt;response key="""&amp;B314&amp;""" text="""&amp;C314&amp;""" trigger="""&amp;D314&amp;"""/&gt;"</f>
+        <v>&lt;response key="U" text="I'm not your chum, lady." trigger="Go To 12"/&gt;</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -5404,17 +5520,17 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C315" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D315" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="F315" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>&lt;response key="V" text="I'm not your chum, comrade." trigger="Point13" trigger2=""&gt;</v>
+        <f t="shared" si="28"/>
+        <v>&lt;response key="V" text="I'm not your chum, comrade." trigger="Go To 13"/&gt;</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -5425,11 +5541,11 @@
         <v>21</v>
       </c>
       <c r="D316" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F316" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="28"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -5443,14 +5559,14 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C318" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F318" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A318,1)&amp;""" text="""&amp;C318&amp;"""&gt;"</f>
-        <v>&lt;point id="2" text="I'm not your lady, partner."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A318,1)&amp;""" text="""&amp;C318&amp;""" trigger="""&amp;D318&amp;IF(E318&lt;&gt;"",", "&amp;E318&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="I'm not your lady, partner." trigger=""&gt;</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -5461,14 +5577,14 @@
         <v>110</v>
       </c>
       <c r="C319" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D319" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="F319" s="4" t="str">
-        <f t="shared" ref="F319:F321" si="24">"&lt;response key="""&amp;B319&amp;""" text="""&amp;C319&amp;""" trigger="""&amp;D319&amp;""" trigger2="""&amp;E319&amp;"""&gt;"</f>
-        <v>&lt;response key="W" text="I'm not your partner, cousin." trigger="Point13" trigger2=""&gt;</v>
+        <f t="shared" ref="F319:F321" si="29">"&lt;response key="""&amp;B319&amp;""" text="""&amp;C319&amp;""" trigger="""&amp;D319&amp;"""/&gt;"</f>
+        <v>&lt;response key="W" text="I'm not your partner, cousin." trigger="Go To 13"/&gt;</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -5476,17 +5592,17 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C320" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D320" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="F320" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;response key="X" text="I'm not your partner, comrade." trigger="Point14" trigger2=""&gt;</v>
+        <f t="shared" si="29"/>
+        <v>&lt;response key="X" text="I'm not your partner, comrade." trigger="Go To 14"/&gt;</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -5497,11 +5613,11 @@
         <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F321" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="29"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -5515,14 +5631,14 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C323" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F323" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A323,1)&amp;""" text="""&amp;C323&amp;"""&gt;"</f>
-        <v>&lt;point id="3" text="I'm not your cousin, bro."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A323,1)&amp;""" text="""&amp;C323&amp;""" trigger="""&amp;D323&amp;IF(E323&lt;&gt;"",", "&amp;E323&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="I'm not your cousin, bro." trigger=""&gt;</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -5530,17 +5646,17 @@
         <v>5</v>
       </c>
       <c r="B324" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C324" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D324" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="F324" s="4" t="str">
-        <f t="shared" ref="F324:F326" si="25">"&lt;response key="""&amp;B324&amp;""" text="""&amp;C324&amp;""" trigger="""&amp;D324&amp;""" trigger2="""&amp;E324&amp;"""&gt;"</f>
-        <v>&lt;response key="Y" text="Didn't we do this already?" trigger="Point6" trigger2=""&gt;</v>
+        <f t="shared" ref="F324:F326" si="30">"&lt;response key="""&amp;B324&amp;""" text="""&amp;C324&amp;""" trigger="""&amp;D324&amp;"""/&gt;"</f>
+        <v>&lt;response key="Y" text="Didn't we do this already?" trigger="Go To 6"/&gt;</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -5548,17 +5664,17 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C325" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D325" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F325" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;response key="Z" text="Bro shizzle." trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" si="30"/>
+        <v>&lt;response key="Z" text="Bro shizzle." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -5569,11 +5685,11 @@
         <v>21</v>
       </c>
       <c r="D326" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F326" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point7" trigger2=""&gt;</v>
+        <f t="shared" si="30"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 7"/&gt;</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -5587,18 +5703,17 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C328" t="s">
-        <v>198</v>
-      </c>
-      <c r="D328" s="1"/>
-      <c r="E328" t="s">
+        <v>193</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F328" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A328,1)&amp;""" text="""&amp;C328&amp;""" trigger="""&amp;D328&amp;IF(E328&lt;&gt;"",""" Trigger2="""&amp;E328&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="Comrade? Really?" trigger="" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A328,1)&amp;""" text="""&amp;C328&amp;""" trigger="""&amp;D328&amp;IF(E328&lt;&gt;"",", "&amp;E328&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Comrade? Really?" trigger="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -5641,7 +5756,7 @@
         <v>31</v>
       </c>
       <c r="B333" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F333" s="4" t="str">
         <f>"&lt;npc name="""&amp;B333&amp;"""&gt;"</f>
@@ -5671,11 +5786,11 @@
         <v>0</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F336" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A336,1)&amp;""" text="""&amp;C336&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="Give me a 'J'!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A336,1)&amp;""" text="""&amp;C336&amp;""" trigger="""&amp;D336&amp;IF(E336&lt;&gt;"",", "&amp;E336&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="Give me a 'J'!" trigger=""&gt;</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -5683,17 +5798,17 @@
         <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D337" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F337" s="4" t="str">
-        <f t="shared" ref="F337:F340" si="26">"&lt;response key="""&amp;B337&amp;""" text="""&amp;C337&amp;""" trigger="""&amp;D337&amp;""" trigger2="""&amp;E337&amp;"""&gt;"</f>
-        <v>&lt;response key="J" text="Y" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" ref="F337:F340" si="31">"&lt;response key="""&amp;B337&amp;""" text="""&amp;C337&amp;""" trigger="""&amp;D337&amp;"""/&gt;"</f>
+        <v>&lt;response key="J" text="Y" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -5701,17 +5816,17 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D338" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F338" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;response key="U" text="J" trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" si="31"/>
+        <v>&lt;response key="U" text="J" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,17 +5834,17 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D339" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F339" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;response key="Z" text="C" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" si="31"/>
+        <v>&lt;response key="Z" text="C" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -5740,11 +5855,11 @@
         <v>21</v>
       </c>
       <c r="D340" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F340" s="4" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" si="31"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -5761,14 +5876,14 @@
         <v>1</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="F342" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A342,1)&amp;""" text="""&amp;C342&amp;"""&gt;"</f>
-        <v>&lt;point id="1" text="Give me a 'T'!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A342,1)&amp;""" text="""&amp;C342&amp;""" trigger="""&amp;D342&amp;IF(E342&lt;&gt;"",", "&amp;E342&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="Give me a 'T'!" trigger="Give 5 O2"&gt;</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -5776,17 +5891,17 @@
         <v>5</v>
       </c>
       <c r="B343" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D343" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F343" s="4" t="str">
-        <f t="shared" ref="F343:F346" si="27">"&lt;response key="""&amp;B343&amp;""" text="""&amp;C343&amp;""" trigger="""&amp;D343&amp;""" trigger2="""&amp;E343&amp;"""&gt;"</f>
-        <v>&lt;response key="T" text="H" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" ref="F343:F346" si="32">"&lt;response key="""&amp;B343&amp;""" text="""&amp;C343&amp;""" trigger="""&amp;D343&amp;"""/&gt;"</f>
+        <v>&lt;response key="T" text="H" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -5797,14 +5912,14 @@
         <v>12</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D344" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F344" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;response key="B" text="T" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;response key="B" text="T" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,17 +5927,17 @@
         <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D345" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F345" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;response key="H" text="B" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;response key="H" text="B" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -5833,11 +5948,11 @@
         <v>21</v>
       </c>
       <c r="D346" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F346" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -5854,14 +5969,14 @@
         <v>2</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="F348" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A348,1)&amp;""" text="""&amp;C348&amp;"""&gt;"</f>
-        <v>&lt;point id="2" text="Give me a 'Spaceman'!"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A348,1)&amp;""" text="""&amp;C348&amp;""" trigger="""&amp;D348&amp;IF(E348&lt;&gt;"",", "&amp;E348&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="Give me a 'Spaceman'!" trigger="Give 5 O2"&gt;</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -5872,14 +5987,14 @@
         <v>11</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D349" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F349" s="4" t="str">
-        <f t="shared" ref="F349:F351" si="28">"&lt;response key="""&amp;B349&amp;""" text="""&amp;C349&amp;""" trigger="""&amp;D349&amp;""" trigger2="""&amp;E349&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Spaceman" trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" ref="F349:F351" si="33">"&lt;response key="""&amp;B349&amp;""" text="""&amp;C349&amp;""" trigger="""&amp;D349&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Spaceman" trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -5890,14 +6005,14 @@
         <v>12</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D350" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F350" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>&lt;response key="B" text="It's pronounced 'Spacemin'" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;response key="B" text="It's pronounced 'Spacemin'" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -5908,11 +6023,11 @@
         <v>21</v>
       </c>
       <c r="D351" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F351" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Point4" trigger2=""&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -5929,17 +6044,17 @@
         <v>3</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="E353" t="s">
         <v>25</v>
       </c>
       <c r="F353" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A353,1)&amp;""" text="""&amp;C353&amp;""" trigger="""&amp;D353&amp;IF(E353&lt;&gt;"",""" Trigger2="""&amp;E353&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Yay! Jaunty Spaceman!" trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A353,1)&amp;""" text="""&amp;C353&amp;""" trigger="""&amp;D353&amp;IF(E353&lt;&gt;"",", "&amp;E353&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Yay! Jaunty Spaceman!" trigger="Give 5 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -5956,17 +6071,17 @@
         <v>4</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E355" t="s">
         <v>25</v>
       </c>
       <c r="F355" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A355,1)&amp;""" text="""&amp;C355&amp;""" trigger="""&amp;D355&amp;IF(E355&lt;&gt;"",""" Trigger2="""&amp;E355&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="Aww, so sad!" trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A355,1)&amp;""" text="""&amp;C355&amp;""" trigger="""&amp;D355&amp;IF(E355&lt;&gt;"",", "&amp;E355&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="Aww, so sad!" trigger="Take 5 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -6009,7 +6124,7 @@
         <v>31</v>
       </c>
       <c r="B360" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F360" s="4" t="str">
         <f>"&lt;npc name="""&amp;B360&amp;"""&gt;"</f>
@@ -6039,11 +6154,11 @@
         <v>0</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F363" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A363,1)&amp;""" text="""&amp;C363&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="Stop! Who would jaunt the space of death must answer me these questions three, ere the other side he see."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A363,1)&amp;""" text="""&amp;C363&amp;""" trigger="""&amp;D363&amp;IF(E363&lt;&gt;"",", "&amp;E363&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="Stop! Who would jaunt the space of death must answer me these questions three, ere the other side he see." trigger=""&gt;</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -6054,14 +6169,14 @@
         <v>11</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D364" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F364" s="4" t="str">
-        <f t="shared" ref="F364:F371" si="29">"&lt;response key="""&amp;B364&amp;""" text="""&amp;C364&amp;""" trigger="""&amp;D364&amp;""" trigger2="""&amp;E364&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="Ask me the questions, space-keeper. I'm not afraid." trigger="Point1" trigger2=""&gt;</v>
+        <f>"&lt;response key="""&amp;B364&amp;""" text="""&amp;C364&amp;""" trigger="""&amp;D364&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="Ask me the questions, space-keeper. I'm not afraid." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -6072,14 +6187,14 @@
         <v>21</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E365" t="s">
         <v>25</v>
       </c>
       <c r="F365" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B365&amp;""" text="""&amp;C365&amp;""" trigger="""&amp;D365&amp;""" trigger2="""&amp;E365&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -6091,17 +6206,17 @@
         <v>&lt;/point&gt;</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D367" s="1"/>
       <c r="F367" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A367,1)&amp;""" text="""&amp;C367&amp;"""&gt;"</f>
-        <v>&lt;point id="1" text="What is your name?"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A367,1)&amp;""" text="""&amp;C367&amp;""" trigger="""&amp;D367&amp;IF(E367&lt;&gt;"",", "&amp;E367&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="What is your name?" trigger=""&gt;</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -6109,20 +6224,20 @@
         <v>5</v>
       </c>
       <c r="B368" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E368" t="s">
         <v>25</v>
       </c>
       <c r="F368" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B368&amp;""" text="""&amp;C368&amp;""" trigger="""&amp;D368&amp;""" trigger2="""&amp;E368&amp;"""/&gt;"</f>
+        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -6130,17 +6245,17 @@
         <v>6</v>
       </c>
       <c r="B369" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D369" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F369" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>&lt;response key="T" text="John T. Spacemin" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" ref="F369:F370" si="34">"&lt;response key="""&amp;B369&amp;""" text="""&amp;C369&amp;""" trigger="""&amp;D369&amp;"""/&gt;"</f>
+        <v>&lt;response key="T" text="John T. Spacemin" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -6151,14 +6266,14 @@
         <v>89</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D370" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F370" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>&lt;response key="S" text="Jogn T. Spaceman" trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;response key="S" text="Jogn T. Spaceman" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -6169,14 +6284,14 @@
         <v>21</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E371" t="s">
         <v>25</v>
       </c>
       <c r="F371" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B371&amp;""" text="""&amp;C371&amp;""" trigger="""&amp;D371&amp;""" trigger2="""&amp;E371&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -6193,12 +6308,12 @@
         <v>2</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D373" s="1"/>
       <c r="F373" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A373,1)&amp;""" text="""&amp;C373&amp;"""&gt;"</f>
-        <v>&lt;point id="2" text="What is your quest?"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A373,1)&amp;""" text="""&amp;C373&amp;""" trigger="""&amp;D373&amp;IF(E373&lt;&gt;"",", "&amp;E373&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="What is your quest?" trigger=""&gt;</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -6209,17 +6324,17 @@
         <v>129</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
       </c>
       <c r="F374" s="4" t="str">
-        <f t="shared" ref="F374:F377" si="30">"&lt;response key="""&amp;B374&amp;""" text="""&amp;C374&amp;""" trigger="""&amp;D374&amp;""" trigger2="""&amp;E374&amp;"""&gt;"</f>
-        <v>&lt;response key="O" text="To jaunt through space." trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f t="shared" ref="F374:F375" si="35">"&lt;response key="""&amp;B374&amp;""" text="""&amp;C374&amp;""" trigger="""&amp;D374&amp;""" trigger2="""&amp;E374&amp;"""/&gt;"</f>
+        <v>&lt;response key="O" text="To jaunt through space." trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,20 +6342,20 @@
         <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
       </c>
       <c r="F375" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f t="shared" si="35"/>
+        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -6248,17 +6363,17 @@
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D376" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F376" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;response key="Y" text="To breathe another breath." trigger="Point3" trigger2=""&gt;</v>
+        <f>"&lt;response key="""&amp;B376&amp;""" text="""&amp;C376&amp;""" trigger="""&amp;D376&amp;"""/&gt;"</f>
+        <v>&lt;response key="Y" text="To breathe another breath." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -6269,14 +6384,14 @@
         <v>21</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E377" t="s">
         <v>25</v>
       </c>
       <c r="F377" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B377&amp;""" text="""&amp;C377&amp;""" trigger="""&amp;D377&amp;""" trigger2="""&amp;E377&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -6293,12 +6408,12 @@
         <v>3</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D379" s="1"/>
       <c r="F379" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A379,1)&amp;""" text="""&amp;C379&amp;"""&gt;"</f>
-        <v>&lt;point id="3" text="What is the air-speed velocity of an unladen swallow?"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A379,1)&amp;""" text="""&amp;C379&amp;""" trigger="""&amp;D379&amp;IF(E379&lt;&gt;"",", "&amp;E379&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="What is the air-speed velocity of an unladen swallow?" trigger=""&gt;</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -6309,17 +6424,17 @@
         <v>1</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
       </c>
       <c r="F380" s="4" t="str">
-        <f t="shared" ref="F380:F383" si="31">"&lt;response key="""&amp;B380&amp;""" text="""&amp;C380&amp;""" trigger="""&amp;D380&amp;""" trigger2="""&amp;E380&amp;"""&gt;"</f>
-        <v>&lt;response key="1" text="One." trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B380&amp;""" text="""&amp;C380&amp;""" trigger="""&amp;D380&amp;""" trigger2="""&amp;E380&amp;"""/&gt;"</f>
+        <v>&lt;response key="1" text="One." trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -6327,17 +6442,17 @@
         <v>6</v>
       </c>
       <c r="B381" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D381" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F381" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;response key="?" text="What do you mean? An African or European swallow?" trigger="Point4" trigger2=""&gt;</v>
+        <f>"&lt;response key="""&amp;B381&amp;""" text="""&amp;C381&amp;""" trigger="""&amp;D381&amp;"""/&gt;"</f>
+        <v>&lt;response key="?" text="What do you mean? An African or European swallow?" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -6348,17 +6463,17 @@
         <v>89</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
       </c>
       <c r="F382" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f t="shared" ref="F382:F383" si="36">"&lt;response key="""&amp;B382&amp;""" text="""&amp;C382&amp;""" trigger="""&amp;D382&amp;""" trigger2="""&amp;E382&amp;"""/&gt;"</f>
+        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -6369,14 +6484,14 @@
         <v>21</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E383" t="s">
         <v>25</v>
       </c>
       <c r="F383" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f t="shared" si="36"/>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -6393,17 +6508,17 @@
         <v>4</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
       </c>
       <c r="F385" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A385,1)&amp;""" text="""&amp;C385&amp;""" trigger="""&amp;D385&amp;IF(E385&lt;&gt;"",""" Trigger2="""&amp;E385&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="What? I don't know that! Auuuuuuuugh!" trigger="+0.2 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A385,1)&amp;""" text="""&amp;C385&amp;""" trigger="""&amp;D385&amp;IF(E385&lt;&gt;"",", "&amp;E385&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="4" text="What? I don't know that! Auuuuuuuugh!" trigger="Give  10 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,7 +6561,7 @@
         <v>31</v>
       </c>
       <c r="B390" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F390" s="4" t="str">
         <f>"&lt;npc name="""&amp;B390&amp;"""&gt;"</f>
@@ -6476,11 +6591,11 @@
         <v>0</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F393" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A393,1)&amp;""" text="""&amp;C393&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="Hello, good sir."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A393,1)&amp;""" text="""&amp;C393&amp;""" trigger="""&amp;D393&amp;IF(E393&lt;&gt;"",", "&amp;E393&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="0" text="Hello, good sir." trigger=""&gt;</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -6491,14 +6606,14 @@
         <v>11</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D394" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="F394" s="4" t="str">
-        <f t="shared" ref="F394:F397" si="32">"&lt;response key="""&amp;B394&amp;""" text="""&amp;C394&amp;""" trigger="""&amp;D394&amp;""" trigger2="""&amp;E394&amp;"""&gt;"</f>
-        <v>&lt;response key="A" text="I'm here to rescue you!" trigger="Point3" trigger2=""&gt;</v>
+        <f t="shared" ref="F394:F396" si="37">"&lt;response key="""&amp;B394&amp;""" text="""&amp;C394&amp;""" trigger="""&amp;D394&amp;"""/&gt;"</f>
+        <v>&lt;response key="A" text="I'm here to rescue you!" trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -6509,14 +6624,14 @@
         <v>12</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D395" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="F395" s="4" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;response key="B" text="How about that local sports team?" trigger="Point1" trigger2=""&gt;</v>
+        <f t="shared" si="37"/>
+        <v>&lt;response key="B" text="How about that local sports team?" trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -6527,14 +6642,14 @@
         <v>13</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D396" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="F396" s="4" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;response key="C" text="Good day, fair lady." trigger="Point2" trigger2=""&gt;</v>
+        <f t="shared" si="37"/>
+        <v>&lt;response key="C" text="Good day, fair lady." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -6545,14 +6660,14 @@
         <v>21</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
       </c>
       <c r="F397" s="4" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;response key="(timeout)" text="" trigger="-0.1 Oxygen" trigger2="EndDialog"&gt;</v>
+        <f>"&lt;response key="""&amp;B397&amp;""" text="""&amp;C397&amp;""" trigger="""&amp;D397&amp;""" trigger2="""&amp;E397&amp;"""/&gt;"</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -6569,15 +6684,14 @@
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>252</v>
-      </c>
-      <c r="D399" s="1"/>
-      <c r="E399" t="s">
+        <v>246</v>
+      </c>
+      <c r="D399" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F399" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A399,1)&amp;""" text="""&amp;C399&amp;""" trigger="""&amp;D399&amp;IF(E399&lt;&gt;"",""" Trigger2="""&amp;E399&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="They are... quite sporting. Uh, goodbye, strange awkward man." trigger="" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A399,1)&amp;""" text="""&amp;C399&amp;""" trigger="""&amp;D399&amp;IF(E399&lt;&gt;"",", "&amp;E399&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="1" text="They are... quite sporting. Uh, goodbye, strange awkward man." trigger="EndDialog"&gt;</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -6594,17 +6708,17 @@
         <v>2</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
       </c>
       <c r="F401" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A401,1)&amp;""" text="""&amp;C401&amp;""" trigger="""&amp;D401&amp;IF(E401&lt;&gt;"",""" Trigger2="""&amp;E401&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="Mayhap this will aid you on your journey." trigger="+0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A401,1)&amp;""" text="""&amp;C401&amp;""" trigger="""&amp;D401&amp;IF(E401&lt;&gt;"",", "&amp;E401&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="2" text="Mayhap this will aid you on your journey." trigger="Give 5 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -6616,22 +6730,22 @@
         <v>&lt;/point&gt;</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>3</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>
       </c>
       <c r="F403" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A403,1)&amp;""" text="""&amp;C403&amp;""" trigger="""&amp;D403&amp;IF(E403&lt;&gt;"",""" Trigger2="""&amp;E403&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Ugh. I don't need to be rescued, especially not by a hallucinating spaceman." trigger="-0.1 Oxygen" Trigger2="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A403,1)&amp;""" text="""&amp;C403&amp;""" trigger="""&amp;D403&amp;IF(E403&lt;&gt;"",", "&amp;E403&amp;"""&gt;","""&gt;")</f>
+        <v>&lt;point id="3" text="Ugh. I don't need to be rescued, especially not by a hallucinating spaceman." trigger="Take 5 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,6 +6785,7 @@
     </row>
     <row r="408" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:F408"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -1321,7 +1321,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,8 +1370,8 @@
         <v>27</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B2&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Angel.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B2&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Angel.png"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,8 +1597,8 @@
         <v>27</v>
       </c>
       <c r="F21" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B20&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Punk.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B20&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Punk.png"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,8 +1914,8 @@
         <v>27</v>
       </c>
       <c r="F45" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B44&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Gwen.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B44&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Gwen.png"/&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2396,8 +2396,8 @@
         <v>27</v>
       </c>
       <c r="F81" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B80&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Flirt.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B80&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Flirt.png"/&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,8 +2880,8 @@
         <v>27</v>
       </c>
       <c r="F116" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B115&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Shirt.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B115&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Shirt.png"/&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,8 +3104,8 @@
         <v>27</v>
       </c>
       <c r="F134" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B133&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Ziggy.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B133&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Ziggy.png"/&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3328,8 +3328,8 @@
         <v>27</v>
       </c>
       <c r="F152" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B151&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Fenix.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B151&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Fenix.png"/&gt;</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3619,8 +3619,8 @@
         <v>27</v>
       </c>
       <c r="F174" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B173&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Helper.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B173&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Helper.png"/&gt;</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,8 +3840,8 @@
         <v>27</v>
       </c>
       <c r="F192" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B191&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Ghost.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B191&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Ghost.png"/&gt;</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,8 +4022,8 @@
         <v>27</v>
       </c>
       <c r="F207" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B206&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Dress.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B206&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Dress.png"/&gt;</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4222,8 +4222,8 @@
         <v>27</v>
       </c>
       <c r="F223" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B222&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Prince.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B222&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Prince.png"/&gt;</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -4719,8 +4719,8 @@
         <v>27</v>
       </c>
       <c r="F259" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B258&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="ChadBro.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B258&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="ChadBro.png"/&gt;</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5768,8 +5768,8 @@
         <v>27</v>
       </c>
       <c r="F334" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B333&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Cheerleader.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B333&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Cheerleader.png"/&gt;</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -6136,8 +6136,8 @@
         <v>27</v>
       </c>
       <c r="F361" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B360&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="The old man from Scene 24.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B360&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="The old man from Scene 24.png"/&gt;</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -6573,8 +6573,8 @@
         <v>27</v>
       </c>
       <c r="F391" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B390&amp;".png""&gt;"</f>
-        <v>&lt;spriteset file="Princess.png"&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B390&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Princess.png"/&gt;</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="272">
   <si>
     <t>Point0</t>
   </si>
@@ -829,6 +829,12 @@
   </si>
   <si>
     <t>Take 5 O2</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1327,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,9 +1375,12 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
       <c r="F3" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B2&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Angel.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B3&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Female.png"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,9 +1605,12 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
       <c r="F21" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B20&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Punk.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B21&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,9 +1925,12 @@
       <c r="A45" t="s">
         <v>27</v>
       </c>
+      <c r="B45" t="s">
+        <v>270</v>
+      </c>
       <c r="F45" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B44&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Gwen.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B45&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Female.png"/&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,9 +2410,12 @@
       <c r="A81" t="s">
         <v>27</v>
       </c>
+      <c r="B81" t="s">
+        <v>270</v>
+      </c>
       <c r="F81" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B80&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Flirt.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B81&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Female.png"/&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2879,9 +2897,12 @@
       <c r="A116" t="s">
         <v>27</v>
       </c>
+      <c r="B116" t="s">
+        <v>271</v>
+      </c>
       <c r="F116" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B115&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Shirt.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B116&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3103,9 +3124,12 @@
       <c r="A134" t="s">
         <v>27</v>
       </c>
+      <c r="B134" t="s">
+        <v>271</v>
+      </c>
       <c r="F134" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B133&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Ziggy.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B134&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3327,9 +3351,12 @@
       <c r="A152" t="s">
         <v>27</v>
       </c>
+      <c r="B152" t="s">
+        <v>271</v>
+      </c>
       <c r="F152" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B151&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Fenix.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B152&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3618,9 +3645,12 @@
       <c r="A174" t="s">
         <v>27</v>
       </c>
+      <c r="B174" t="s">
+        <v>271</v>
+      </c>
       <c r="F174" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B173&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Helper.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B174&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -3839,9 +3869,12 @@
       <c r="A192" t="s">
         <v>27</v>
       </c>
+      <c r="B192" t="s">
+        <v>271</v>
+      </c>
       <c r="F192" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B191&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Ghost.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B192&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4021,9 +4054,12 @@
       <c r="A207" t="s">
         <v>27</v>
       </c>
+      <c r="B207" t="s">
+        <v>270</v>
+      </c>
       <c r="F207" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B206&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Dress.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B207&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Female.png"/&gt;</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4221,9 +4257,12 @@
       <c r="A223" t="s">
         <v>27</v>
       </c>
+      <c r="B223" t="s">
+        <v>271</v>
+      </c>
       <c r="F223" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B222&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Prince.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B223&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -4718,9 +4757,12 @@
       <c r="A259" t="s">
         <v>27</v>
       </c>
+      <c r="B259" t="s">
+        <v>271</v>
+      </c>
       <c r="F259" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B258&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="ChadBro.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B259&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5767,9 +5809,12 @@
       <c r="A334" t="s">
         <v>27</v>
       </c>
+      <c r="B334" t="s">
+        <v>270</v>
+      </c>
       <c r="F334" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B333&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Cheerleader.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B334&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Female.png"/&gt;</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -6135,9 +6180,12 @@
       <c r="A361" t="s">
         <v>27</v>
       </c>
+      <c r="B361" t="s">
+        <v>271</v>
+      </c>
       <c r="F361" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B360&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="The old man from Scene 24.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B361&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Male.png"/&gt;</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -6572,9 +6620,12 @@
       <c r="A391" t="s">
         <v>27</v>
       </c>
+      <c r="B391" t="s">
+        <v>270</v>
+      </c>
       <c r="F391" s="4" t="str">
-        <f>"&lt;spriteset file="""&amp;B390&amp;".png""/&gt;"</f>
-        <v>&lt;spriteset file="Princess.png"/&gt;</v>
+        <f>"&lt;spriteset file="""&amp;B391&amp;".png""/&gt;"</f>
+        <v>&lt;spriteset file="Female.png"/&gt;</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="268">
   <si>
     <t>Point0</t>
   </si>
@@ -345,9 +345,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>ESC</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -357,12 +354,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>(Guess what?)</t>
   </si>
   <si>
@@ -724,9 +715,6 @@
   </si>
   <si>
     <t>One.</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>What do you mean? An African or European swallow?</t>
@@ -1376,7 +1364,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B3&amp;".png""/&gt;"</f>
@@ -1415,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>"&lt;response key="""&amp;B6&amp;""" text="""&amp;C6&amp;""" trigger="""&amp;D6&amp;"""/&gt;"</f>
@@ -1433,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" ref="F7:F9" si="0">"&lt;response key="""&amp;B7&amp;""" text="""&amp;C7&amp;""" trigger="""&amp;D7&amp;"""/&gt;"</f>
@@ -1451,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1466,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1490,7 +1478,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1517,7 +1505,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1544,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1606,7 +1594,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B21&amp;".png""/&gt;"</f>
@@ -1645,11 +1633,14 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="E24" t="s">
+        <v>257</v>
       </c>
       <c r="F24" s="4" t="str">
-        <f t="shared" ref="F24:F27" si="1">"&lt;response key="""&amp;B24&amp;""" text="""&amp;C24&amp;""" trigger="""&amp;D24&amp;"""/&gt;"</f>
-        <v>&lt;response key="A" text="It's pronounced 'spacemin'" trigger="Go To 1"/&gt;</v>
+        <f>"&lt;response key="""&amp;B24&amp;""" text="""&amp;C24&amp;""" trigger="""&amp;D24&amp;IF(E24&lt;&gt;"",", "&amp;E24&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="A" text="It's pronounced 'spacemin'" trigger="Go To 1, Give 0.1 O2"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,10 +1654,10 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F24:F27" si="1">"&lt;response key="""&amp;B25&amp;""" text="""&amp;C25&amp;""" trigger="""&amp;D25&amp;"""/&gt;"</f>
         <v>&lt;response key="B" text="Nope, no problem here." trigger="Go To 2"/&gt;</v>
       </c>
     </row>
@@ -1681,7 +1672,7 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1696,7 +1687,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1719,12 +1710,10 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="F29" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A29,1)&amp;""" text="""&amp;C29&amp;""" trigger="""&amp;D29&amp;IF(E29&lt;&gt;"",", "&amp;E29&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="So you think you're clever?" trigger="Give 0.1 O2"&gt;</v>
+        <v>&lt;point id="1" text="So you think you're clever?" trigger=""&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,7 +1727,7 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" ref="F30:F33" si="2">"&lt;response key="""&amp;B30&amp;""" text="""&amp;C30&amp;""" trigger="""&amp;D30&amp;"""/&gt;"</f>
@@ -1756,7 +1745,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1774,7 +1763,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1789,7 +1778,7 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F33" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1813,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -1864,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -1926,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B45&amp;".png""/&gt;"</f>
@@ -1962,10 +1951,10 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F48" s="4" t="str">
         <f>"&lt;response key="""&amp;B48&amp;""" text="""&amp;C48&amp;""" trigger="""&amp;D48&amp;"""/&gt;"</f>
@@ -1980,14 +1969,14 @@
         <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="4" t="str">
-        <f>"&lt;response key="""&amp;B49&amp;""" text="""&amp;C49&amp;""" trigger="""&amp;D49&amp;""" trigger2="""&amp;E49&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B49&amp;""" text="""&amp;C49&amp;""" trigger="""&amp;D49&amp;IF(E49&lt;&gt;"",", "&amp;E49&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,10 +2008,10 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F52" s="4" t="str">
         <f>"&lt;response key="""&amp;B52&amp;""" text="""&amp;C52&amp;""" trigger="""&amp;D52&amp;"""/&gt;"</f>
@@ -2037,14 +2026,14 @@
         <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="4" t="str">
-        <f>"&lt;response key="""&amp;B53&amp;""" text="""&amp;C53&amp;""" trigger="""&amp;D53&amp;""" trigger2="""&amp;E53&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B53&amp;""" text="""&amp;C53&amp;""" trigger="""&amp;D53&amp;IF(E53&lt;&gt;"",", "&amp;E53&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,10 +2065,10 @@
         <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F56" s="4" t="str">
         <f>"&lt;response key="""&amp;B56&amp;""" text="""&amp;C56&amp;""" trigger="""&amp;D56&amp;"""/&gt;"</f>
@@ -2094,14 +2083,14 @@
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="4" t="str">
-        <f>"&lt;response key="""&amp;B57&amp;""" text="""&amp;C57&amp;""" trigger="""&amp;D57&amp;""" trigger2="""&amp;E57&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B57&amp;""" text="""&amp;C57&amp;""" trigger="""&amp;D57&amp;IF(E57&lt;&gt;"",", "&amp;E57&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2133,10 +2122,10 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F60" s="4" t="str">
         <f>"&lt;response key="""&amp;B60&amp;""" text="""&amp;C60&amp;""" trigger="""&amp;D60&amp;"""/&gt;"</f>
@@ -2151,14 +2140,14 @@
         <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="4" t="str">
-        <f>"&lt;response key="""&amp;B61&amp;""" text="""&amp;C61&amp;""" trigger="""&amp;D61&amp;""" trigger2="""&amp;E61&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B61&amp;""" text="""&amp;C61&amp;""" trigger="""&amp;D61&amp;IF(E61&lt;&gt;"",", "&amp;E61&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,10 +2179,10 @@
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F64" s="4" t="str">
         <f>"&lt;response key="""&amp;B64&amp;""" text="""&amp;C64&amp;""" trigger="""&amp;D64&amp;"""/&gt;"</f>
@@ -2208,14 +2197,14 @@
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E65" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="4" t="str">
-        <f>"&lt;response key="""&amp;B65&amp;""" text="""&amp;C65&amp;""" trigger="""&amp;D65&amp;""" trigger2="""&amp;E65&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B65&amp;""" text="""&amp;C65&amp;""" trigger="""&amp;D65&amp;IF(E65&lt;&gt;"",", "&amp;E65&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F68" s="4" t="str">
         <f>"&lt;response key="""&amp;B68&amp;""" text="""&amp;C68&amp;""" trigger="""&amp;D68&amp;"""/&gt;"</f>
@@ -2265,14 +2254,14 @@
         <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
       </c>
       <c r="F69" s="4" t="str">
-        <f>"&lt;response key="""&amp;B69&amp;""" text="""&amp;C69&amp;""" trigger="""&amp;D69&amp;""" trigger2="""&amp;E69&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B69&amp;""" text="""&amp;C69&amp;""" trigger="""&amp;D69&amp;IF(E69&lt;&gt;"",", "&amp;E69&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,10 +2293,10 @@
         <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>"&lt;response key="""&amp;B72&amp;""" text="""&amp;C72&amp;""" trigger="""&amp;D72&amp;"""/&gt;"</f>
@@ -2322,14 +2311,14 @@
         <v>21</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
       </c>
       <c r="F73" s="4" t="str">
-        <f>"&lt;response key="""&amp;B73&amp;""" text="""&amp;C73&amp;""" trigger="""&amp;D73&amp;""" trigger2="""&amp;E73&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B73&amp;""" text="""&amp;C73&amp;""" trigger="""&amp;D73&amp;IF(E73&lt;&gt;"",", "&amp;E73&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2349,7 +2338,7 @@
         <v>46</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
@@ -2411,7 +2400,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F81" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B81&amp;".png""/&gt;"</f>
@@ -2450,7 +2439,7 @@
         <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F84" s="4" t="str">
         <f t="shared" ref="F84:F87" si="3">"&lt;response key="""&amp;B84&amp;""" text="""&amp;C84&amp;""" trigger="""&amp;D84&amp;"""/&gt;"</f>
@@ -2468,7 +2457,7 @@
         <v>54</v>
       </c>
       <c r="D85" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2486,7 +2475,7 @@
         <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2501,7 +2490,7 @@
         <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2541,7 +2530,7 @@
         <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F90" s="4" t="str">
         <f t="shared" ref="F90:F93" si="4">"&lt;response key="""&amp;B90&amp;""" text="""&amp;C90&amp;""" trigger="""&amp;D90&amp;"""/&gt;"</f>
@@ -2559,7 +2548,7 @@
         <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F91" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2577,7 +2566,7 @@
         <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F92" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2592,7 +2581,7 @@
         <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F93" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2632,7 +2621,7 @@
         <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F96" s="4" t="str">
         <f t="shared" ref="F96:F98" si="5">"&lt;response key="""&amp;B96&amp;""" text="""&amp;C96&amp;""" trigger="""&amp;D96&amp;"""/&gt;"</f>
@@ -2650,7 +2639,7 @@
         <v>61</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F97" s="4" t="str">
         <f t="shared" si="5"/>
@@ -2665,7 +2654,7 @@
         <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F98" s="4" t="str">
         <f t="shared" si="5"/>
@@ -2686,14 +2675,12 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D100" s="1"/>
       <c r="F100" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A100,1)&amp;""" text="""&amp;C100&amp;""" trigger="""&amp;D100&amp;IF(E100&lt;&gt;"",", "&amp;E100&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Don't you want me?" trigger="EndDialog"&gt;</v>
+        <v>&lt;point id="3" text="Don't you want me?" trigger=""&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2707,7 +2694,7 @@
         <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F101" s="4" t="str">
         <f t="shared" ref="F101:F104" si="6">"&lt;response key="""&amp;B101&amp;""" text="""&amp;C101&amp;""" trigger="""&amp;D101&amp;"""/&gt;"</f>
@@ -2725,7 +2712,7 @@
         <v>63</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F102" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2743,7 +2730,7 @@
         <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F103" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2758,7 +2745,7 @@
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F104" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2782,7 +2769,7 @@
         <v>65</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
@@ -2809,7 +2796,7 @@
         <v>67</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
@@ -2836,7 +2823,7 @@
         <v>66</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
         <v>25</v>
@@ -2886,7 +2873,7 @@
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F115" s="4" t="str">
         <f>"&lt;npc name="""&amp;B115&amp;"""&gt;"</f>
@@ -2898,7 +2885,7 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F116" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B116&amp;".png""/&gt;"</f>
@@ -2937,7 +2924,7 @@
         <v>69</v>
       </c>
       <c r="D119" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F119" s="4" t="str">
         <f t="shared" ref="F119:F122" si="7">"&lt;response key="""&amp;B119&amp;""" text="""&amp;C119&amp;""" trigger="""&amp;D119&amp;"""/&gt;"</f>
@@ -2955,7 +2942,7 @@
         <v>70</v>
       </c>
       <c r="D120" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F120" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2967,17 +2954,17 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
         <v>71</v>
       </c>
       <c r="D121" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F121" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;response key="ESC" text="I'm colorblind." trigger="Go To 3"/&gt;</v>
+        <v>&lt;response key="C" text="I'm colorblind." trigger="Go To 3"/&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,7 +2975,7 @@
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F122" s="4" t="str">
         <f t="shared" si="7"/>
@@ -3012,7 +2999,7 @@
         <v>72</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E124" t="s">
         <v>25</v>
@@ -3039,7 +3026,7 @@
         <v>73</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E126" t="s">
         <v>25</v>
@@ -3125,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F134" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B134&amp;".png""/&gt;"</f>
@@ -3158,13 +3145,13 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C137" t="s">
         <v>77</v>
       </c>
       <c r="D137" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F137" s="4" t="str">
         <f t="shared" ref="F137:F140" si="8">"&lt;response key="""&amp;B137&amp;""" text="""&amp;C137&amp;""" trigger="""&amp;D137&amp;"""/&gt;"</f>
@@ -3176,13 +3163,13 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C138" t="s">
         <v>78</v>
       </c>
       <c r="D138" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F138" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3194,13 +3181,13 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C139" t="s">
         <v>79</v>
       </c>
       <c r="D139" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F139" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3215,7 +3202,7 @@
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F140" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3239,7 +3226,7 @@
         <v>80</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E142" t="s">
         <v>25</v>
@@ -3266,7 +3253,7 @@
         <v>81</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E144" t="s">
         <v>25</v>
@@ -3352,7 +3339,7 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F152" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B152&amp;".png""/&gt;"</f>
@@ -3391,7 +3378,7 @@
         <v>85</v>
       </c>
       <c r="D155" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F155" s="4" t="str">
         <f t="shared" ref="F155:F158" si="9">"&lt;response key="""&amp;B155&amp;""" text="""&amp;C155&amp;""" trigger="""&amp;D155&amp;"""/&gt;"</f>
@@ -3409,7 +3396,7 @@
         <v>87</v>
       </c>
       <c r="D156" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F156" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3427,7 +3414,7 @@
         <v>86</v>
       </c>
       <c r="D157" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F157" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3442,7 +3429,7 @@
         <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F158" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3482,7 +3469,7 @@
         <v>90</v>
       </c>
       <c r="D161" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F161" s="4" t="str">
         <f t="shared" ref="F161:F164" si="10">"&lt;response key="""&amp;B161&amp;""" text="""&amp;C161&amp;""" trigger="""&amp;D161&amp;"""/&gt;"</f>
@@ -3500,7 +3487,7 @@
         <v>93</v>
       </c>
       <c r="D162" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F162" s="4" t="str">
         <f t="shared" si="10"/>
@@ -3518,7 +3505,7 @@
         <v>91</v>
       </c>
       <c r="D163" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F163" s="4" t="str">
         <f t="shared" si="10"/>
@@ -3533,7 +3520,7 @@
         <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F164" s="4" t="str">
         <f t="shared" si="10"/>
@@ -3557,7 +3544,7 @@
         <v>95</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E166" t="s">
         <v>25</v>
@@ -3584,7 +3571,7 @@
         <v>94</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E168" t="s">
         <v>25</v>
@@ -3646,7 +3633,7 @@
         <v>27</v>
       </c>
       <c r="B174" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F174" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B174&amp;".png""/&gt;"</f>
@@ -3685,7 +3672,7 @@
         <v>98</v>
       </c>
       <c r="D177" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F177" s="4" t="str">
         <f t="shared" ref="F177:F180" si="11">"&lt;response key="""&amp;B177&amp;""" text="""&amp;C177&amp;""" trigger="""&amp;D177&amp;"""/&gt;"</f>
@@ -3703,7 +3690,7 @@
         <v>99</v>
       </c>
       <c r="D178" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F178" s="4" t="str">
         <f t="shared" si="11"/>
@@ -3721,7 +3708,7 @@
         <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F179" s="4" t="str">
         <f t="shared" si="11"/>
@@ -3736,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F180" s="4" t="str">
         <f t="shared" si="11"/>
@@ -3784,7 +3771,7 @@
         <v>102</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E184" t="s">
         <v>25</v>
@@ -3858,7 +3845,7 @@
         <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F191" s="4" t="str">
         <f>"&lt;npc name="""&amp;B191&amp;"""&gt;"</f>
@@ -3870,7 +3857,7 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F192" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B192&amp;".png""/&gt;"</f>
@@ -3891,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F194" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A194,1)&amp;""" text="""&amp;C194&amp;""" trigger="""&amp;D194&amp;IF(E194&lt;&gt;"",", "&amp;E194&amp;"""&gt;","""&gt;")</f>
@@ -3903,17 +3890,17 @@
         <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C195" t="s">
         <v>104</v>
       </c>
       <c r="D195" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F195" s="4" t="str">
         <f t="shared" ref="F195:F197" si="12">"&lt;response key="""&amp;B195&amp;""" text="""&amp;C195&amp;""" trigger="""&amp;D195&amp;"""/&gt;"</f>
-        <v>&lt;response key="~" text="What is it?" trigger="Go To 2"/&gt;</v>
+        <v>&lt;response key="B" text="What is it?" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -3921,17 +3908,17 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="C196" t="s">
         <v>105</v>
       </c>
       <c r="D196" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F196" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;response key="*" text="Not right now." trigger="Go To 1"/&gt;</v>
+        <v>&lt;response key="Z" text="Not right now." trigger="Go To 1"/&gt;</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -3942,7 +3929,7 @@
         <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F197" s="4" t="str">
         <f t="shared" si="12"/>
@@ -3963,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E199" t="s">
         <v>25</v>
@@ -3990,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E201" t="s">
         <v>25</v>
@@ -4043,7 +4030,7 @@
         <v>31</v>
       </c>
       <c r="B206" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F206" s="4" t="str">
         <f>"&lt;npc name="""&amp;B206&amp;"""&gt;"</f>
@@ -4055,7 +4042,7 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F207" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B207&amp;".png""/&gt;"</f>
@@ -4076,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F209" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A209,1)&amp;""" text="""&amp;C209&amp;""" trigger="""&amp;D209&amp;IF(E209&lt;&gt;"",", "&amp;E209&amp;"""&gt;","""&gt;")</f>
@@ -4088,13 +4075,13 @@
         <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C210" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D210" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F210" s="4" t="str">
         <f t="shared" ref="F210:F213" si="13">"&lt;response key="""&amp;B210&amp;""" text="""&amp;C210&amp;""" trigger="""&amp;D210&amp;"""/&gt;"</f>
@@ -4106,13 +4093,13 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C211" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D211" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F211" s="4" t="str">
         <f t="shared" si="13"/>
@@ -4127,10 +4114,10 @@
         <v>106</v>
       </c>
       <c r="C212" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D212" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F212" s="4" t="str">
         <f t="shared" si="13"/>
@@ -4145,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="D213" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F213" s="4" t="str">
         <f t="shared" si="13"/>
@@ -4166,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E215" t="s">
         <v>25</v>
@@ -4196,7 +4183,7 @@
         <v>74</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E217" t="s">
         <v>25</v>
@@ -4246,7 +4233,7 @@
         <v>31</v>
       </c>
       <c r="B222" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F222" s="4" t="str">
         <f>"&lt;npc name="""&amp;B222&amp;"""&gt;"</f>
@@ -4258,7 +4245,7 @@
         <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F223" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B223&amp;".png""/&gt;"</f>
@@ -4279,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F225" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A225,1)&amp;""" text="""&amp;C225&amp;""" trigger="""&amp;D225&amp;IF(E225&lt;&gt;"",", "&amp;E225&amp;"""&gt;","""&gt;")</f>
@@ -4294,10 +4281,10 @@
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D226" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F226" s="4" t="str">
         <f t="shared" ref="F226:F229" si="14">"&lt;response key="""&amp;B226&amp;""" text="""&amp;C226&amp;""" trigger="""&amp;D226&amp;"""/&gt;"</f>
@@ -4312,10 +4299,10 @@
         <v>12</v>
       </c>
       <c r="C227" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D227" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F227" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4330,10 +4317,10 @@
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D228" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F228" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4348,7 +4335,7 @@
         <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F229" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4369,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F231" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A231,1)&amp;""" text="""&amp;C231&amp;""" trigger="""&amp;D231&amp;IF(E231&lt;&gt;"",", "&amp;E231&amp;"""&gt;","""&gt;")</f>
@@ -4384,10 +4371,10 @@
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D232" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F232" s="4" t="str">
         <f t="shared" ref="F232:F235" si="15">"&lt;response key="""&amp;B232&amp;""" text="""&amp;C232&amp;""" trigger="""&amp;D232&amp;"""/&gt;"</f>
@@ -4402,10 +4389,10 @@
         <v>12</v>
       </c>
       <c r="C233" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D233" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F233" s="4" t="str">
         <f t="shared" si="15"/>
@@ -4420,10 +4407,10 @@
         <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D234" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F234" s="4" t="str">
         <f t="shared" si="15"/>
@@ -4438,7 +4425,7 @@
         <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F235" s="4" t="str">
         <f t="shared" si="15"/>
@@ -4459,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F237" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A237,1)&amp;""" text="""&amp;C237&amp;""" trigger="""&amp;D237&amp;IF(E237&lt;&gt;"",", "&amp;E237&amp;"""&gt;","""&gt;")</f>
@@ -4474,10 +4461,10 @@
         <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D238" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F238" s="4" t="str">
         <f t="shared" ref="F238:F241" si="16">"&lt;response key="""&amp;B238&amp;""" text="""&amp;C238&amp;""" trigger="""&amp;D238&amp;"""/&gt;"</f>
@@ -4492,10 +4479,10 @@
         <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D239" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F239" s="4" t="str">
         <f t="shared" si="16"/>
@@ -4510,10 +4497,10 @@
         <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D240" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F240" s="4" t="str">
         <f t="shared" si="16"/>
@@ -4528,7 +4515,7 @@
         <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F241" s="4" t="str">
         <f t="shared" si="16"/>
@@ -4549,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F243" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A243,1)&amp;""" text="""&amp;C243&amp;""" trigger="""&amp;D243&amp;IF(E243&lt;&gt;"",", "&amp;E243&amp;"""&gt;","""&gt;")</f>
@@ -4564,10 +4551,10 @@
         <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D244" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F244" s="4" t="str">
         <f t="shared" ref="F244:F247" si="17">"&lt;response key="""&amp;B244&amp;""" text="""&amp;C244&amp;""" trigger="""&amp;D244&amp;"""/&gt;"</f>
@@ -4582,10 +4569,10 @@
         <v>12</v>
       </c>
       <c r="C245" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D245" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F245" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4600,10 +4587,10 @@
         <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D246" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F246" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4618,7 +4605,7 @@
         <v>21</v>
       </c>
       <c r="D247" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F247" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4639,10 +4626,10 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E249" t="s">
         <v>25</v>
@@ -4666,10 +4653,10 @@
         <v>47</v>
       </c>
       <c r="C251" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E251" t="s">
         <v>25</v>
@@ -4693,10 +4680,10 @@
         <v>48</v>
       </c>
       <c r="C253" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E253" t="s">
         <v>25</v>
@@ -4746,7 +4733,7 @@
         <v>31</v>
       </c>
       <c r="B258" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F258" s="4" t="str">
         <f>"&lt;npc name="""&amp;B258&amp;"""&gt;"</f>
@@ -4758,7 +4745,7 @@
         <v>27</v>
       </c>
       <c r="B259" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F259" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B259&amp;".png""/&gt;"</f>
@@ -4779,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F261" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A261,1)&amp;""" text="""&amp;C261&amp;""" trigger="""&amp;D261&amp;IF(E261&lt;&gt;"",", "&amp;E261&amp;"""&gt;","""&gt;")</f>
@@ -4794,10 +4781,10 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D262" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F262" s="4" t="str">
         <f t="shared" ref="F262:F264" si="18">"&lt;response key="""&amp;B262&amp;""" text="""&amp;C262&amp;""" trigger="""&amp;D262&amp;"""/&gt;"</f>
@@ -4812,10 +4799,10 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D263" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F263" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4830,7 +4817,7 @@
         <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F264" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4851,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D266" s="1"/>
       <c r="F266" s="4" t="str">
@@ -4867,10 +4854,10 @@
         <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D267" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F267" s="4" t="str">
         <f t="shared" ref="F267:F269" si="19">"&lt;response key="""&amp;B267&amp;""" text="""&amp;C267&amp;""" trigger="""&amp;D267&amp;"""/&gt;"</f>
@@ -4882,13 +4869,13 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C268" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D268" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F268" s="4" t="str">
         <f t="shared" si="19"/>
@@ -4903,7 +4890,7 @@
         <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F269" s="4" t="str">
         <f t="shared" si="19"/>
@@ -4924,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D271" s="1"/>
       <c r="F271" s="4" t="str">
@@ -4937,13 +4924,13 @@
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C272" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D272" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F272" s="4" t="str">
         <f t="shared" ref="F272:F274" si="20">"&lt;response key="""&amp;B272&amp;""" text="""&amp;C272&amp;""" trigger="""&amp;D272&amp;"""/&gt;"</f>
@@ -4955,13 +4942,13 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C273" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D273" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F273" s="4" t="str">
         <f t="shared" si="20"/>
@@ -4976,7 +4963,7 @@
         <v>21</v>
       </c>
       <c r="D274" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F274" s="4" t="str">
         <f t="shared" si="20"/>
@@ -4997,7 +4984,7 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D276" s="1"/>
       <c r="F276" s="4" t="str">
@@ -5013,10 +5000,10 @@
         <v>106</v>
       </c>
       <c r="C277" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D277" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F277" s="4" t="str">
         <f t="shared" ref="F277:F279" si="21">"&lt;response key="""&amp;B277&amp;""" text="""&amp;C277&amp;""" trigger="""&amp;D277&amp;"""/&gt;"</f>
@@ -5028,13 +5015,13 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C278" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D278" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F278" s="4" t="str">
         <f t="shared" si="21"/>
@@ -5049,7 +5036,7 @@
         <v>21</v>
       </c>
       <c r="D279" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F279" s="4" t="str">
         <f t="shared" si="21"/>
@@ -5070,7 +5057,7 @@
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D281" s="1"/>
       <c r="F281" s="4" t="str">
@@ -5083,13 +5070,13 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C282" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D282" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F282" s="4" t="str">
         <f t="shared" ref="F282:F284" si="22">"&lt;response key="""&amp;B282&amp;""" text="""&amp;C282&amp;""" trigger="""&amp;D282&amp;"""/&gt;"</f>
@@ -5101,13 +5088,13 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C283" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D283" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F283" s="4" t="str">
         <f t="shared" si="22"/>
@@ -5122,7 +5109,7 @@
         <v>21</v>
       </c>
       <c r="D284" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F284" s="4" t="str">
         <f t="shared" si="22"/>
@@ -5143,7 +5130,7 @@
         <v>47</v>
       </c>
       <c r="C286" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D286" s="1"/>
       <c r="F286" s="4" t="str">
@@ -5156,13 +5143,13 @@
         <v>5</v>
       </c>
       <c r="B287" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C287" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D287" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F287" s="4" t="str">
         <f t="shared" ref="F287:F289" si="23">"&lt;response key="""&amp;B287&amp;""" text="""&amp;C287&amp;""" trigger="""&amp;D287&amp;"""/&gt;"</f>
@@ -5174,13 +5161,13 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C288" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D288" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F288" s="4" t="str">
         <f t="shared" si="23"/>
@@ -5195,7 +5182,7 @@
         <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F289" s="4" t="str">
         <f t="shared" si="23"/>
@@ -5216,7 +5203,7 @@
         <v>48</v>
       </c>
       <c r="C291" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D291" s="1"/>
       <c r="F291" s="4" t="str">
@@ -5229,13 +5216,13 @@
         <v>5</v>
       </c>
       <c r="B292" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C292" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D292" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F292" s="4" t="str">
         <f t="shared" ref="F292:F294" si="24">"&lt;response key="""&amp;B292&amp;""" text="""&amp;C292&amp;""" trigger="""&amp;D292&amp;"""/&gt;"</f>
@@ -5250,10 +5237,10 @@
         <v>88</v>
       </c>
       <c r="C293" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D293" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F293" s="4" t="str">
         <f t="shared" si="24"/>
@@ -5268,7 +5255,7 @@
         <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F294" s="4" t="str">
         <f t="shared" si="24"/>
@@ -5289,10 +5276,10 @@
         <v>49</v>
       </c>
       <c r="C296" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E296" t="s">
         <v>25</v>
@@ -5313,10 +5300,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C298" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F298" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A298,1)&amp;""" text="""&amp;C298&amp;""" trigger="""&amp;D298&amp;IF(E298&lt;&gt;"",", "&amp;E298&amp;"""&gt;","""&gt;")</f>
@@ -5328,13 +5315,13 @@
         <v>5</v>
       </c>
       <c r="B299" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C299" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D299" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F299" s="4" t="str">
         <f t="shared" ref="F299:F301" si="25">"&lt;response key="""&amp;B299&amp;""" text="""&amp;C299&amp;""" trigger="""&amp;D299&amp;"""/&gt;"</f>
@@ -5346,13 +5333,13 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C300" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D300" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F300" s="4" t="str">
         <f t="shared" si="25"/>
@@ -5367,7 +5354,7 @@
         <v>21</v>
       </c>
       <c r="D301" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F301" s="4" t="str">
         <f t="shared" si="25"/>
@@ -5385,10 +5372,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C303" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F303" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A303,1)&amp;""" text="""&amp;C303&amp;""" trigger="""&amp;D303&amp;IF(E303&lt;&gt;"",", "&amp;E303&amp;"""&gt;","""&gt;")</f>
@@ -5400,13 +5387,13 @@
         <v>5</v>
       </c>
       <c r="B304" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C304" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D304" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F304" s="4" t="str">
         <f t="shared" ref="F304:F306" si="26">"&lt;response key="""&amp;B304&amp;""" text="""&amp;C304&amp;""" trigger="""&amp;D304&amp;"""/&gt;"</f>
@@ -5421,10 +5408,10 @@
         <v>107</v>
       </c>
       <c r="C305" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D305" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F305" s="4" t="str">
         <f t="shared" si="26"/>
@@ -5439,7 +5426,7 @@
         <v>21</v>
       </c>
       <c r="D306" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F306" s="4" t="str">
         <f t="shared" si="26"/>
@@ -5457,10 +5444,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C308" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F308" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A308,1)&amp;""" text="""&amp;C308&amp;""" trigger="""&amp;D308&amp;IF(E308&lt;&gt;"",", "&amp;E308&amp;"""&gt;","""&gt;")</f>
@@ -5475,10 +5462,10 @@
         <v>89</v>
       </c>
       <c r="C309" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D309" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F309" s="4" t="str">
         <f t="shared" ref="F309:F311" si="27">"&lt;response key="""&amp;B309&amp;""" text="""&amp;C309&amp;""" trigger="""&amp;D309&amp;"""/&gt;"</f>
@@ -5490,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C310" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D310" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F310" s="4" t="str">
         <f t="shared" si="27"/>
@@ -5511,7 +5498,7 @@
         <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F311" s="4" t="str">
         <f t="shared" si="27"/>
@@ -5529,10 +5516,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C313" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F313" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A313,1)&amp;""" text="""&amp;C313&amp;""" trigger="""&amp;D313&amp;IF(E313&lt;&gt;"",", "&amp;E313&amp;"""&gt;","""&gt;")</f>
@@ -5544,13 +5531,13 @@
         <v>5</v>
       </c>
       <c r="B314" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C314" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D314" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F314" s="4" t="str">
         <f t="shared" ref="F314:F316" si="28">"&lt;response key="""&amp;B314&amp;""" text="""&amp;C314&amp;""" trigger="""&amp;D314&amp;"""/&gt;"</f>
@@ -5562,13 +5549,13 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C315" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D315" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F315" s="4" t="str">
         <f t="shared" si="28"/>
@@ -5583,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="D316" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F316" s="4" t="str">
         <f t="shared" si="28"/>
@@ -5601,10 +5588,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C318" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F318" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A318,1)&amp;""" text="""&amp;C318&amp;""" trigger="""&amp;D318&amp;IF(E318&lt;&gt;"",", "&amp;E318&amp;"""&gt;","""&gt;")</f>
@@ -5616,13 +5603,13 @@
         <v>5</v>
       </c>
       <c r="B319" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C319" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D319" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F319" s="4" t="str">
         <f t="shared" ref="F319:F321" si="29">"&lt;response key="""&amp;B319&amp;""" text="""&amp;C319&amp;""" trigger="""&amp;D319&amp;"""/&gt;"</f>
@@ -5634,13 +5621,13 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C320" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D320" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F320" s="4" t="str">
         <f t="shared" si="29"/>
@@ -5655,7 +5642,7 @@
         <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F321" s="4" t="str">
         <f t="shared" si="29"/>
@@ -5673,10 +5660,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C323" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F323" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A323,1)&amp;""" text="""&amp;C323&amp;""" trigger="""&amp;D323&amp;IF(E323&lt;&gt;"",", "&amp;E323&amp;"""&gt;","""&gt;")</f>
@@ -5688,13 +5675,13 @@
         <v>5</v>
       </c>
       <c r="B324" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C324" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D324" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F324" s="4" t="str">
         <f t="shared" ref="F324:F326" si="30">"&lt;response key="""&amp;B324&amp;""" text="""&amp;C324&amp;""" trigger="""&amp;D324&amp;"""/&gt;"</f>
@@ -5706,13 +5693,13 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C325" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D325" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F325" s="4" t="str">
         <f t="shared" si="30"/>
@@ -5727,7 +5714,7 @@
         <v>21</v>
       </c>
       <c r="D326" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F326" s="4" t="str">
         <f t="shared" si="30"/>
@@ -5745,10 +5732,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C328" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>25</v>
@@ -5798,7 +5785,7 @@
         <v>31</v>
       </c>
       <c r="B333" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F333" s="4" t="str">
         <f>"&lt;npc name="""&amp;B333&amp;"""&gt;"</f>
@@ -5810,7 +5797,7 @@
         <v>27</v>
       </c>
       <c r="B334" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F334" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B334&amp;".png""/&gt;"</f>
@@ -5831,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F336" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A336,1)&amp;""" text="""&amp;C336&amp;""" trigger="""&amp;D336&amp;IF(E336&lt;&gt;"",", "&amp;E336&amp;"""&gt;","""&gt;")</f>
@@ -5843,13 +5830,13 @@
         <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D337" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F337" s="4" t="str">
         <f t="shared" ref="F337:F340" si="31">"&lt;response key="""&amp;B337&amp;""" text="""&amp;C337&amp;""" trigger="""&amp;D337&amp;"""/&gt;"</f>
@@ -5861,17 +5848,20 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D338" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="E338" t="s">
+        <v>261</v>
       </c>
       <c r="F338" s="4" t="str">
-        <f t="shared" si="31"/>
-        <v>&lt;response key="U" text="J" trigger="Go To 1"/&gt;</v>
+        <f>"&lt;response key="""&amp;B338&amp;""" text="""&amp;C338&amp;""" trigger="""&amp;D338&amp;IF(E338&lt;&gt;"",", "&amp;E338&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="U" text="J" trigger="Go To 1, Give 5 O2"/&gt;</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -5879,13 +5869,13 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D339" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F339" s="4" t="str">
         <f t="shared" si="31"/>
@@ -5900,7 +5890,7 @@
         <v>21</v>
       </c>
       <c r="D340" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F340" s="4" t="str">
         <f t="shared" si="31"/>
@@ -5921,14 +5911,12 @@
         <v>1</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D342" s="1"/>
       <c r="F342" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A342,1)&amp;""" text="""&amp;C342&amp;""" trigger="""&amp;D342&amp;IF(E342&lt;&gt;"",", "&amp;E342&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="Give me a 'T'!" trigger="Give 5 O2"&gt;</v>
+        <v>&lt;point id="1" text="Give me a 'T'!" trigger=""&gt;</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -5936,13 +5924,13 @@
         <v>5</v>
       </c>
       <c r="B343" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D343" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F343" s="4" t="str">
         <f t="shared" ref="F343:F346" si="32">"&lt;response key="""&amp;B343&amp;""" text="""&amp;C343&amp;""" trigger="""&amp;D343&amp;"""/&gt;"</f>
@@ -5957,14 +5945,17 @@
         <v>12</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D344" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="E344" t="s">
+        <v>261</v>
       </c>
       <c r="F344" s="4" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;response key="B" text="T" trigger="Go To 2"/&gt;</v>
+        <f>"&lt;response key="""&amp;B344&amp;""" text="""&amp;C344&amp;""" trigger="""&amp;D344&amp;IF(E344&lt;&gt;"",", "&amp;E344&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="B" text="T" trigger="Go To 2, Give 5 O2"/&gt;</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -5972,13 +5963,13 @@
         <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D345" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F345" s="4" t="str">
         <f t="shared" si="32"/>
@@ -5993,7 +5984,7 @@
         <v>21</v>
       </c>
       <c r="D346" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F346" s="4" t="str">
         <f t="shared" si="32"/>
@@ -6014,14 +6005,12 @@
         <v>2</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D348" s="1"/>
       <c r="F348" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A348,1)&amp;""" text="""&amp;C348&amp;""" trigger="""&amp;D348&amp;IF(E348&lt;&gt;"",", "&amp;E348&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="Give me a 'Spaceman'!" trigger="Give 5 O2"&gt;</v>
+        <v>&lt;point id="2" text="Give me a 'Spaceman'!" trigger=""&gt;</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -6032,10 +6021,10 @@
         <v>11</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D349" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F349" s="4" t="str">
         <f t="shared" ref="F349:F351" si="33">"&lt;response key="""&amp;B349&amp;""" text="""&amp;C349&amp;""" trigger="""&amp;D349&amp;"""/&gt;"</f>
@@ -6050,10 +6039,10 @@
         <v>12</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D350" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F350" s="4" t="str">
         <f t="shared" si="33"/>
@@ -6068,7 +6057,7 @@
         <v>21</v>
       </c>
       <c r="D351" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F351" s="4" t="str">
         <f t="shared" si="33"/>
@@ -6089,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E353" t="s">
         <v>25</v>
@@ -6116,10 +6105,10 @@
         <v>4</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E355" t="s">
         <v>25</v>
@@ -6169,7 +6158,7 @@
         <v>31</v>
       </c>
       <c r="B360" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F360" s="4" t="str">
         <f>"&lt;npc name="""&amp;B360&amp;"""&gt;"</f>
@@ -6181,7 +6170,7 @@
         <v>27</v>
       </c>
       <c r="B361" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F361" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B361&amp;".png""/&gt;"</f>
@@ -6202,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F363" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A363,1)&amp;""" text="""&amp;C363&amp;""" trigger="""&amp;D363&amp;IF(E363&lt;&gt;"",", "&amp;E363&amp;"""&gt;","""&gt;")</f>
@@ -6217,10 +6206,10 @@
         <v>11</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D364" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F364" s="4" t="str">
         <f>"&lt;response key="""&amp;B364&amp;""" text="""&amp;C364&amp;""" trigger="""&amp;D364&amp;"""/&gt;"</f>
@@ -6235,14 +6224,14 @@
         <v>21</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E365" t="s">
         <v>25</v>
       </c>
       <c r="F365" s="4" t="str">
-        <f>"&lt;response key="""&amp;B365&amp;""" text="""&amp;C365&amp;""" trigger="""&amp;D365&amp;""" trigger2="""&amp;E365&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B365&amp;""" text="""&amp;C365&amp;""" trigger="""&amp;D365&amp;IF(E365&lt;&gt;"",", "&amp;E365&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -6259,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D367" s="1"/>
       <c r="F367" s="4" t="str">
@@ -6272,20 +6261,20 @@
         <v>5</v>
       </c>
       <c r="B368" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E368" t="s">
         <v>25</v>
       </c>
       <c r="F368" s="4" t="str">
-        <f>"&lt;response key="""&amp;B368&amp;""" text="""&amp;C368&amp;""" trigger="""&amp;D368&amp;""" trigger2="""&amp;E368&amp;"""/&gt;"</f>
-        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B368&amp;""" text="""&amp;C368&amp;""" trigger="""&amp;D368&amp;IF(E368&lt;&gt;"",", "&amp;E368&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -6293,13 +6282,13 @@
         <v>6</v>
       </c>
       <c r="B369" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D369" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F369" s="4" t="str">
         <f t="shared" ref="F369:F370" si="34">"&lt;response key="""&amp;B369&amp;""" text="""&amp;C369&amp;""" trigger="""&amp;D369&amp;"""/&gt;"</f>
@@ -6314,10 +6303,10 @@
         <v>89</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D370" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F370" s="4" t="str">
         <f t="shared" si="34"/>
@@ -6332,14 +6321,14 @@
         <v>21</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E371" t="s">
         <v>25</v>
       </c>
       <c r="F371" s="4" t="str">
-        <f>"&lt;response key="""&amp;B371&amp;""" text="""&amp;C371&amp;""" trigger="""&amp;D371&amp;""" trigger2="""&amp;E371&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B371&amp;""" text="""&amp;C371&amp;""" trigger="""&amp;D371&amp;IF(E371&lt;&gt;"",", "&amp;E371&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -6356,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D373" s="1"/>
       <c r="F373" s="4" t="str">
@@ -6369,20 +6358,20 @@
         <v>5</v>
       </c>
       <c r="B374" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
       </c>
       <c r="F374" s="4" t="str">
-        <f t="shared" ref="F374:F375" si="35">"&lt;response key="""&amp;B374&amp;""" text="""&amp;C374&amp;""" trigger="""&amp;D374&amp;""" trigger2="""&amp;E374&amp;"""/&gt;"</f>
-        <v>&lt;response key="O" text="To jaunt through space." trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <f t="shared" ref="F374:F375" si="35">"&lt;response key="""&amp;B374&amp;""" text="""&amp;C374&amp;""" trigger="""&amp;D374&amp;IF(E374&lt;&gt;"",", "&amp;E374&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="O" text="To jaunt through space." trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -6390,20 +6379,20 @@
         <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
       </c>
       <c r="F375" s="4" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,13 +6400,13 @@
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D376" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F376" s="4" t="str">
         <f>"&lt;response key="""&amp;B376&amp;""" text="""&amp;C376&amp;""" trigger="""&amp;D376&amp;"""/&gt;"</f>
@@ -6432,14 +6421,14 @@
         <v>21</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E377" t="s">
         <v>25</v>
       </c>
       <c r="F377" s="4" t="str">
-        <f>"&lt;response key="""&amp;B377&amp;""" text="""&amp;C377&amp;""" trigger="""&amp;D377&amp;""" trigger2="""&amp;E377&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B377&amp;""" text="""&amp;C377&amp;""" trigger="""&amp;D377&amp;IF(E377&lt;&gt;"",", "&amp;E377&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -6456,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D379" s="1"/>
       <c r="F379" s="4" t="str">
@@ -6472,17 +6461,17 @@
         <v>1</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
       </c>
       <c r="F380" s="4" t="str">
-        <f>"&lt;response key="""&amp;B380&amp;""" text="""&amp;C380&amp;""" trigger="""&amp;D380&amp;""" trigger2="""&amp;E380&amp;"""/&gt;"</f>
-        <v>&lt;response key="1" text="One." trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B380&amp;""" text="""&amp;C380&amp;""" trigger="""&amp;D380&amp;IF(E380&lt;&gt;"",", "&amp;E380&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="1" text="One." trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -6490,17 +6479,17 @@
         <v>6</v>
       </c>
       <c r="B381" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D381" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F381" s="4" t="str">
         <f>"&lt;response key="""&amp;B381&amp;""" text="""&amp;C381&amp;""" trigger="""&amp;D381&amp;"""/&gt;"</f>
-        <v>&lt;response key="?" text="What do you mean? An African or European swallow?" trigger="Go To 4"/&gt;</v>
+        <v>&lt;response key="W" text="What do you mean? An African or European swallow?" trigger="Go To 4"/&gt;</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -6511,17 +6500,17 @@
         <v>89</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
       </c>
       <c r="F382" s="4" t="str">
-        <f t="shared" ref="F382:F383" si="36">"&lt;response key="""&amp;B382&amp;""" text="""&amp;C382&amp;""" trigger="""&amp;D382&amp;""" trigger2="""&amp;E382&amp;"""/&gt;"</f>
-        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <f t="shared" ref="F382:F383" si="36">"&lt;response key="""&amp;B382&amp;""" text="""&amp;C382&amp;""" trigger="""&amp;D382&amp;IF(E382&lt;&gt;"",", "&amp;E382&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -6532,14 +6521,14 @@
         <v>21</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E383" t="s">
         <v>25</v>
       </c>
       <c r="F383" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -6556,10 +6545,10 @@
         <v>4</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
@@ -6609,7 +6598,7 @@
         <v>31</v>
       </c>
       <c r="B390" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F390" s="4" t="str">
         <f>"&lt;npc name="""&amp;B390&amp;"""&gt;"</f>
@@ -6621,7 +6610,7 @@
         <v>27</v>
       </c>
       <c r="B391" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F391" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B391&amp;".png""/&gt;"</f>
@@ -6642,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F393" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A393,1)&amp;""" text="""&amp;C393&amp;""" trigger="""&amp;D393&amp;IF(E393&lt;&gt;"",", "&amp;E393&amp;"""&gt;","""&gt;")</f>
@@ -6657,10 +6646,10 @@
         <v>11</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D394" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F394" s="4" t="str">
         <f t="shared" ref="F394:F396" si="37">"&lt;response key="""&amp;B394&amp;""" text="""&amp;C394&amp;""" trigger="""&amp;D394&amp;"""/&gt;"</f>
@@ -6675,10 +6664,10 @@
         <v>12</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D395" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F395" s="4" t="str">
         <f t="shared" si="37"/>
@@ -6693,10 +6682,10 @@
         <v>13</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D396" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F396" s="4" t="str">
         <f t="shared" si="37"/>
@@ -6711,14 +6700,14 @@
         <v>21</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
       </c>
       <c r="F397" s="4" t="str">
-        <f>"&lt;response key="""&amp;B397&amp;""" text="""&amp;C397&amp;""" trigger="""&amp;D397&amp;""" trigger2="""&amp;E397&amp;"""/&gt;"</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2" trigger2="EndDialog"/&gt;</v>
+        <f>"&lt;response key="""&amp;B397&amp;""" text="""&amp;C397&amp;""" trigger="""&amp;D397&amp;IF(E397&lt;&gt;"",", "&amp;E397&amp;"""/&gt;","""/&gt;")</f>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -6735,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>25</v>
@@ -6759,10 +6748,10 @@
         <v>2</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
@@ -6786,10 +6775,10 @@
         <v>3</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -156,9 +156,6 @@
     <t>Gwen</t>
   </si>
   <si>
-    <t>This &amp;#*% is bananas!</t>
-  </si>
-  <si>
     <t>Aw yeah!</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>Meth</t>
   </si>
   <si>
-    <t>I got in one little fight and my mom got scared, she said "You're moving with _______ in Bel Air"</t>
-  </si>
-  <si>
     <t>Your auntie and uncle</t>
   </si>
   <si>
@@ -696,9 +690,6 @@
     <t>John T. Spacemin</t>
   </si>
   <si>
-    <t>Jogn T. Spaceman</t>
-  </si>
-  <si>
     <t>What is your quest?</t>
   </si>
   <si>
@@ -823,6 +814,15 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>John T. Spaceman</t>
+  </si>
+  <si>
+    <t>This is bananas!</t>
+  </si>
+  <si>
+    <t>I got in one little fight and my mom got scared, she said 'You're moving with _______ in Bel Air'</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1314,8 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1364,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B3&amp;".png""/&gt;"</f>
@@ -1403,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>"&lt;response key="""&amp;B6&amp;""" text="""&amp;C6&amp;""" trigger="""&amp;D6&amp;"""/&gt;"</f>
@@ -1421,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" ref="F7:F9" si="0">"&lt;response key="""&amp;B7&amp;""" text="""&amp;C7&amp;""" trigger="""&amp;D7&amp;"""/&gt;"</f>
@@ -1439,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1454,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1505,7 +1505,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1532,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1594,7 +1594,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B21&amp;".png""/&gt;"</f>
@@ -1633,10 +1633,10 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>"&lt;response key="""&amp;B24&amp;""" text="""&amp;C24&amp;""" trigger="""&amp;D24&amp;IF(E24&lt;&gt;"",", "&amp;E24&amp;"""/&gt;","""/&gt;")</f>
@@ -1654,7 +1654,7 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" ref="F24:F27" si="1">"&lt;response key="""&amp;B25&amp;""" text="""&amp;C25&amp;""" trigger="""&amp;D25&amp;"""/&gt;"</f>
@@ -1672,7 +1672,7 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1687,7 +1687,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1712,8 +1712,8 @@
       </c>
       <c r="D29" s="1"/>
       <c r="F29" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A29,1)&amp;""" text="""&amp;C29&amp;""" trigger="""&amp;D29&amp;IF(E29&lt;&gt;"",", "&amp;E29&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="So you think you're clever?" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A29,1)&amp;""" text="""&amp;C29&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="So you think you're clever?"&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F30" s="4" t="str">
         <f t="shared" ref="F30:F33" si="2">"&lt;response key="""&amp;B30&amp;""" text="""&amp;C30&amp;""" trigger="""&amp;D30&amp;"""/&gt;"</f>
@@ -1745,7 +1745,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1763,7 +1763,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1778,7 +1778,7 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F33" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1802,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -1853,7 +1853,7 @@
         <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -1915,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B45&amp;".png""/&gt;"</f>
@@ -1936,11 +1936,11 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="F47" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A47,1)&amp;""" text="""&amp;C47&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="This &amp;#*% is bananas!"&gt;</v>
+        <v>&lt;point id="0" text="This is bananas!"&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,10 +1951,10 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F48" s="4" t="str">
         <f>"&lt;response key="""&amp;B48&amp;""" text="""&amp;C48&amp;""" trigger="""&amp;D48&amp;"""/&gt;"</f>
@@ -1969,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
@@ -1993,11 +1993,11 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A51,1)&amp;""" text="""&amp;C51&amp;"""&gt;"</f>
-        <v>&lt;point id="1" text="This &amp;#*% is bananas!"&gt;</v>
+        <v>&lt;point id="1" text="This is bananas!"&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2008,10 +2008,10 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F52" s="4" t="str">
         <f>"&lt;response key="""&amp;B52&amp;""" text="""&amp;C52&amp;""" trigger="""&amp;D52&amp;"""/&gt;"</f>
@@ -2026,7 +2026,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
@@ -2050,11 +2050,11 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="F55" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A55,1)&amp;""" text="""&amp;C55&amp;"""&gt;"</f>
-        <v>&lt;point id="2" text="This &amp;#*% is bananas!"&gt;</v>
+        <v>&lt;point id="2" text="This is bananas!"&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2062,13 +2062,13 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F56" s="4" t="str">
         <f>"&lt;response key="""&amp;B56&amp;""" text="""&amp;C56&amp;""" trigger="""&amp;D56&amp;"""/&gt;"</f>
@@ -2083,7 +2083,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
@@ -2107,11 +2107,11 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="F59" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A59,1)&amp;""" text="""&amp;C59&amp;"""&gt;"</f>
-        <v>&lt;point id="3" text="This &amp;#*% is bananas!"&gt;</v>
+        <v>&lt;point id="3" text="This is bananas!"&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2122,10 +2122,10 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F60" s="4" t="str">
         <f>"&lt;response key="""&amp;B60&amp;""" text="""&amp;C60&amp;""" trigger="""&amp;D60&amp;"""/&gt;"</f>
@@ -2140,7 +2140,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
@@ -2164,11 +2164,11 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="F63" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A63,1)&amp;""" text="""&amp;C63&amp;"""&gt;"</f>
-        <v>&lt;point id="4" text="This &amp;#*% is bananas!"&gt;</v>
+        <v>&lt;point id="4" text="This is bananas!"&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2176,13 +2176,13 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F64" s="4" t="str">
         <f>"&lt;response key="""&amp;B64&amp;""" text="""&amp;C64&amp;""" trigger="""&amp;D64&amp;"""/&gt;"</f>
@@ -2197,7 +2197,7 @@
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E65" t="s">
         <v>25</v>
@@ -2218,14 +2218,14 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="F67" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A67,1)&amp;""" text="""&amp;C67&amp;"""&gt;"</f>
-        <v>&lt;point id="5" text="This &amp;#*% is bananas!"&gt;</v>
+        <v>&lt;point id="5" text="This is bananas!"&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F68" s="4" t="str">
         <f>"&lt;response key="""&amp;B68&amp;""" text="""&amp;C68&amp;""" trigger="""&amp;D68&amp;"""/&gt;"</f>
@@ -2254,7 +2254,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
@@ -2275,14 +2275,14 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="F71" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A71,1)&amp;""" text="""&amp;C71&amp;"""&gt;"</f>
-        <v>&lt;point id="6" text="This &amp;#*% is bananas!"&gt;</v>
+        <v>&lt;point id="6" text="This is bananas!"&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,13 +2290,13 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F72" s="4" t="str">
         <f>"&lt;response key="""&amp;B72&amp;""" text="""&amp;C72&amp;""" trigger="""&amp;D72&amp;"""/&gt;"</f>
@@ -2311,7 +2311,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
@@ -2332,13 +2332,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
@@ -2388,7 +2388,7 @@
         <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F80" s="4" t="str">
         <f>"&lt;npc name="""&amp;B80&amp;"""&gt;"</f>
@@ -2400,7 +2400,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F81" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B81&amp;".png""/&gt;"</f>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F83" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A83,1)&amp;""" text="""&amp;C83&amp;"""&gt;"</f>
@@ -2436,10 +2436,10 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F84" s="4" t="str">
         <f t="shared" ref="F84:F87" si="3">"&lt;response key="""&amp;B84&amp;""" text="""&amp;C84&amp;""" trigger="""&amp;D84&amp;"""/&gt;"</f>
@@ -2454,10 +2454,10 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2472,10 +2472,10 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2490,7 +2490,7 @@
         <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2511,12 +2511,12 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D89" s="1"/>
       <c r="F89" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A89,1)&amp;""" text="""&amp;C89&amp;""" trigger="""&amp;D89&amp;IF(E89&lt;&gt;"",""" Trigger2="""&amp;E89&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="I'm ready to blast off!" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A89,1)&amp;""" text="""&amp;C89&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="I'm ready to blast off!"&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2527,10 +2527,10 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F90" s="4" t="str">
         <f t="shared" ref="F90:F93" si="4">"&lt;response key="""&amp;B90&amp;""" text="""&amp;C90&amp;""" trigger="""&amp;D90&amp;"""/&gt;"</f>
@@ -2545,10 +2545,10 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F91" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2563,10 +2563,10 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F92" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2581,7 +2581,7 @@
         <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F93" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2602,12 +2602,12 @@
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" s="1"/>
       <c r="F95" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A95,1)&amp;""" text="""&amp;C95&amp;""" trigger="""&amp;D95&amp;IF(E95&lt;&gt;"",""" Trigger2="""&amp;E95&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="I'll show you some action." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A95,1)&amp;""" text="""&amp;C95&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="I'll show you some action."&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2618,10 +2618,10 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F96" s="4" t="str">
         <f t="shared" ref="F96:F98" si="5">"&lt;response key="""&amp;B96&amp;""" text="""&amp;C96&amp;""" trigger="""&amp;D96&amp;"""/&gt;"</f>
@@ -2636,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D97" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F97" s="4" t="str">
         <f t="shared" si="5"/>
@@ -2654,7 +2654,7 @@
         <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F98" s="4" t="str">
         <f t="shared" si="5"/>
@@ -2675,12 +2675,12 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="1"/>
       <c r="F100" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A100,1)&amp;""" text="""&amp;C100&amp;""" trigger="""&amp;D100&amp;IF(E100&lt;&gt;"",", "&amp;E100&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Don't you want me?" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A100,1)&amp;""" text="""&amp;C100&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="Don't you want me?"&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,10 +2691,10 @@
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D101" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F101" s="4" t="str">
         <f t="shared" ref="F101:F104" si="6">"&lt;response key="""&amp;B101&amp;""" text="""&amp;C101&amp;""" trigger="""&amp;D101&amp;"""/&gt;"</f>
@@ -2709,10 +2709,10 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D102" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F102" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2727,10 +2727,10 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F103" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2745,7 +2745,7 @@
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F104" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2766,10 +2766,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
@@ -2790,13 +2790,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E110" t="s">
         <v>25</v>
@@ -2873,7 +2873,7 @@
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F115" s="4" t="str">
         <f>"&lt;npc name="""&amp;B115&amp;"""&gt;"</f>
@@ -2885,7 +2885,7 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F116" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B116&amp;".png""/&gt;"</f>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F118" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A118,1)&amp;""" text="""&amp;C118&amp;"""&gt;"</f>
@@ -2918,13 +2918,13 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D119" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F119" s="4" t="str">
         <f t="shared" ref="F119:F122" si="7">"&lt;response key="""&amp;B119&amp;""" text="""&amp;C119&amp;""" trigger="""&amp;D119&amp;"""/&gt;"</f>
@@ -2936,13 +2936,13 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D120" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F120" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2957,10 +2957,10 @@
         <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D121" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F121" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2975,7 +2975,7 @@
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F122" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2996,10 +2996,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E124" t="s">
         <v>25</v>
@@ -3023,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E126" t="s">
         <v>25</v>
@@ -3050,7 +3050,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>25</v>
@@ -3100,7 +3100,7 @@
         <v>31</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F133" s="4" t="str">
         <f>"&lt;npc name="""&amp;B133&amp;"""&gt;"</f>
@@ -3112,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F134" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B134&amp;".png""/&gt;"</f>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F136" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A136,1)&amp;""" text="""&amp;C136&amp;"""&gt;"</f>
@@ -3145,13 +3145,13 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D137" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F137" s="4" t="str">
         <f t="shared" ref="F137:F140" si="8">"&lt;response key="""&amp;B137&amp;""" text="""&amp;C137&amp;""" trigger="""&amp;D137&amp;"""/&gt;"</f>
@@ -3163,13 +3163,13 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C138" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F138" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3181,13 +3181,13 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C139" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F139" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3202,7 +3202,7 @@
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F140" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E142" t="s">
         <v>25</v>
@@ -3250,10 +3250,10 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E144" t="s">
         <v>25</v>
@@ -3277,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>25</v>
@@ -3327,7 +3327,7 @@
         <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F151" s="4" t="str">
         <f>"&lt;npc name="""&amp;B151&amp;"""&gt;"</f>
@@ -3339,7 +3339,7 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F152" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B152&amp;".png""/&gt;"</f>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F154" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A154,1)&amp;""" text="""&amp;C154&amp;"""&gt;"</f>
@@ -3375,10 +3375,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D155" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F155" s="4" t="str">
         <f t="shared" ref="F155:F158" si="9">"&lt;response key="""&amp;B155&amp;""" text="""&amp;C155&amp;""" trigger="""&amp;D155&amp;"""/&gt;"</f>
@@ -3393,10 +3393,10 @@
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D156" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F156" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3411,10 +3411,10 @@
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D157" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F157" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3429,7 +3429,7 @@
         <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F158" s="4" t="str">
         <f t="shared" si="9"/>
@@ -3450,12 +3450,12 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D160" s="1"/>
       <c r="F160" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A160,1)&amp;""" text="""&amp;C160&amp;""" trigger="""&amp;D160&amp;IF(E160&lt;&gt;"",", "&amp;E160&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="What are your orders, Executor?" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A160,1)&amp;""" text="""&amp;C160&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="What are your orders, Executor?"&gt;</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,10 +3466,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D161" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F161" s="4" t="str">
         <f t="shared" ref="F161:F164" si="10">"&lt;response key="""&amp;B161&amp;""" text="""&amp;C161&amp;""" trigger="""&amp;D161&amp;"""/&gt;"</f>
@@ -3484,10 +3484,10 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D162" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F162" s="4" t="str">
         <f t="shared" si="10"/>
@@ -3502,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D163" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F163" s="4" t="str">
         <f t="shared" si="10"/>
@@ -3520,7 +3520,7 @@
         <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F164" s="4" t="str">
         <f t="shared" si="10"/>
@@ -3541,10 +3541,10 @@
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E166" t="s">
         <v>25</v>
@@ -3568,10 +3568,10 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E168" t="s">
         <v>25</v>
@@ -3621,7 +3621,7 @@
         <v>31</v>
       </c>
       <c r="B173" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F173" s="4" t="str">
         <f>"&lt;npc name="""&amp;B173&amp;"""&gt;"</f>
@@ -3633,7 +3633,7 @@
         <v>27</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F174" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B174&amp;".png""/&gt;"</f>
@@ -3654,11 +3654,11 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F176" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A176,1)&amp;""" text="""&amp;C176&amp;""" trigger="""&amp;D176&amp;IF(E176&lt;&gt;"",", "&amp;E176&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="Do you need any help?" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A176,1)&amp;""" text="""&amp;C176&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="Do you need any help?"&gt;</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,10 +3669,10 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D177" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F177" s="4" t="str">
         <f t="shared" ref="F177:F180" si="11">"&lt;response key="""&amp;B177&amp;""" text="""&amp;C177&amp;""" trigger="""&amp;D177&amp;"""/&gt;"</f>
@@ -3687,10 +3687,10 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D178" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F178" s="4" t="str">
         <f t="shared" si="11"/>
@@ -3705,10 +3705,10 @@
         <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D179" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F179" s="4" t="str">
         <f t="shared" si="11"/>
@@ -3723,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F180" s="4" t="str">
         <f t="shared" si="11"/>
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>25</v>
@@ -3768,10 +3768,10 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E184" t="s">
         <v>25</v>
@@ -3795,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>25</v>
@@ -3845,7 +3845,7 @@
         <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F191" s="4" t="str">
         <f>"&lt;npc name="""&amp;B191&amp;"""&gt;"</f>
@@ -3857,7 +3857,7 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F192" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B192&amp;".png""/&gt;"</f>
@@ -3878,11 +3878,11 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F194" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A194,1)&amp;""" text="""&amp;C194&amp;""" trigger="""&amp;D194&amp;IF(E194&lt;&gt;"",", "&amp;E194&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="(Guess what?)" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A194,1)&amp;""" text="""&amp;C194&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="(Guess what?)"&gt;</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -3893,10 +3893,10 @@
         <v>12</v>
       </c>
       <c r="C195" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D195" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F195" s="4" t="str">
         <f t="shared" ref="F195:F197" si="12">"&lt;response key="""&amp;B195&amp;""" text="""&amp;C195&amp;""" trigger="""&amp;D195&amp;"""/&gt;"</f>
@@ -3908,13 +3908,13 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C196" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D196" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F196" s="4" t="str">
         <f t="shared" si="12"/>
@@ -3929,7 +3929,7 @@
         <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F197" s="4" t="str">
         <f t="shared" si="12"/>
@@ -3950,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E199" t="s">
         <v>25</v>
@@ -3977,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E201" t="s">
         <v>25</v>
@@ -4030,7 +4030,7 @@
         <v>31</v>
       </c>
       <c r="B206" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F206" s="4" t="str">
         <f>"&lt;npc name="""&amp;B206&amp;"""&gt;"</f>
@@ -4042,7 +4042,7 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F207" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B207&amp;".png""/&gt;"</f>
@@ -4063,11 +4063,11 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F209" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A209,1)&amp;""" text="""&amp;C209&amp;""" trigger="""&amp;D209&amp;IF(E209&lt;&gt;"",", "&amp;E209&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="What color is this dress?" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A209,1)&amp;""" text="""&amp;C209&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="What color is this dress?"&gt;</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,13 +4075,13 @@
         <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C210" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D210" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F210" s="4" t="str">
         <f t="shared" ref="F210:F213" si="13">"&lt;response key="""&amp;B210&amp;""" text="""&amp;C210&amp;""" trigger="""&amp;D210&amp;"""/&gt;"</f>
@@ -4093,13 +4093,13 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C211" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D211" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F211" s="4" t="str">
         <f t="shared" si="13"/>
@@ -4111,13 +4111,13 @@
         <v>7</v>
       </c>
       <c r="B212" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C212" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D212" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F212" s="4" t="str">
         <f t="shared" si="13"/>
@@ -4132,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="D213" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F213" s="4" t="str">
         <f t="shared" si="13"/>
@@ -4153,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E215" t="s">
         <v>25</v>
@@ -4180,10 +4180,10 @@
         <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E217" t="s">
         <v>25</v>
@@ -4233,7 +4233,7 @@
         <v>31</v>
       </c>
       <c r="B222" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F222" s="4" t="str">
         <f>"&lt;npc name="""&amp;B222&amp;"""&gt;"</f>
@@ -4245,7 +4245,7 @@
         <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F223" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B223&amp;".png""/&gt;"</f>
@@ -4266,11 +4266,11 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F225" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A225,1)&amp;""" text="""&amp;C225&amp;""" trigger="""&amp;D225&amp;IF(E225&lt;&gt;"",", "&amp;E225&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="This is a story all about how my life got _____ upside down" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A225,1)&amp;""" text="""&amp;C225&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="This is a story all about how my life got _____ upside down"&gt;</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -4281,10 +4281,10 @@
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D226" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F226" s="4" t="str">
         <f t="shared" ref="F226:F229" si="14">"&lt;response key="""&amp;B226&amp;""" text="""&amp;C226&amp;""" trigger="""&amp;D226&amp;"""/&gt;"</f>
@@ -4299,10 +4299,10 @@
         <v>12</v>
       </c>
       <c r="C227" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D227" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F227" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4317,10 +4317,10 @@
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D228" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F228" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4335,7 +4335,7 @@
         <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F229" s="4" t="str">
         <f t="shared" si="14"/>
@@ -4356,11 +4356,11 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F231" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A231,1)&amp;""" text="""&amp;C231&amp;""" trigger="""&amp;D231&amp;IF(E231&lt;&gt;"",", "&amp;E231&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="In West Philadelphia born and raised, on ____ is where I spent most of my days" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A231,1)&amp;""" text="""&amp;C231&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="In West Philadelphia born and raised, on ____ is where I spent most of my days"&gt;</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -4371,10 +4371,10 @@
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D232" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F232" s="4" t="str">
         <f t="shared" ref="F232:F235" si="15">"&lt;response key="""&amp;B232&amp;""" text="""&amp;C232&amp;""" trigger="""&amp;D232&amp;"""/&gt;"</f>
@@ -4389,10 +4389,10 @@
         <v>12</v>
       </c>
       <c r="C233" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D233" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F233" s="4" t="str">
         <f t="shared" si="15"/>
@@ -4407,10 +4407,10 @@
         <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D234" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F234" s="4" t="str">
         <f t="shared" si="15"/>
@@ -4425,7 +4425,7 @@
         <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F235" s="4" t="str">
         <f t="shared" si="15"/>
@@ -4441,16 +4441,16 @@
         <v>&lt;/point&gt;</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F237" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A237,1)&amp;""" text="""&amp;C237&amp;""" trigger="""&amp;D237&amp;IF(E237&lt;&gt;"",", "&amp;E237&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="A couple of guys who were up to no good started making _____ in my neighborhood" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A237,1)&amp;""" text="""&amp;C237&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="A couple of guys who were up to no good started making _____ in my neighborhood"&gt;</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -4461,10 +4461,10 @@
         <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D238" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F238" s="4" t="str">
         <f t="shared" ref="F238:F241" si="16">"&lt;response key="""&amp;B238&amp;""" text="""&amp;C238&amp;""" trigger="""&amp;D238&amp;"""/&gt;"</f>
@@ -4479,10 +4479,10 @@
         <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D239" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F239" s="4" t="str">
         <f t="shared" si="16"/>
@@ -4497,10 +4497,10 @@
         <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D240" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F240" s="4" t="str">
         <f t="shared" si="16"/>
@@ -4515,7 +4515,7 @@
         <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F241" s="4" t="str">
         <f t="shared" si="16"/>
@@ -4536,11 +4536,11 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="F243" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A243,1)&amp;""" text="""&amp;C243&amp;""" trigger="""&amp;D243&amp;IF(E243&lt;&gt;"",", "&amp;E243&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="I got in one little fight and my mom got scared, she said "You're moving with _______ in Bel Air"" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A243,1)&amp;""" text="""&amp;C243&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="I got in one little fight and my mom got scared, she said 'You're moving with _______ in Bel Air'"&gt;</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -4551,10 +4551,10 @@
         <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D244" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F244" s="4" t="str">
         <f t="shared" ref="F244:F247" si="17">"&lt;response key="""&amp;B244&amp;""" text="""&amp;C244&amp;""" trigger="""&amp;D244&amp;"""/&gt;"</f>
@@ -4569,10 +4569,10 @@
         <v>12</v>
       </c>
       <c r="C245" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D245" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F245" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4587,10 +4587,10 @@
         <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D246" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F246" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4605,7 +4605,7 @@
         <v>21</v>
       </c>
       <c r="D247" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F247" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4626,10 +4626,10 @@
         <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E249" t="s">
         <v>25</v>
@@ -4650,13 +4650,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C251" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E251" t="s">
         <v>25</v>
@@ -4677,13 +4677,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C253" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E253" t="s">
         <v>25</v>
@@ -4733,7 +4733,7 @@
         <v>31</v>
       </c>
       <c r="B258" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F258" s="4" t="str">
         <f>"&lt;npc name="""&amp;B258&amp;"""&gt;"</f>
@@ -4745,7 +4745,7 @@
         <v>27</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F259" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B259&amp;".png""/&gt;"</f>
@@ -4766,11 +4766,11 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F261" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A261,1)&amp;""" text="""&amp;C261&amp;""" trigger="""&amp;D261&amp;IF(E261&lt;&gt;"",", "&amp;E261&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="What's up, Bro." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A261,1)&amp;""" text="""&amp;C261&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="What's up, Bro."&gt;</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,10 +4781,10 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D262" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F262" s="4" t="str">
         <f t="shared" ref="F262:F264" si="18">"&lt;response key="""&amp;B262&amp;""" text="""&amp;C262&amp;""" trigger="""&amp;D262&amp;"""/&gt;"</f>
@@ -4799,10 +4799,10 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D263" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F263" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4817,7 +4817,7 @@
         <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F264" s="4" t="str">
         <f t="shared" si="18"/>
@@ -4838,12 +4838,12 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D266" s="1"/>
       <c r="F266" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A266,1)&amp;""" text="""&amp;C266&amp;""" trigger="""&amp;D266&amp;IF(E266&lt;&gt;"",", "&amp;E266&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="Broseph." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A266,1)&amp;""" text="""&amp;C266&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="Broseph."&gt;</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -4854,10 +4854,10 @@
         <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D267" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F267" s="4" t="str">
         <f t="shared" ref="F267:F269" si="19">"&lt;response key="""&amp;B267&amp;""" text="""&amp;C267&amp;""" trigger="""&amp;D267&amp;"""/&gt;"</f>
@@ -4869,13 +4869,13 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C268" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D268" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F268" s="4" t="str">
         <f t="shared" si="19"/>
@@ -4890,7 +4890,7 @@
         <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F269" s="4" t="str">
         <f t="shared" si="19"/>
@@ -4911,12 +4911,12 @@
         <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D271" s="1"/>
       <c r="F271" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A271,1)&amp;""" text="""&amp;C271&amp;""" trigger="""&amp;D271&amp;IF(E271&lt;&gt;"",", "&amp;E271&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="Bromo sapiens." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A271,1)&amp;""" text="""&amp;C271&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="Bromo sapiens."&gt;</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -4924,13 +4924,13 @@
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C272" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D272" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F272" s="4" t="str">
         <f t="shared" ref="F272:F274" si="20">"&lt;response key="""&amp;B272&amp;""" text="""&amp;C272&amp;""" trigger="""&amp;D272&amp;"""/&gt;"</f>
@@ -4942,13 +4942,13 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C273" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D273" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F273" s="4" t="str">
         <f t="shared" si="20"/>
@@ -4963,7 +4963,7 @@
         <v>21</v>
       </c>
       <c r="D274" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F274" s="4" t="str">
         <f t="shared" si="20"/>
@@ -4984,12 +4984,12 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D276" s="1"/>
       <c r="F276" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A276,1)&amp;""" text="""&amp;C276&amp;""" trigger="""&amp;D276&amp;IF(E276&lt;&gt;"",", "&amp;E276&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Brotato." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A276,1)&amp;""" text="""&amp;C276&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="Brotato."&gt;</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -4997,13 +4997,13 @@
         <v>5</v>
       </c>
       <c r="B277" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C277" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D277" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F277" s="4" t="str">
         <f t="shared" ref="F277:F279" si="21">"&lt;response key="""&amp;B277&amp;""" text="""&amp;C277&amp;""" trigger="""&amp;D277&amp;"""/&gt;"</f>
@@ -5015,13 +5015,13 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C278" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D278" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F278" s="4" t="str">
         <f t="shared" si="21"/>
@@ -5036,7 +5036,7 @@
         <v>21</v>
       </c>
       <c r="D279" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F279" s="4" t="str">
         <f t="shared" si="21"/>
@@ -5057,12 +5057,12 @@
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D281" s="1"/>
       <c r="F281" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A281,1)&amp;""" text="""&amp;C281&amp;""" trigger="""&amp;D281&amp;IF(E281&lt;&gt;"",", "&amp;E281&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="Brotis Redding." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A281,1)&amp;""" text="""&amp;C281&amp;"""&gt;"</f>
+        <v>&lt;point id="4" text="Brotis Redding."&gt;</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -5070,13 +5070,13 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C282" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D282" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F282" s="4" t="str">
         <f t="shared" ref="F282:F284" si="22">"&lt;response key="""&amp;B282&amp;""" text="""&amp;C282&amp;""" trigger="""&amp;D282&amp;"""/&gt;"</f>
@@ -5088,13 +5088,13 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C283" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D283" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F283" s="4" t="str">
         <f t="shared" si="22"/>
@@ -5109,7 +5109,7 @@
         <v>21</v>
       </c>
       <c r="D284" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F284" s="4" t="str">
         <f t="shared" si="22"/>
@@ -5127,15 +5127,15 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C286" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D286" s="1"/>
       <c r="F286" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A286,1)&amp;""" text="""&amp;C286&amp;""" trigger="""&amp;D286&amp;IF(E286&lt;&gt;"",", "&amp;E286&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="5" text="Brodin Allfather." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A286,1)&amp;""" text="""&amp;C286&amp;"""&gt;"</f>
+        <v>&lt;point id="5" text="Brodin Allfather."&gt;</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -5143,13 +5143,13 @@
         <v>5</v>
       </c>
       <c r="B287" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C287" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D287" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F287" s="4" t="str">
         <f t="shared" ref="F287:F289" si="23">"&lt;response key="""&amp;B287&amp;""" text="""&amp;C287&amp;""" trigger="""&amp;D287&amp;"""/&gt;"</f>
@@ -5161,13 +5161,13 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C288" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D288" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F288" s="4" t="str">
         <f t="shared" si="23"/>
@@ -5182,7 +5182,7 @@
         <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F289" s="4" t="str">
         <f t="shared" si="23"/>
@@ -5200,15 +5200,15 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C291" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D291" s="1"/>
       <c r="F291" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A291,1)&amp;""" text="""&amp;C291&amp;""" trigger="""&amp;D291&amp;IF(E291&lt;&gt;"",", "&amp;E291&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="6" text="Yeah, bro!" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A291,1)&amp;""" text="""&amp;C291&amp;"""&gt;"</f>
+        <v>&lt;point id="6" text="Yeah, bro!"&gt;</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -5216,13 +5216,13 @@
         <v>5</v>
       </c>
       <c r="B292" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C292" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D292" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F292" s="4" t="str">
         <f t="shared" ref="F292:F294" si="24">"&lt;response key="""&amp;B292&amp;""" text="""&amp;C292&amp;""" trigger="""&amp;D292&amp;"""/&gt;"</f>
@@ -5234,13 +5234,13 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C293" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D293" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F293" s="4" t="str">
         <f t="shared" si="24"/>
@@ -5255,7 +5255,7 @@
         <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F294" s="4" t="str">
         <f t="shared" si="24"/>
@@ -5273,13 +5273,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C296" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E296" t="s">
         <v>25</v>
@@ -5300,14 +5300,14 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C298" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F298" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A298,1)&amp;""" text="""&amp;C298&amp;""" trigger="""&amp;D298&amp;IF(E298&lt;&gt;"",", "&amp;E298&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="8" text="I'm not your pal, friend." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A298,1)&amp;""" text="""&amp;C298&amp;"""&gt;"</f>
+        <v>&lt;point id="8" text="I'm not your pal, friend."&gt;</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -5315,13 +5315,13 @@
         <v>5</v>
       </c>
       <c r="B299" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C299" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D299" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F299" s="4" t="str">
         <f t="shared" ref="F299:F301" si="25">"&lt;response key="""&amp;B299&amp;""" text="""&amp;C299&amp;""" trigger="""&amp;D299&amp;"""/&gt;"</f>
@@ -5333,13 +5333,13 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C300" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D300" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F300" s="4" t="str">
         <f t="shared" si="25"/>
@@ -5354,7 +5354,7 @@
         <v>21</v>
       </c>
       <c r="D301" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F301" s="4" t="str">
         <f t="shared" si="25"/>
@@ -5372,14 +5372,14 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C303" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F303" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A303,1)&amp;""" text="""&amp;C303&amp;""" trigger="""&amp;D303&amp;IF(E303&lt;&gt;"",", "&amp;E303&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="9" text="I'm not your man, buddy." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A303,1)&amp;""" text="""&amp;C303&amp;"""&gt;"</f>
+        <v>&lt;point id="9" text="I'm not your man, buddy."&gt;</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,13 +5387,13 @@
         <v>5</v>
       </c>
       <c r="B304" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C304" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D304" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F304" s="4" t="str">
         <f t="shared" ref="F304:F306" si="26">"&lt;response key="""&amp;B304&amp;""" text="""&amp;C304&amp;""" trigger="""&amp;D304&amp;"""/&gt;"</f>
@@ -5405,13 +5405,13 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C305" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D305" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F305" s="4" t="str">
         <f t="shared" si="26"/>
@@ -5426,7 +5426,7 @@
         <v>21</v>
       </c>
       <c r="D306" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F306" s="4" t="str">
         <f t="shared" si="26"/>
@@ -5444,14 +5444,14 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>171</v>
+      </c>
+      <c r="C308" t="s">
         <v>173</v>
       </c>
-      <c r="C308" t="s">
-        <v>175</v>
-      </c>
       <c r="F308" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A308,1)&amp;""" text="""&amp;C308&amp;""" trigger="""&amp;D308&amp;IF(E308&lt;&gt;"",", "&amp;E308&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="I'm not your guy, chief." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A308,1)&amp;""" text="""&amp;C308&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="I'm not your guy, chief."&gt;</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -5459,13 +5459,13 @@
         <v>5</v>
       </c>
       <c r="B309" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C309" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D309" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F309" s="4" t="str">
         <f t="shared" ref="F309:F311" si="27">"&lt;response key="""&amp;B309&amp;""" text="""&amp;C309&amp;""" trigger="""&amp;D309&amp;"""/&gt;"</f>
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C310" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D310" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F310" s="4" t="str">
         <f t="shared" si="27"/>
@@ -5498,7 +5498,7 @@
         <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F311" s="4" t="str">
         <f t="shared" si="27"/>
@@ -5516,14 +5516,14 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C313" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F313" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A313,1)&amp;""" text="""&amp;C313&amp;""" trigger="""&amp;D313&amp;IF(E313&lt;&gt;"",", "&amp;E313&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="I'm not your dude, chum." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A313,1)&amp;""" text="""&amp;C313&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="I'm not your dude, chum."&gt;</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -5531,13 +5531,13 @@
         <v>5</v>
       </c>
       <c r="B314" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C314" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D314" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F314" s="4" t="str">
         <f t="shared" ref="F314:F316" si="28">"&lt;response key="""&amp;B314&amp;""" text="""&amp;C314&amp;""" trigger="""&amp;D314&amp;"""/&gt;"</f>
@@ -5549,13 +5549,13 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C315" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D315" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F315" s="4" t="str">
         <f t="shared" si="28"/>
@@ -5570,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="D316" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F316" s="4" t="str">
         <f t="shared" si="28"/>
@@ -5588,14 +5588,14 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C318" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F318" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A318,1)&amp;""" text="""&amp;C318&amp;""" trigger="""&amp;D318&amp;IF(E318&lt;&gt;"",", "&amp;E318&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="I'm not your lady, partner." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A318,1)&amp;""" text="""&amp;C318&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="I'm not your lady, partner."&gt;</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -5603,13 +5603,13 @@
         <v>5</v>
       </c>
       <c r="B319" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C319" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D319" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F319" s="4" t="str">
         <f t="shared" ref="F319:F321" si="29">"&lt;response key="""&amp;B319&amp;""" text="""&amp;C319&amp;""" trigger="""&amp;D319&amp;"""/&gt;"</f>
@@ -5621,13 +5621,13 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C320" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D320" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F320" s="4" t="str">
         <f t="shared" si="29"/>
@@ -5642,7 +5642,7 @@
         <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F321" s="4" t="str">
         <f t="shared" si="29"/>
@@ -5660,14 +5660,14 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C323" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F323" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A323,1)&amp;""" text="""&amp;C323&amp;""" trigger="""&amp;D323&amp;IF(E323&lt;&gt;"",", "&amp;E323&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="I'm not your cousin, bro." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A323,1)&amp;""" text="""&amp;C323&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="I'm not your cousin, bro."&gt;</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -5675,13 +5675,13 @@
         <v>5</v>
       </c>
       <c r="B324" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C324" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D324" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F324" s="4" t="str">
         <f t="shared" ref="F324:F326" si="30">"&lt;response key="""&amp;B324&amp;""" text="""&amp;C324&amp;""" trigger="""&amp;D324&amp;"""/&gt;"</f>
@@ -5693,13 +5693,13 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C325" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D325" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F325" s="4" t="str">
         <f t="shared" si="30"/>
@@ -5714,7 +5714,7 @@
         <v>21</v>
       </c>
       <c r="D326" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F326" s="4" t="str">
         <f t="shared" si="30"/>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C328" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>25</v>
@@ -5785,7 +5785,7 @@
         <v>31</v>
       </c>
       <c r="B333" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F333" s="4" t="str">
         <f>"&lt;npc name="""&amp;B333&amp;"""&gt;"</f>
@@ -5797,7 +5797,7 @@
         <v>27</v>
       </c>
       <c r="B334" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F334" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B334&amp;".png""/&gt;"</f>
@@ -5818,11 +5818,11 @@
         <v>0</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F336" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A336,1)&amp;""" text="""&amp;C336&amp;""" trigger="""&amp;D336&amp;IF(E336&lt;&gt;"",", "&amp;E336&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="Give me a 'J'!" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A336,1)&amp;""" text="""&amp;C336&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="Give me a 'J'!"&gt;</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -5830,13 +5830,13 @@
         <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D337" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F337" s="4" t="str">
         <f t="shared" ref="F337:F340" si="31">"&lt;response key="""&amp;B337&amp;""" text="""&amp;C337&amp;""" trigger="""&amp;D337&amp;"""/&gt;"</f>
@@ -5848,16 +5848,16 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D338" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E338" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F338" s="4" t="str">
         <f>"&lt;response key="""&amp;B338&amp;""" text="""&amp;C338&amp;""" trigger="""&amp;D338&amp;IF(E338&lt;&gt;"",", "&amp;E338&amp;"""/&gt;","""/&gt;")</f>
@@ -5869,13 +5869,13 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D339" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F339" s="4" t="str">
         <f t="shared" si="31"/>
@@ -5890,7 +5890,7 @@
         <v>21</v>
       </c>
       <c r="D340" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F340" s="4" t="str">
         <f t="shared" si="31"/>
@@ -5911,12 +5911,12 @@
         <v>1</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D342" s="1"/>
       <c r="F342" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A342,1)&amp;""" text="""&amp;C342&amp;""" trigger="""&amp;D342&amp;IF(E342&lt;&gt;"",", "&amp;E342&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="Give me a 'T'!" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A342,1)&amp;""" text="""&amp;C342&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="Give me a 'T'!"&gt;</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -5924,13 +5924,13 @@
         <v>5</v>
       </c>
       <c r="B343" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D343" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F343" s="4" t="str">
         <f t="shared" ref="F343:F346" si="32">"&lt;response key="""&amp;B343&amp;""" text="""&amp;C343&amp;""" trigger="""&amp;D343&amp;"""/&gt;"</f>
@@ -5945,13 +5945,13 @@
         <v>12</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D344" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E344" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F344" s="4" t="str">
         <f>"&lt;response key="""&amp;B344&amp;""" text="""&amp;C344&amp;""" trigger="""&amp;D344&amp;IF(E344&lt;&gt;"",", "&amp;E344&amp;"""/&gt;","""/&gt;")</f>
@@ -5963,13 +5963,13 @@
         <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D345" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F345" s="4" t="str">
         <f t="shared" si="32"/>
@@ -5984,7 +5984,7 @@
         <v>21</v>
       </c>
       <c r="D346" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F346" s="4" t="str">
         <f t="shared" si="32"/>
@@ -6005,12 +6005,12 @@
         <v>2</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D348" s="1"/>
       <c r="F348" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A348,1)&amp;""" text="""&amp;C348&amp;""" trigger="""&amp;D348&amp;IF(E348&lt;&gt;"",", "&amp;E348&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="Give me a 'Spaceman'!" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A348,1)&amp;""" text="""&amp;C348&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="Give me a 'Spaceman'!"&gt;</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -6021,10 +6021,10 @@
         <v>11</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D349" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F349" s="4" t="str">
         <f t="shared" ref="F349:F351" si="33">"&lt;response key="""&amp;B349&amp;""" text="""&amp;C349&amp;""" trigger="""&amp;D349&amp;"""/&gt;"</f>
@@ -6039,10 +6039,10 @@
         <v>12</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D350" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F350" s="4" t="str">
         <f t="shared" si="33"/>
@@ -6057,7 +6057,7 @@
         <v>21</v>
       </c>
       <c r="D351" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F351" s="4" t="str">
         <f t="shared" si="33"/>
@@ -6078,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E353" t="s">
         <v>25</v>
@@ -6105,10 +6105,10 @@
         <v>4</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E355" t="s">
         <v>25</v>
@@ -6158,7 +6158,7 @@
         <v>31</v>
       </c>
       <c r="B360" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F360" s="4" t="str">
         <f>"&lt;npc name="""&amp;B360&amp;"""&gt;"</f>
@@ -6170,7 +6170,7 @@
         <v>27</v>
       </c>
       <c r="B361" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F361" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B361&amp;".png""/&gt;"</f>
@@ -6191,11 +6191,11 @@
         <v>0</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F363" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A363,1)&amp;""" text="""&amp;C363&amp;""" trigger="""&amp;D363&amp;IF(E363&lt;&gt;"",", "&amp;E363&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="Stop! Who would jaunt the space of death must answer me these questions three, ere the other side he see." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A363,1)&amp;""" text="""&amp;C363&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="Stop! Who would jaunt the space of death must answer me these questions three, ere the other side he see."&gt;</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -6206,10 +6206,10 @@
         <v>11</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D364" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F364" s="4" t="str">
         <f>"&lt;response key="""&amp;B364&amp;""" text="""&amp;C364&amp;""" trigger="""&amp;D364&amp;"""/&gt;"</f>
@@ -6224,7 +6224,7 @@
         <v>21</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E365" t="s">
         <v>25</v>
@@ -6248,12 +6248,12 @@
         <v>1</v>
       </c>
       <c r="C367" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D367" s="1"/>
       <c r="F367" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A367,1)&amp;""" text="""&amp;C367&amp;""" trigger="""&amp;D367&amp;IF(E367&lt;&gt;"",", "&amp;E367&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="1" text="What is your name?" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A367,1)&amp;""" text="""&amp;C367&amp;"""&gt;"</f>
+        <v>&lt;point id="1" text="What is your name?"&gt;</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -6261,13 +6261,13 @@
         <v>5</v>
       </c>
       <c r="B368" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E368" t="s">
         <v>25</v>
@@ -6282,13 +6282,13 @@
         <v>6</v>
       </c>
       <c r="B369" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D369" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F369" s="4" t="str">
         <f t="shared" ref="F369:F370" si="34">"&lt;response key="""&amp;B369&amp;""" text="""&amp;C369&amp;""" trigger="""&amp;D369&amp;"""/&gt;"</f>
@@ -6300,17 +6300,17 @@
         <v>7</v>
       </c>
       <c r="B370" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D370" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F370" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;response key="S" text="Jogn T. Spaceman" trigger="Go To 2"/&gt;</v>
+        <v>&lt;response key="S" text="John T. Spaceman" trigger="Go To 2"/&gt;</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
         <v>21</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E371" t="s">
         <v>25</v>
@@ -6345,12 +6345,12 @@
         <v>2</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D373" s="1"/>
       <c r="F373" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A373,1)&amp;""" text="""&amp;C373&amp;""" trigger="""&amp;D373&amp;IF(E373&lt;&gt;"",", "&amp;E373&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="What is your quest?" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A373,1)&amp;""" text="""&amp;C373&amp;"""&gt;"</f>
+        <v>&lt;point id="2" text="What is your quest?"&gt;</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -6358,13 +6358,13 @@
         <v>5</v>
       </c>
       <c r="B374" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
@@ -6379,13 +6379,13 @@
         <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
@@ -6400,13 +6400,13 @@
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D376" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F376" s="4" t="str">
         <f>"&lt;response key="""&amp;B376&amp;""" text="""&amp;C376&amp;""" trigger="""&amp;D376&amp;"""/&gt;"</f>
@@ -6421,7 +6421,7 @@
         <v>21</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E377" t="s">
         <v>25</v>
@@ -6445,12 +6445,12 @@
         <v>3</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D379" s="1"/>
       <c r="F379" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A379,1)&amp;""" text="""&amp;C379&amp;""" trigger="""&amp;D379&amp;IF(E379&lt;&gt;"",", "&amp;E379&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="What is the air-speed velocity of an unladen swallow?" trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A379,1)&amp;""" text="""&amp;C379&amp;"""&gt;"</f>
+        <v>&lt;point id="3" text="What is the air-speed velocity of an unladen swallow?"&gt;</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,10 +6461,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
@@ -6479,13 +6479,13 @@
         <v>6</v>
       </c>
       <c r="B381" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D381" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F381" s="4" t="str">
         <f>"&lt;response key="""&amp;B381&amp;""" text="""&amp;C381&amp;""" trigger="""&amp;D381&amp;"""/&gt;"</f>
@@ -6497,13 +6497,13 @@
         <v>7</v>
       </c>
       <c r="B382" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
@@ -6521,7 +6521,7 @@
         <v>21</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E383" t="s">
         <v>25</v>
@@ -6545,10 +6545,10 @@
         <v>4</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
@@ -6598,7 +6598,7 @@
         <v>31</v>
       </c>
       <c r="B390" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F390" s="4" t="str">
         <f>"&lt;npc name="""&amp;B390&amp;"""&gt;"</f>
@@ -6610,7 +6610,7 @@
         <v>27</v>
       </c>
       <c r="B391" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F391" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B391&amp;".png""/&gt;"</f>
@@ -6631,11 +6631,11 @@
         <v>0</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F393" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A393,1)&amp;""" text="""&amp;C393&amp;""" trigger="""&amp;D393&amp;IF(E393&lt;&gt;"",", "&amp;E393&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="0" text="Hello, good sir." trigger=""&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A393,1)&amp;""" text="""&amp;C393&amp;"""&gt;"</f>
+        <v>&lt;point id="0" text="Hello, good sir."&gt;</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -6646,10 +6646,10 @@
         <v>11</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D394" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F394" s="4" t="str">
         <f t="shared" ref="F394:F396" si="37">"&lt;response key="""&amp;B394&amp;""" text="""&amp;C394&amp;""" trigger="""&amp;D394&amp;"""/&gt;"</f>
@@ -6664,10 +6664,10 @@
         <v>12</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D395" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F395" s="4" t="str">
         <f t="shared" si="37"/>
@@ -6682,10 +6682,10 @@
         <v>13</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D396" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F396" s="4" t="str">
         <f t="shared" si="37"/>
@@ -6700,7 +6700,7 @@
         <v>21</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
@@ -6724,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>25</v>
@@ -6748,10 +6748,10 @@
         <v>2</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
@@ -6775,10 +6775,10 @@
         <v>3</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="266">
   <si>
     <t>Point0</t>
   </si>
@@ -798,16 +798,10 @@
     <t>Give 5 O2</t>
   </si>
   <si>
-    <t>Give  10 O2</t>
-  </si>
-  <si>
     <t>Take 0.1 O2</t>
   </si>
   <si>
     <t>Take 0.2 O2</t>
-  </si>
-  <si>
-    <t>Take 5 O2</t>
   </si>
   <si>
     <t>Female</t>
@@ -1314,8 +1308,8 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B3&amp;".png""/&gt;"</f>
@@ -1505,7 +1499,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1532,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1594,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B21&amp;".png""/&gt;"</f>
@@ -1853,7 +1847,7 @@
         <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -1915,7 +1909,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F45" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B45&amp;".png""/&gt;"</f>
@@ -1936,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F47" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A47,1)&amp;""" text="""&amp;C47&amp;"""&gt;"</f>
@@ -1969,7 +1963,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
@@ -1993,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F51" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A51,1)&amp;""" text="""&amp;C51&amp;"""&gt;"</f>
@@ -2026,7 +2020,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
@@ -2050,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F55" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A55,1)&amp;""" text="""&amp;C55&amp;"""&gt;"</f>
@@ -2083,7 +2077,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
@@ -2107,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F59" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A59,1)&amp;""" text="""&amp;C59&amp;"""&gt;"</f>
@@ -2140,7 +2134,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
@@ -2164,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F63" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A63,1)&amp;""" text="""&amp;C63&amp;"""&gt;"</f>
@@ -2197,7 +2191,7 @@
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E65" t="s">
         <v>25</v>
@@ -2221,7 +2215,7 @@
         <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F67" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A67,1)&amp;""" text="""&amp;C67&amp;"""&gt;"</f>
@@ -2254,7 +2248,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
@@ -2278,7 +2272,7 @@
         <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F71" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A71,1)&amp;""" text="""&amp;C71&amp;"""&gt;"</f>
@@ -2311,7 +2305,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
@@ -2400,7 +2394,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F81" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B81&amp;".png""/&gt;"</f>
@@ -2796,7 +2790,7 @@
         <v>66</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
@@ -2823,7 +2817,7 @@
         <v>65</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E110" t="s">
         <v>25</v>
@@ -2885,7 +2879,7 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F116" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B116&amp;".png""/&gt;"</f>
@@ -3026,7 +3020,7 @@
         <v>72</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E126" t="s">
         <v>25</v>
@@ -3112,7 +3106,7 @@
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F134" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B134&amp;".png""/&gt;"</f>
@@ -3253,7 +3247,7 @@
         <v>80</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E144" t="s">
         <v>25</v>
@@ -3339,7 +3333,7 @@
         <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F152" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B152&amp;".png""/&gt;"</f>
@@ -3544,7 +3538,7 @@
         <v>94</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E166" t="s">
         <v>25</v>
@@ -3633,7 +3627,7 @@
         <v>27</v>
       </c>
       <c r="B174" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F174" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B174&amp;".png""/&gt;"</f>
@@ -3857,7 +3851,7 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F192" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B192&amp;".png""/&gt;"</f>
@@ -3953,7 +3947,7 @@
         <v>111</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E199" t="s">
         <v>25</v>
@@ -3980,7 +3974,7 @@
         <v>112</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E201" t="s">
         <v>25</v>
@@ -4042,7 +4036,7 @@
         <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F207" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B207&amp;".png""/&gt;"</f>
@@ -4183,7 +4177,7 @@
         <v>73</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E217" t="s">
         <v>25</v>
@@ -4245,7 +4239,7 @@
         <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F223" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B223&amp;".png""/&gt;"</f>
@@ -4536,7 +4530,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F243" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A243,1)&amp;""" text="""&amp;C243&amp;"""&gt;"</f>
@@ -4656,7 +4650,7 @@
         <v>143</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E251" t="s">
         <v>25</v>
@@ -4683,7 +4677,7 @@
         <v>144</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E253" t="s">
         <v>25</v>
@@ -4745,7 +4739,7 @@
         <v>27</v>
       </c>
       <c r="B259" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F259" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B259&amp;".png""/&gt;"</f>
@@ -5797,7 +5791,7 @@
         <v>27</v>
       </c>
       <c r="B334" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F334" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B334&amp;".png""/&gt;"</f>
@@ -6081,14 +6075,14 @@
         <v>215</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E353" t="s">
         <v>25</v>
       </c>
       <c r="F353" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A353,1)&amp;""" text="""&amp;C353&amp;""" trigger="""&amp;D353&amp;IF(E353&lt;&gt;"",", "&amp;E353&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Yay! Jaunty Spaceman!" trigger="Give 5 O2, EndDialog"&gt;</v>
+        <v>&lt;point id="3" text="Yay! Jaunty Spaceman!" trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -6108,14 +6102,14 @@
         <v>216</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E355" t="s">
         <v>25</v>
       </c>
       <c r="F355" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A355,1)&amp;""" text="""&amp;C355&amp;""" trigger="""&amp;D355&amp;IF(E355&lt;&gt;"",", "&amp;E355&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="Aww, so sad!" trigger="Take 5 O2, EndDialog"&gt;</v>
+        <v>&lt;point id="4" text="Aww, so sad!" trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -6170,7 +6164,7 @@
         <v>27</v>
       </c>
       <c r="B361" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F361" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B361&amp;".png""/&gt;"</f>
@@ -6224,14 +6218,14 @@
         <v>21</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E365" t="s">
         <v>25</v>
       </c>
       <c r="F365" s="4" t="str">
         <f>"&lt;response key="""&amp;B365&amp;""" text="""&amp;C365&amp;""" trigger="""&amp;D365&amp;IF(E365&lt;&gt;"",", "&amp;E365&amp;"""/&gt;","""/&gt;")</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -6267,14 +6261,14 @@
         <v>221</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E368" t="s">
         <v>25</v>
       </c>
       <c r="F368" s="4" t="str">
         <f>"&lt;response key="""&amp;B368&amp;""" text="""&amp;C368&amp;""" trigger="""&amp;D368&amp;IF(E368&lt;&gt;"",", "&amp;E368&amp;"""/&gt;","""/&gt;")</f>
-        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="J" text="Jaunty Spacemin" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -6303,7 +6297,7 @@
         <v>88</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D370" t="s">
         <v>241</v>
@@ -6321,14 +6315,14 @@
         <v>21</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E371" t="s">
         <v>25</v>
       </c>
       <c r="F371" s="4" t="str">
         <f>"&lt;response key="""&amp;B371&amp;""" text="""&amp;C371&amp;""" trigger="""&amp;D371&amp;IF(E371&lt;&gt;"",", "&amp;E371&amp;"""/&gt;","""/&gt;")</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -6364,14 +6358,14 @@
         <v>224</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
       </c>
       <c r="F374" s="4" t="str">
         <f t="shared" ref="F374:F375" si="35">"&lt;response key="""&amp;B374&amp;""" text="""&amp;C374&amp;""" trigger="""&amp;D374&amp;IF(E374&lt;&gt;"",", "&amp;E374&amp;"""/&gt;","""/&gt;")</f>
-        <v>&lt;response key="O" text="To jaunt through space." trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="O" text="To jaunt through space." trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -6385,14 +6379,14 @@
         <v>225</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
       </c>
       <c r="F375" s="4" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="X" text="To seek the Holy Grail." trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -6421,14 +6415,14 @@
         <v>21</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E377" t="s">
         <v>25</v>
       </c>
       <c r="F377" s="4" t="str">
         <f>"&lt;response key="""&amp;B377&amp;""" text="""&amp;C377&amp;""" trigger="""&amp;D377&amp;IF(E377&lt;&gt;"",", "&amp;E377&amp;"""/&gt;","""/&gt;")</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -6464,14 +6458,14 @@
         <v>228</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
       </c>
       <c r="F380" s="4" t="str">
         <f>"&lt;response key="""&amp;B380&amp;""" text="""&amp;C380&amp;""" trigger="""&amp;D380&amp;IF(E380&lt;&gt;"",", "&amp;E380&amp;"""/&gt;","""/&gt;")</f>
-        <v>&lt;response key="1" text="One." trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="1" text="One." trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -6503,14 +6497,14 @@
         <v>230</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
       </c>
       <c r="F382" s="4" t="str">
         <f t="shared" ref="F382:F383" si="36">"&lt;response key="""&amp;B382&amp;""" text="""&amp;C382&amp;""" trigger="""&amp;D382&amp;IF(E382&lt;&gt;"",", "&amp;E382&amp;"""/&gt;","""/&gt;")</f>
-        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="S" text="Don't you mean 'space-speed'?" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -6521,14 +6515,14 @@
         <v>21</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E383" t="s">
         <v>25</v>
       </c>
       <c r="F383" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -6548,14 +6542,14 @@
         <v>231</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
       </c>
       <c r="F385" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A385,1)&amp;""" text="""&amp;C385&amp;""" trigger="""&amp;D385&amp;IF(E385&lt;&gt;"",", "&amp;E385&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="What? I don't know that! Auuuuuuuugh!" trigger="Give  10 O2, EndDialog"&gt;</v>
+        <v>&lt;point id="4" text="What? I don't know that! Auuuuuuuugh!" trigger="Give 0.2 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -6610,7 +6604,7 @@
         <v>27</v>
       </c>
       <c r="B391" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F391" s="4" t="str">
         <f>"&lt;spriteset file="""&amp;B391&amp;".png""/&gt;"</f>
@@ -6700,14 +6694,14 @@
         <v>21</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
       </c>
       <c r="F397" s="4" t="str">
         <f>"&lt;response key="""&amp;B397&amp;""" text="""&amp;C397&amp;""" trigger="""&amp;D397&amp;IF(E397&lt;&gt;"",", "&amp;E397&amp;"""/&gt;","""/&gt;")</f>
-        <v>&lt;response key="(timeout)" text="" trigger="Take 5 O2, EndDialog"/&gt;</v>
+        <v>&lt;response key="(timeout)" text="" trigger="Take 0.1 O2, EndDialog"/&gt;</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -6751,14 +6745,14 @@
         <v>237</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
       </c>
       <c r="F401" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A401,1)&amp;""" text="""&amp;C401&amp;""" trigger="""&amp;D401&amp;IF(E401&lt;&gt;"",", "&amp;E401&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="2" text="Mayhap this will aid you on your journey." trigger="Give 5 O2, EndDialog"&gt;</v>
+        <v>&lt;point id="2" text="Mayhap this will aid you on your journey." trigger="Give 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -6778,14 +6772,14 @@
         <v>238</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>
       </c>
       <c r="F403" s="4" t="str">
         <f>"&lt;point id="""&amp;RIGHT(A403,1)&amp;""" text="""&amp;C403&amp;""" trigger="""&amp;D403&amp;IF(E403&lt;&gt;"",", "&amp;E403&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="3" text="Ugh. I don't need to be rescued, especially not by a hallucinating spaceman." trigger="Take 5 O2, EndDialog"&gt;</v>
+        <v>&lt;point id="3" text="Ugh. I don't need to be rescued, especially not by a hallucinating spaceman." trigger="Take 0.1 O2, EndDialog"&gt;</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -1308,8 +1308,8 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F147" sqref="F147"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5444,8 +5444,8 @@
         <v>173</v>
       </c>
       <c r="F308" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A308,1)&amp;""" text="""&amp;C308&amp;"""&gt;"</f>
-        <v>&lt;point id="0" text="I'm not your guy, chief."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A308,LEN(A308)-5)&amp;""" text="""&amp;C308&amp;"""&gt;"</f>
+        <v>&lt;point id="10" text="I'm not your guy, chief."&gt;</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -5516,8 +5516,8 @@
         <v>180</v>
       </c>
       <c r="F313" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A313,1)&amp;""" text="""&amp;C313&amp;"""&gt;"</f>
-        <v>&lt;point id="1" text="I'm not your dude, chum."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A313,LEN(A313)-5)&amp;""" text="""&amp;C313&amp;"""&gt;"</f>
+        <v>&lt;point id="11" text="I'm not your dude, chum."&gt;</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -5588,8 +5588,8 @@
         <v>203</v>
       </c>
       <c r="F318" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A318,1)&amp;""" text="""&amp;C318&amp;"""&gt;"</f>
-        <v>&lt;point id="2" text="I'm not your lady, partner."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A318,LEN(A318)-5)&amp;""" text="""&amp;C318&amp;"""&gt;"</f>
+        <v>&lt;point id="12" text="I'm not your lady, partner."&gt;</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -5660,8 +5660,8 @@
         <v>206</v>
       </c>
       <c r="F323" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A323,1)&amp;""" text="""&amp;C323&amp;"""&gt;"</f>
-        <v>&lt;point id="3" text="I'm not your cousin, bro."&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A323,LEN(A323)-5)&amp;""" text="""&amp;C323&amp;"""&gt;"</f>
+        <v>&lt;point id="13" text="I'm not your cousin, bro."&gt;</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -5735,8 +5735,8 @@
         <v>25</v>
       </c>
       <c r="F328" s="4" t="str">
-        <f>"&lt;point id="""&amp;RIGHT(A328,1)&amp;""" text="""&amp;C328&amp;""" trigger="""&amp;D328&amp;IF(E328&lt;&gt;"",", "&amp;E328&amp;"""&gt;","""&gt;")</f>
-        <v>&lt;point id="4" text="Comrade? Really?" trigger="EndDialog"&gt;</v>
+        <f>"&lt;point id="""&amp;RIGHT(A328,LEN(A328)-5)&amp;""" text="""&amp;C328&amp;"""&gt;"</f>
+        <v>&lt;point id="14" text="Comrade? Really?"&gt;</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">

--- a/jauntyspaceman/Docs/XMLmaker.xlsx
+++ b/jauntyspaceman/Docs/XMLmaker.xlsx
@@ -1308,8 +1308,8 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F311" sqref="F311"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
